--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="151">
   <si>
     <t>Doi</t>
   </si>
@@ -659,6 +659,98 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,    Erica B.%Rose%NULL%1,    Steven M.%Horwitz%NULL%1,    Jennifer P.%Collins%NULL%1,    Margaret M.%Newhams%NULL%1,    Mary Beth F.%Son%NULL%1,    Jane W.%Newburger%NULL%1,    Lawrence C.%Kleinman%NULL%1,    Sabrina M.%Heidemann%NULL%1,    Amarilis A.%Martin%NULL%2,    Amarilis A.%Martin%NULL%0,    Aalok R.%Singh%NULL%1,    Simon%Li%NULL%1,    Keiko M.%Tarquinio%NULL%1,    Preeti%Jaggi%NULL%1,    Matthew E.%Oster%NULL%1,    Sheemon P.%Zackai%NULL%1,    Jennifer%Gillen%NULL%1,    Adam J.%Ratner%NULL%1,    Rowan F.%Walsh%NULL%1,    Julie C.%Fitzgerald%NULL%1,    Michael A.%Keenaghan%NULL%1,    Hussam%Alharash%NULL%1,    Sule%Doymaz%NULL%1,    Katharine N.%Clouser%NULL%1,    John S.%Giuliano%NULL%1,    Anjali%Gupta%NULL%1,    Robert M.%Parker%NULL%1,    Aline B.%Maddux%NULL%1,    Vinod%Havalad%NULL%1,    Stacy%Ramsingh%NULL%1,    Hulya%Bukulmez%NULL%1,    Tamara T.%Bradford%NULL%1,    Lincoln S.%Smith%NULL%1,    Mark W.%Tenforde%NULL%1,    Christopher L.%Carroll%NULL%1,    Becky J.%Riggs%NULL%1,    Shira J.%Gertz%NULL%1,    Ariel%Daube%NULL%1,    Amanda%Lansell%NULL%2,    Amanda%Lansell%NULL%0,    Alvaro%Coronado Munoz%NULL%1,    Charlotte V.%Hobbs%NULL%2,    Charlotte V.%Hobbs%NULL%0,    Kimberly L.%Marohn%NULL%1,    Natasha B.%Halasa%NULL%1,    Manish M.%Patel%NULL%1,    Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children were relatively spared during COVID-19 pandemic.
+ However, the recently reported hyperinflammatory syndrome with overlapping features of Kawasaki disease and toxic shock syndrome—“Paediatric Inflammatory Multisystem Syndrome-temporally associated with SARS-CoV-2” (PIMS-TS) has caused concern.
+ We describe cardiac findings and short-term outcomes in children with PIMS-TS at a tertiary children’s hospital.
+ Single-center observational study of children with PIMS-TS from 10th April to 9th May 2020. Data on ECG and echocardiogram were retrospectively analyzed along with demographics, clinical features and blood parameters.
+ Fifteen children with median age of 8.8 (IQR 6.4–11.2) years were included, all were from African/Afro-Caribbean, South Asian, Mixed or other minority ethnic groups.
+ All showed raised inflammatory/cardiac markers (CRP, ferritin, Troponin I, CK and pro-BNP).
+ Transient valve regurgitation was present in 10 patients (67%).
+ Left Ventricular ejection fraction was reduced in 12 (80%), fractional shortening in 8 (53%) with resolution in all but 2. Fourteen (93%) had coronary artery abnormalities, with normalization in 6. ECG abnormalities were present in 9 (60%) which normalized in 6 by discharge.
+ Ten (67%) needed inotropes and/or vasopressors.
+ None needed extracorporeal life support.
+ Improvement in cardiac biochemical markers was closely followed by improvement in ECG/echocardiogram.
+ All patients were discharged alive and twelve (80%) have been reviewed since.
+ Our entire cohort with PIMS-TS had cardiac involvement and this degree of involvement is significantly more than other published series and emphasizes the need for specialist cardiac review.
+ We believe that our multi-disciplinary team approach was crucial for the good short-term outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,     Oscar%Nolan%NULL%1,     Chui Yi%Lai%NULL%1,     Nanda%Prabhu%NULL%1,     Raghu%Krishnamurthy%NULL%1,     Alex G.%Richter%NULL%1,     Deepthi%Jyothish%NULL%1,     Hari Krishnan%Kanthimathinathan%NULL%2,     Steven B.%Welch%NULL%1,     Scott%Hackett%NULL%1,     Eslam%Al-Abadi%NULL%1,     Barnaby R.%Scholefield%NULL%1,     Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
+ This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
+Results
+id="Par2"&gt;20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
+ The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
+ All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
+ At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
+ SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
+ One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
+ All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
+ All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
+ All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
+Conclusions
+id="Par3"&gt;Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
+ Early recognition of this disease is needed and referral to an expert center is recommended.
+ A delayed and inappropriate host immunological response is suspected.
+ While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
+</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,     Julie%Starck%NULL%1,     Michael%Levy%NULL%1,     Clémence%Marais%NULL%1,     Judith%Chareyre%NULL%1,     Diala%Khraiche%NULL%1,     Marianne%Leruez-Ville%NULL%1,     Pierre%Quartier%NULL%1,     Pierre Louis%Léger%NULL%1,     Guillaume%Geslain%NULL%1,     Nada%Semaan%NULL%1,     Florence%Moulin%NULL%1,     Matthieu%Bendavid%NULL%1,     Sandrine%Jean%NULL%1,     Géraldine%Poncelet%NULL%1,     Sylvain%Renolleau%NULL%1,     Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
+ This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
+Results
+20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
+ The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
+ All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
+ At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
+ SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
+ One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
+ All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
+ All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
+ All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
+Conclusions
+id="Par3"&gt;Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
+ Early recognition of this disease is needed and referral to an expert center is recommended.
+ A delayed and inappropriate host immunological response is suspected.
+ While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
+</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,      Julie%Starck%NULL%1,      Michael%Levy%NULL%1,      Clémence%Marais%NULL%1,      Judith%Chareyre%NULL%1,      Diala%Khraiche%NULL%1,      Marianne%Leruez-Ville%NULL%1,      Pierre%Quartier%NULL%1,      Pierre Louis%Léger%NULL%1,      Guillaume%Geslain%NULL%1,      Nada%Semaan%NULL%1,      Florence%Moulin%NULL%1,      Matthieu%Bendavid%NULL%1,      Sandrine%Jean%NULL%1,      Géraldine%Poncelet%NULL%1,      Sylvain%Renolleau%NULL%1,      Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
+ This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
+Results
+20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
+ The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
+ All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
+ At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
+ SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
+ One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
+ All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
+ All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
+ All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
+Conclusions
+Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
+ Early recognition of this disease is needed and referral to an expert center is recommended.
+ A delayed and inappropriate host immunological response is suspected.
+ While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
+</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,       Julie%Starck%NULL%1,       Michael%Levy%NULL%1,       Clémence%Marais%NULL%1,       Judith%Chareyre%NULL%1,       Diala%Khraiche%NULL%1,       Marianne%Leruez-Ville%NULL%1,       Pierre%Quartier%NULL%1,       Pierre Louis%Léger%NULL%1,       Guillaume%Geslain%NULL%1,       Nada%Semaan%NULL%1,       Florence%Moulin%NULL%1,       Matthieu%Bendavid%NULL%1,       Sandrine%Jean%NULL%1,       Géraldine%Poncelet%NULL%1,       Sylvain%Renolleau%NULL%1,       Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1362,10 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1296,10 +1388,10 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="143">
   <si>
     <t>Doi</t>
   </si>
@@ -659,98 +659,6 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,    Erica B.%Rose%NULL%1,    Steven M.%Horwitz%NULL%1,    Jennifer P.%Collins%NULL%1,    Margaret M.%Newhams%NULL%1,    Mary Beth F.%Son%NULL%1,    Jane W.%Newburger%NULL%1,    Lawrence C.%Kleinman%NULL%1,    Sabrina M.%Heidemann%NULL%1,    Amarilis A.%Martin%NULL%2,    Amarilis A.%Martin%NULL%0,    Aalok R.%Singh%NULL%1,    Simon%Li%NULL%1,    Keiko M.%Tarquinio%NULL%1,    Preeti%Jaggi%NULL%1,    Matthew E.%Oster%NULL%1,    Sheemon P.%Zackai%NULL%1,    Jennifer%Gillen%NULL%1,    Adam J.%Ratner%NULL%1,    Rowan F.%Walsh%NULL%1,    Julie C.%Fitzgerald%NULL%1,    Michael A.%Keenaghan%NULL%1,    Hussam%Alharash%NULL%1,    Sule%Doymaz%NULL%1,    Katharine N.%Clouser%NULL%1,    John S.%Giuliano%NULL%1,    Anjali%Gupta%NULL%1,    Robert M.%Parker%NULL%1,    Aline B.%Maddux%NULL%1,    Vinod%Havalad%NULL%1,    Stacy%Ramsingh%NULL%1,    Hulya%Bukulmez%NULL%1,    Tamara T.%Bradford%NULL%1,    Lincoln S.%Smith%NULL%1,    Mark W.%Tenforde%NULL%1,    Christopher L.%Carroll%NULL%1,    Becky J.%Riggs%NULL%1,    Shira J.%Gertz%NULL%1,    Ariel%Daube%NULL%1,    Amanda%Lansell%NULL%2,    Amanda%Lansell%NULL%0,    Alvaro%Coronado Munoz%NULL%1,    Charlotte V.%Hobbs%NULL%2,    Charlotte V.%Hobbs%NULL%0,    Kimberly L.%Marohn%NULL%1,    Natasha B.%Halasa%NULL%1,    Manish M.%Patel%NULL%1,    Adrienne G.%Randolph%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children were relatively spared during COVID-19 pandemic.
- However, the recently reported hyperinflammatory syndrome with overlapping features of Kawasaki disease and toxic shock syndrome—“Paediatric Inflammatory Multisystem Syndrome-temporally associated with SARS-CoV-2” (PIMS-TS) has caused concern.
- We describe cardiac findings and short-term outcomes in children with PIMS-TS at a tertiary children’s hospital.
- Single-center observational study of children with PIMS-TS from 10th April to 9th May 2020. Data on ECG and echocardiogram were retrospectively analyzed along with demographics, clinical features and blood parameters.
- Fifteen children with median age of 8.8 (IQR 6.4–11.2) years were included, all were from African/Afro-Caribbean, South Asian, Mixed or other minority ethnic groups.
- All showed raised inflammatory/cardiac markers (CRP, ferritin, Troponin I, CK and pro-BNP).
- Transient valve regurgitation was present in 10 patients (67%).
- Left Ventricular ejection fraction was reduced in 12 (80%), fractional shortening in 8 (53%) with resolution in all but 2. Fourteen (93%) had coronary artery abnormalities, with normalization in 6. ECG abnormalities were present in 9 (60%) which normalized in 6 by discharge.
- Ten (67%) needed inotropes and/or vasopressors.
- None needed extracorporeal life support.
- Improvement in cardiac biochemical markers was closely followed by improvement in ECG/echocardiogram.
- All patients were discharged alive and twelve (80%) have been reviewed since.
- Our entire cohort with PIMS-TS had cardiac involvement and this degree of involvement is significantly more than other published series and emphasizes the need for specialist cardiac review.
- We believe that our multi-disciplinary team approach was crucial for the good short-term outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Tristan%Ramcharan%NULL%1,     Oscar%Nolan%NULL%1,     Chui Yi%Lai%NULL%1,     Nanda%Prabhu%NULL%1,     Raghu%Krishnamurthy%NULL%1,     Alex G.%Richter%NULL%1,     Deepthi%Jyothish%NULL%1,     Hari Krishnan%Kanthimathinathan%NULL%2,     Steven B.%Welch%NULL%1,     Scott%Hackett%NULL%1,     Eslam%Al-Abadi%NULL%1,     Barnaby R.%Scholefield%NULL%1,     Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
- This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
-Results
-id="Par2"&gt;20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
- The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
- All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
- At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
- SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
- One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
- All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
- All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
- All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
-Conclusions
-id="Par3"&gt;Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
- Early recognition of this disease is needed and referral to an expert center is recommended.
- A delayed and inappropriate host immunological response is suspected.
- While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
-</t>
-  </si>
-  <si>
-    <t>[Marion%Grimaud%NULL%0,     Julie%Starck%NULL%1,     Michael%Levy%NULL%1,     Clémence%Marais%NULL%1,     Judith%Chareyre%NULL%1,     Diala%Khraiche%NULL%1,     Marianne%Leruez-Ville%NULL%1,     Pierre%Quartier%NULL%1,     Pierre Louis%Léger%NULL%1,     Guillaume%Geslain%NULL%1,     Nada%Semaan%NULL%1,     Florence%Moulin%NULL%1,     Matthieu%Bendavid%NULL%1,     Sandrine%Jean%NULL%1,     Géraldine%Poncelet%NULL%1,     Sylvain%Renolleau%NULL%1,     Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
- This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
-Results
-20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
- The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
- All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
- At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
- SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
- One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
- All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
- All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
- All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
-Conclusions
-id="Par3"&gt;Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
- Early recognition of this disease is needed and referral to an expert center is recommended.
- A delayed and inappropriate host immunological response is suspected.
- While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
-</t>
-  </si>
-  <si>
-    <t>[Marion%Grimaud%NULL%0,      Julie%Starck%NULL%1,      Michael%Levy%NULL%1,      Clémence%Marais%NULL%1,      Judith%Chareyre%NULL%1,      Diala%Khraiche%NULL%1,      Marianne%Leruez-Ville%NULL%1,      Pierre%Quartier%NULL%1,      Pierre Louis%Léger%NULL%1,      Guillaume%Geslain%NULL%1,      Nada%Semaan%NULL%1,      Florence%Moulin%NULL%1,      Matthieu%Bendavid%NULL%1,      Sandrine%Jean%NULL%1,      Géraldine%Poncelet%NULL%1,      Sylvain%Renolleau%NULL%1,      Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
- This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
-Results
-20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
- The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
- All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
- At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
- SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
- One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
- All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
- All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
- All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
-Conclusions
-Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
- Early recognition of this disease is needed and referral to an expert center is recommended.
- A delayed and inappropriate host immunological response is suspected.
- While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
-</t>
-  </si>
-  <si>
-    <t>[Marion%Grimaud%NULL%0,       Julie%Starck%NULL%1,       Michael%Levy%NULL%1,       Clémence%Marais%NULL%1,       Judith%Chareyre%NULL%1,       Diala%Khraiche%NULL%1,       Marianne%Leruez-Ville%NULL%1,       Pierre%Quartier%NULL%1,       Pierre Louis%Léger%NULL%1,       Guillaume%Geslain%NULL%1,       Nada%Semaan%NULL%1,       Florence%Moulin%NULL%1,       Matthieu%Bendavid%NULL%1,       Sandrine%Jean%NULL%1,       Géraldine%Poncelet%NULL%1,       Sylvain%Renolleau%NULL%1,       Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1270,10 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1388,10 +1296,10 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="161">
   <si>
     <t>Doi</t>
   </si>
@@ -659,6 +659,60 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,    Erica B.%Rose%NULL%1,    Steven M.%Horwitz%NULL%1,    Jennifer P.%Collins%NULL%1,    Margaret M.%Newhams%NULL%1,    Mary Beth F.%Son%NULL%1,    Jane W.%Newburger%NULL%1,    Lawrence C.%Kleinman%NULL%1,    Sabrina M.%Heidemann%NULL%1,    Amarilis A.%Martin%NULL%2,    Amarilis A.%Martin%NULL%0,    Aalok R.%Singh%NULL%1,    Simon%Li%NULL%1,    Keiko M.%Tarquinio%NULL%1,    Preeti%Jaggi%NULL%1,    Matthew E.%Oster%NULL%1,    Sheemon P.%Zackai%NULL%1,    Jennifer%Gillen%NULL%1,    Adam J.%Ratner%NULL%1,    Rowan F.%Walsh%NULL%1,    Julie C.%Fitzgerald%NULL%1,    Michael A.%Keenaghan%NULL%1,    Hussam%Alharash%NULL%1,    Sule%Doymaz%NULL%1,    Katharine N.%Clouser%NULL%1,    John S.%Giuliano%NULL%1,    Anjali%Gupta%NULL%1,    Robert M.%Parker%NULL%1,    Aline B.%Maddux%NULL%1,    Vinod%Havalad%NULL%1,    Stacy%Ramsingh%NULL%1,    Hulya%Bukulmez%NULL%1,    Tamara T.%Bradford%NULL%1,    Lincoln S.%Smith%NULL%1,    Mark W.%Tenforde%NULL%1,    Christopher L.%Carroll%NULL%1,    Becky J.%Riggs%NULL%1,    Shira J.%Gertz%NULL%1,    Ariel%Daube%NULL%1,    Amanda%Lansell%NULL%2,    Amanda%Lansell%NULL%0,    Alvaro%Coronado Munoz%NULL%1,    Charlotte V.%Hobbs%NULL%2,    Charlotte V.%Hobbs%NULL%0,    Kimberly L.%Marohn%NULL%1,    Natasha B.%Halasa%NULL%1,    Manish M.%Patel%NULL%1,    Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,     Angelo%Mazza%NULL%1,     Annalisa%Gervasoni%NULL%1,     Laura%Martelli%NULL%1,     Maurizio%Ruggeri%NULL%1,     Matteo%Ciuffreda%NULL%1,     Ezio%Bonanomi%NULL%1,     Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,     Scott I.%Aydin%NULL%1,     Kim R.%Derespina%NULL%1,     Prerna B.%Bansal%NULL%1,     Shanna%Kowalsky%NULL%2,     Rebecca%Trachtman%NULL%2,     Jennifer K.%Gillen%NULL%1,     Michelle M.%Perez%NULL%1,     Sara H.%Soshnick%NULL%1,     Edward E.%Conway%NULL%1,     Asher%Bercow%NULL%1,     Howard S.%Seiden%NULL%1,     Robert H.%Pass%NULL%1,     Henry M.%Ushay%NULL%1,     George%Ofori-Amanfo%NULL%1,     Shivanand S.%Medar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,     Amanda%Cantor%NULL%1,     Philip%Zachariah%NULL%1,     Danielle%Ahn%NULL%1,     Mercedes%Martinez%NULL%1,     Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,     John C.%Smulian%NULL%1,     John A.%Lednicky%NULL%1,     Tony S.%Wen%NULL%1,     Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,     Emilia H.%Koumans%NULL%1,     Eric J.%Chow%NULL%1,     Elizabeth M.%Rosenthal%NULL%2,     Elizabeth M.%Rosenthal%NULL%0,     Alison%Muse%NULL%2,     Alison%Muse%NULL%0,     Jemma%Rowlands%NULL%1,     Meredith A.%Barranco%NULL%1,     Angela M.%Maxted%NULL%1,     Eli S.%Rosenberg%NULL%1,     Delia%Easton%NULL%1,     Tomoko%Udo%NULL%1,     Jessica%Kumar%NULL%1,     Wendy%Pulver%NULL%1,     Lou%Smith%NULL%1,     Brad%Hutton%NULL%1,     Debra%Blog%NULL%1,     Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,     Heba%Elbaaly%NULL%2,     Heba%Elbaaly%NULL%0,     Catriona E. L.%Reid%NULL%2,     Catriona E. L.%Reid%NULL%0,     Rui M. F.%Santos%NULL%2,     Rui M. F.%Santos%NULL%0,     Vinay%Shivamurthy%NULL%2,     Vinay%Shivamurthy%NULL%0,     James%Wong%NULL%1,     K. Haran%Jogeesvaran%NULL%2,     K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,     Clément%Poirault%NULL%1,     Alice%Corsia%NULL%1,     Fanny%Bajolle%NULL%2,     Jacques%Fourgeaud%NULL%1,     François%Angoulvant%NULL%1,     Agathe%Debray%NULL%1,     Romain%Basmaci%NULL%2,     Elodie%Salvador%NULL%1,     Sandra%Biscardi%NULL%1,     Pierre%Frange%NULL%1,     Martin%Chalumeau%NULL%1,     Jean-Laurent%Casanova%NULL%2,     Jean-Laurent%Casanova%NULL%0,     Jérémie F%Cohen%NULL%1,     Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,     Charlotte%Borocco%NULL%1,     Naim%Ouldali%NULL%1,     Marion%Caseris%NULL%2,     Romain%Basmaci%NULL%0,     Noémie%Lachaume%NULL%1,     Philippe%Bensaid%NULL%1,     Samia%Pichard%NULL%1,     Hanane%Kouider%NULL%1,     Guillaume%Morelle%NULL%1,     Irina%Craiu%NULL%1,     Corinne%Pondarre%NULL%1,     Anna%Deho%NULL%1,     Arielle%Maroni%NULL%1,     Mehdi%Oualha%NULL%0,     Zahir%Amoura%NULL%1,     Julien%Haroche%NULL%1,     Juliette%Chommeloux%NULL%1,     Fanny%Bajolle%NULL%0,     Constance%Beyler%NULL%2,     Stéphane%Bonacorsi%NULL%1,     Guislaine%Carcelain%NULL%1,     Isabelle%Koné-Paut%NULL%1,     Brigitte%Bader-Meunier%NULL%2,     Brigitte%Bader-Meunier%NULL%0,     Albert%Faye%NULL%3,     Albert%Faye%NULL%0,     Ulrich%Meinzer%NULL%2,     Caroline%Galeotti%NULL%1,     Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,     Oscar%Nolan%NULL%1,     Chui Yi%Lai%NULL%1,     Nanda%Prabhu%NULL%1,     Raghu%Krishnamurthy%NULL%1,     Alex G.%Richter%NULL%1,     Deepthi%Jyothish%NULL%1,     Hari Krishnan%Kanthimathinathan%NULL%2,     Steven B.%Welch%NULL%1,     Scott%Hackett%NULL%1,     Eslam%Al-Abadi%NULL%1,     Barnaby R.%Scholefield%NULL%1,     Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,     Julie%Starck%NULL%0,     Michael%Levy%NULL%0,     Clémence%Marais%NULL%0,     Judith%Chareyre%NULL%0,     Diala%Khraiche%NULL%0,     Marianne%Leruez-Ville%NULL%0,     Pierre%Quartier%NULL%0,     Pierre Louis%Léger%NULL%0,     Guillaume%Geslain%NULL%0,     Nada%Semaan%NULL%0,     Florence%Moulin%NULL%0,     Matthieu%Bendavid%NULL%0,     Sandrine%Jean%NULL%0,     Géraldine%Poncelet%NULL%0,     Sylvain%Renolleau%NULL%0,     Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,     Esra%Akkoyun%NULL%1,     Eudys%Briceno‐Brito%NULL%1,     Shanna%Kowalsky%NULL%0,     James%Reed%NULL%1,     Roberto%Posada%NULL%1,     Emilia Mia%Sordillo%NULL%1,     Michael%Tosi%NULL%1,     Rebecca%Trachtman%NULL%0,     Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,     Claire%Evans%NULL%1,     Hari Krishnan%Kanthimathinathan%NULL%0,     Jon%Lillie%NULL%1,     Joseph%Brierley%NULL%1,     Gareth%Waters%NULL%1,     Mae%Johnson%NULL%1,     Benedict%Griffiths%NULL%1,     Pascale%du Pré%NULL%1,     Zoha%Mohammad%NULL%1,     Akash%Deep%NULL%1,     Stephen%Playfor%NULL%1,     Davinder%Singh%NULL%1,     David%Inwald%NULL%1,     Michelle%Jardine%NULL%1,     Oliver%Ross%NULL%1,     Nayan%Shetty%NULL%1,     Mark%Worrall%NULL%1,     Ruchi%Sinha%NULL%1,     Ashwani%Koul%NULL%1,     Elizabeth%Whittaker%NULL%1,     Harish%Vyas%NULL%1,     Barnaby R%Scholefield%NULL%1,     Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,     Marie%Pouletty%NULL%1,     Patricia%Mariani%NULL%1,     Constance%Beyler%NULL%0,     Audrey%Blachier%NULL%1,     Stephane%Bonacorsi%NULL%1,     Kostas%Danis%NULL%1,     Maryline%Chomton%NULL%1,     Laure%Maurice%NULL%1,     Fleur%Le Bourgeois%NULL%1,     Marion%Caseris%NULL%0,     Jean%Gaschignard%NULL%1,     Julie%Poline%NULL%1,     Robert%Cohen%NULL%1,     Luigi%Titomanlio%NULL%1,     Albert%Faye%NULL%0,     Isabelle%Melki%NULL%0,     Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,     Erica B.%Rose%NULL%1,     Steven M.%Horwitz%NULL%1,     Jennifer P.%Collins%NULL%1,     Margaret M.%Newhams%NULL%1,     Mary Beth F.%Son%NULL%1,     Jane W.%Newburger%NULL%1,     Lawrence C.%Kleinman%NULL%1,     Sabrina M.%Heidemann%NULL%1,     Amarilis A.%Martin%NULL%2,     Amarilis A.%Martin%NULL%0,     Aalok R.%Singh%NULL%1,     Simon%Li%NULL%1,     Keiko M.%Tarquinio%NULL%1,     Preeti%Jaggi%NULL%1,     Matthew E.%Oster%NULL%1,     Sheemon P.%Zackai%NULL%1,     Jennifer%Gillen%NULL%1,     Adam J.%Ratner%NULL%1,     Rowan F.%Walsh%NULL%1,     Julie C.%Fitzgerald%NULL%1,     Michael A.%Keenaghan%NULL%1,     Hussam%Alharash%NULL%1,     Sule%Doymaz%NULL%1,     Katharine N.%Clouser%NULL%1,     John S.%Giuliano%NULL%1,     Anjali%Gupta%NULL%1,     Robert M.%Parker%NULL%1,     Aline B.%Maddux%NULL%1,     Vinod%Havalad%NULL%1,     Stacy%Ramsingh%NULL%1,     Hulya%Bukulmez%NULL%1,     Tamara T.%Bradford%NULL%1,     Lincoln S.%Smith%NULL%1,     Mark W.%Tenforde%NULL%1,     Christopher L.%Carroll%NULL%1,     Becky J.%Riggs%NULL%1,     Shira J.%Gertz%NULL%1,     Ariel%Daube%NULL%1,     Amanda%Lansell%NULL%2,     Amanda%Lansell%NULL%0,     Alvaro%Coronado Munoz%NULL%1,     Charlotte V.%Hobbs%NULL%2,     Charlotte V.%Hobbs%NULL%0,     Kimberly L.%Marohn%NULL%1,     Natasha B.%Halasa%NULL%1,     Manish M.%Patel%NULL%1,     Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -972,6 +1026,9 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -987,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -997,6 +1054,9 @@
       </c>
       <c r="H2" t="s">
         <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -1024,6 +1084,9 @@
       <c r="H3" t="s">
         <v>35</v>
       </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1042,13 +1105,16 @@
         <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -1065,7 +1131,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1075,6 +1141,9 @@
       </c>
       <c r="H5" t="s">
         <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1101,6 +1170,9 @@
       </c>
       <c r="H6" t="s">
         <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -1117,7 +1189,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1127,6 +1199,9 @@
       </c>
       <c r="H7" t="s">
         <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1218,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1153,6 +1228,9 @@
       </c>
       <c r="H8" t="s">
         <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -1169,7 +1247,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1179,6 +1257,9 @@
       </c>
       <c r="H9" t="s">
         <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -1195,7 +1276,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1205,6 +1286,9 @@
       </c>
       <c r="H10" t="s">
         <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1305,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1231,6 +1315,9 @@
       </c>
       <c r="H11" t="s">
         <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -1258,6 +1345,9 @@
       <c r="H12" t="s">
         <v>35</v>
       </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1273,7 +1363,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1283,6 +1373,9 @@
       </c>
       <c r="H13" t="s">
         <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -1299,7 +1392,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1309,6 +1402,9 @@
       </c>
       <c r="H14" t="s">
         <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -1325,7 +1421,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1335,6 +1431,9 @@
       </c>
       <c r="H15" t="s">
         <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -1351,7 +1450,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1361,6 +1460,9 @@
       </c>
       <c r="H16" t="s">
         <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -1377,7 +1479,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1387,6 +1489,9 @@
       </c>
       <c r="H17" t="s">
         <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -1403,7 +1508,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -1413,6 +1518,9 @@
       </c>
       <c r="H18" t="s">
         <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="203">
   <si>
     <t>Doi</t>
   </si>
@@ -713,6 +713,132 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,     Erica B.%Rose%NULL%1,     Steven M.%Horwitz%NULL%1,     Jennifer P.%Collins%NULL%1,     Margaret M.%Newhams%NULL%1,     Mary Beth F.%Son%NULL%1,     Jane W.%Newburger%NULL%1,     Lawrence C.%Kleinman%NULL%1,     Sabrina M.%Heidemann%NULL%1,     Amarilis A.%Martin%NULL%2,     Amarilis A.%Martin%NULL%0,     Aalok R.%Singh%NULL%1,     Simon%Li%NULL%1,     Keiko M.%Tarquinio%NULL%1,     Preeti%Jaggi%NULL%1,     Matthew E.%Oster%NULL%1,     Sheemon P.%Zackai%NULL%1,     Jennifer%Gillen%NULL%1,     Adam J.%Ratner%NULL%1,     Rowan F.%Walsh%NULL%1,     Julie C.%Fitzgerald%NULL%1,     Michael A.%Keenaghan%NULL%1,     Hussam%Alharash%NULL%1,     Sule%Doymaz%NULL%1,     Katharine N.%Clouser%NULL%1,     John S.%Giuliano%NULL%1,     Anjali%Gupta%NULL%1,     Robert M.%Parker%NULL%1,     Aline B.%Maddux%NULL%1,     Vinod%Havalad%NULL%1,     Stacy%Ramsingh%NULL%1,     Hulya%Bukulmez%NULL%1,     Tamara T.%Bradford%NULL%1,     Lincoln S.%Smith%NULL%1,     Mark W.%Tenforde%NULL%1,     Christopher L.%Carroll%NULL%1,     Becky J.%Riggs%NULL%1,     Shira J.%Gertz%NULL%1,     Ariel%Daube%NULL%1,     Amanda%Lansell%NULL%2,     Amanda%Lansell%NULL%0,     Alvaro%Coronado Munoz%NULL%1,     Charlotte V.%Hobbs%NULL%2,     Charlotte V.%Hobbs%NULL%0,     Kimberly L.%Marohn%NULL%1,     Natasha B.%Halasa%NULL%1,     Manish M.%Patel%NULL%1,     Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,      Angelo%Mazza%NULL%1,      Annalisa%Gervasoni%NULL%1,      Laura%Martelli%NULL%1,      Maurizio%Ruggeri%NULL%1,      Matteo%Ciuffreda%NULL%1,      Ezio%Bonanomi%NULL%1,      Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,      Scott I.%Aydin%NULL%1,      Kim R.%Derespina%NULL%0,      Prerna B.%Bansal%NULL%1,      Shanna%Kowalsky%NULL%2,      Rebecca%Trachtman%NULL%2,      Jennifer K.%Gillen%NULL%1,      Michelle M.%Perez%NULL%1,      Sara H.%Soshnick%NULL%1,      Edward E.%Conway%NULL%1,      Asher%Bercow%NULL%1,      Howard S.%Seiden%NULL%1,      Robert H.%Pass%NULL%1,      Henry M.%Ushay%NULL%0,      George%Ofori-Amanfo%NULL%1,      Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,      Amanda%Cantor%NULL%1,      Philip%Zachariah%NULL%1,      Danielle%Ahn%NULL%1,      Mercedes%Martinez%NULL%1,      Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,      John C.%Smulian%NULL%1,      John A.%Lednicky%NULL%1,      Tony S.%Wen%NULL%1,      Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,      Emilia H.%Koumans%NULL%1,      Eric J.%Chow%NULL%1,      Elizabeth M.%Rosenthal%NULL%2,      Elizabeth M.%Rosenthal%NULL%0,      Alison%Muse%NULL%2,      Alison%Muse%NULL%0,      Jemma%Rowlands%NULL%1,      Meredith A.%Barranco%NULL%1,      Angela M.%Maxted%NULL%1,      Eli S.%Rosenberg%NULL%1,      Delia%Easton%NULL%1,      Tomoko%Udo%NULL%1,      Jessica%Kumar%NULL%1,      Wendy%Pulver%NULL%1,      Lou%Smith%NULL%1,      Brad%Hutton%NULL%1,      Debra%Blog%NULL%1,      Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,      Heba%Elbaaly%NULL%2,      Heba%Elbaaly%NULL%0,      Catriona E. L.%Reid%NULL%2,      Catriona E. L.%Reid%NULL%0,      Rui M. F.%Santos%NULL%2,      Rui M. F.%Santos%NULL%0,      Vinay%Shivamurthy%NULL%2,      Vinay%Shivamurthy%NULL%0,      James%Wong%NULL%1,      K. Haran%Jogeesvaran%NULL%2,      K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,      Clément%Poirault%NULL%1,      Alice%Corsia%NULL%1,      Fanny%Bajolle%NULL%2,      Jacques%Fourgeaud%NULL%1,      François%Angoulvant%NULL%1,      Agathe%Debray%NULL%1,      Romain%Basmaci%NULL%2,      Elodie%Salvador%NULL%1,      Sandra%Biscardi%NULL%1,      Pierre%Frange%NULL%1,      Martin%Chalumeau%NULL%1,      Jean-Laurent%Casanova%NULL%2,      Jean-Laurent%Casanova%NULL%0,      Jérémie F%Cohen%NULL%1,      Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,      Charlotte%Borocco%NULL%1,      Naim%Ouldali%NULL%1,      Marion%Caseris%NULL%2,      Romain%Basmaci%NULL%0,      Noémie%Lachaume%NULL%1,      Philippe%Bensaid%NULL%1,      Samia%Pichard%NULL%1,      Hanane%Kouider%NULL%1,      Guillaume%Morelle%NULL%1,      Irina%Craiu%NULL%1,      Corinne%Pondarre%NULL%1,      Anna%Deho%NULL%1,      Arielle%Maroni%NULL%1,      Mehdi%Oualha%NULL%2,      Zahir%Amoura%NULL%1,      Julien%Haroche%NULL%1,      Juliette%Chommeloux%NULL%1,      Fanny%Bajolle%NULL%0,      Constance%Beyler%NULL%2,      Stéphane%Bonacorsi%NULL%1,      Guislaine%Carcelain%NULL%1,      Isabelle%Koné-Paut%NULL%1,      Brigitte%Bader-Meunier%NULL%2,      Brigitte%Bader-Meunier%NULL%0,      Albert%Faye%NULL%3,      Albert%Faye%NULL%0,      Ulrich%Meinzer%NULL%2,      Caroline%Galeotti%NULL%1,      Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,      Oscar%Nolan%NULL%1,      Chui Yi%Lai%NULL%1,      Nanda%Prabhu%NULL%1,      Raghu%Krishnamurthy%NULL%1,      Alex G.%Richter%NULL%1,      Deepthi%Jyothish%NULL%1,      Hari Krishnan%Kanthimathinathan%NULL%2,      Steven B.%Welch%NULL%1,      Scott%Hackett%NULL%1,      Eslam%Al-Abadi%NULL%1,      Barnaby R.%Scholefield%NULL%1,      Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,      Julie%Starck%NULL%1,      Michael%Levy%NULL%1,      Clémence%Marais%NULL%1,      Judith%Chareyre%NULL%1,      Diala%Khraiche%NULL%1,      Marianne%Leruez-Ville%NULL%1,      Pierre%Quartier%NULL%1,      Pierre Louis%Léger%NULL%1,      Guillaume%Geslain%NULL%1,      Nada%Semaan%NULL%1,      Florence%Moulin%NULL%1,      Matthieu%Bendavid%NULL%1,      Sandrine%Jean%NULL%1,      Géraldine%Poncelet%NULL%1,      Sylvain%Renolleau%NULL%1,      Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,      Esra%Akkoyun%NULL%1,      Eudys%Briceno‐Brito%NULL%1,      Shanna%Kowalsky%NULL%0,      James%Reed%NULL%1,      Roberto%Posada%NULL%1,      Emilia Mia%Sordillo%NULL%1,      Michael%Tosi%NULL%1,      Rebecca%Trachtman%NULL%0,      Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,      Claire%Evans%NULL%1,      Hari Krishnan%Kanthimathinathan%NULL%0,      Jon%Lillie%NULL%1,      Joseph%Brierley%NULL%1,      Gareth%Waters%NULL%1,      Mae%Johnson%NULL%1,      Benedict%Griffiths%NULL%1,      Pascale%du Pré%NULL%1,      Zoha%Mohammad%NULL%1,      Akash%Deep%NULL%1,      Stephen%Playfor%NULL%1,      Davinder%Singh%NULL%1,      David%Inwald%NULL%1,      Michelle%Jardine%NULL%1,      Oliver%Ross%NULL%1,      Nayan%Shetty%NULL%1,      Mark%Worrall%NULL%1,      Ruchi%Sinha%NULL%1,      Ashwani%Koul%NULL%1,      Elizabeth%Whittaker%NULL%1,      Harish%Vyas%NULL%1,      Barnaby R%Scholefield%NULL%1,      Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,      Marie%Pouletty%NULL%1,      Patricia%Mariani%NULL%1,      Constance%Beyler%NULL%0,      Audrey%Blachier%NULL%1,      Stephane%Bonacorsi%NULL%1,      Kostas%Danis%NULL%1,      Maryline%Chomton%NULL%1,      Laure%Maurice%NULL%1,      Fleur%Le Bourgeois%NULL%1,      Marion%Caseris%NULL%0,      Jean%Gaschignard%NULL%1,      Julie%Poline%NULL%1,      Robert%Cohen%NULL%1,      Luigi%Titomanlio%NULL%1,      Albert%Faye%NULL%0,      Isabelle%Melki%NULL%0,      Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,      Erica B.%Rose%NULL%1,      Steven M.%Horwitz%NULL%1,      Jennifer P.%Collins%NULL%1,      Margaret M.%Newhams%NULL%1,      Mary Beth F.%Son%NULL%1,      Jane W.%Newburger%NULL%1,      Lawrence C.%Kleinman%NULL%1,      Sabrina M.%Heidemann%NULL%1,      Amarilis A.%Martin%NULL%2,      Amarilis A.%Martin%NULL%0,      Aalok R.%Singh%NULL%1,      Simon%Li%NULL%1,      Keiko M.%Tarquinio%NULL%1,      Preeti%Jaggi%NULL%1,      Matthew E.%Oster%NULL%1,      Sheemon P.%Zackai%NULL%1,      Jennifer%Gillen%NULL%1,      Adam J.%Ratner%NULL%1,      Rowan F.%Walsh%NULL%1,      Julie C.%Fitzgerald%NULL%1,      Michael A.%Keenaghan%NULL%1,      Hussam%Alharash%NULL%1,      Sule%Doymaz%NULL%1,      Katharine N.%Clouser%NULL%1,      John S.%Giuliano%NULL%1,      Anjali%Gupta%NULL%1,      Robert M.%Parker%NULL%1,      Aline B.%Maddux%NULL%1,      Vinod%Havalad%NULL%1,      Stacy%Ramsingh%NULL%1,      Hulya%Bukulmez%NULL%1,      Tamara T.%Bradford%NULL%1,      Lincoln S.%Smith%NULL%1,      Mark W.%Tenforde%NULL%1,      Christopher L.%Carroll%NULL%1,      Becky J.%Riggs%NULL%1,      Shira J.%Gertz%NULL%1,      Ariel%Daube%NULL%1,      Amanda%Lansell%NULL%2,      Amanda%Lansell%NULL%0,      Alvaro%Coronado Munoz%NULL%1,      Charlotte V.%Hobbs%NULL%2,      Charlotte V.%Hobbs%NULL%0,      Kimberly L.%Marohn%NULL%1,      Natasha B.%Halasa%NULL%1,      Manish M.%Patel%NULL%1,      Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,       Angelo%Mazza%NULL%1,       Annalisa%Gervasoni%NULL%1,       Laura%Martelli%NULL%1,       Maurizio%Ruggeri%NULL%1,       Matteo%Ciuffreda%NULL%1,       Ezio%Bonanomi%NULL%1,       Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,       Scott I.%Aydin%NULL%1,       Kim R.%Derespina%NULL%0,       Prerna B.%Bansal%NULL%1,       Shanna%Kowalsky%NULL%2,       Rebecca%Trachtman%NULL%2,       Jennifer K.%Gillen%NULL%1,       Michelle M.%Perez%NULL%1,       Sara H.%Soshnick%NULL%1,       Edward E.%Conway%NULL%1,       Asher%Bercow%NULL%1,       Howard S.%Seiden%NULL%1,       Robert H.%Pass%NULL%1,       Henry M.%Ushay%NULL%0,       George%Ofori-Amanfo%NULL%1,       Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,       Amanda%Cantor%NULL%1,       Philip%Zachariah%NULL%1,       Danielle%Ahn%NULL%1,       Mercedes%Martinez%NULL%1,       Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,       John C.%Smulian%NULL%1,       John A.%Lednicky%NULL%1,       Tony S.%Wen%NULL%1,       Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,       Emilia H.%Koumans%NULL%1,       Eric J.%Chow%NULL%1,       Elizabeth M.%Rosenthal%NULL%2,       Elizabeth M.%Rosenthal%NULL%0,       Alison%Muse%NULL%2,       Alison%Muse%NULL%0,       Jemma%Rowlands%NULL%1,       Meredith A.%Barranco%NULL%1,       Angela M.%Maxted%NULL%1,       Eli S.%Rosenberg%NULL%1,       Delia%Easton%NULL%1,       Tomoko%Udo%NULL%1,       Jessica%Kumar%NULL%1,       Wendy%Pulver%NULL%1,       Lou%Smith%NULL%1,       Brad%Hutton%NULL%1,       Debra%Blog%NULL%1,       Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,       Heba%Elbaaly%NULL%2,       Heba%Elbaaly%NULL%0,       Catriona E. L.%Reid%NULL%2,       Catriona E. L.%Reid%NULL%0,       Rui M. F.%Santos%NULL%2,       Rui M. F.%Santos%NULL%0,       Vinay%Shivamurthy%NULL%2,       Vinay%Shivamurthy%NULL%0,       James%Wong%NULL%1,       K. Haran%Jogeesvaran%NULL%2,       K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,       Clément%Poirault%NULL%1,       Alice%Corsia%NULL%1,       Fanny%Bajolle%NULL%2,       Jacques%Fourgeaud%NULL%1,       François%Angoulvant%NULL%1,       Agathe%Debray%NULL%1,       Romain%Basmaci%NULL%2,       Elodie%Salvador%NULL%1,       Sandra%Biscardi%NULL%1,       Pierre%Frange%NULL%1,       Martin%Chalumeau%NULL%1,       Jean-Laurent%Casanova%NULL%2,       Jean-Laurent%Casanova%NULL%0,       Jérémie F%Cohen%NULL%1,       Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,       Charlotte%Borocco%NULL%1,       Naim%Ouldali%NULL%1,       Marion%Caseris%NULL%2,       Romain%Basmaci%NULL%0,       Noémie%Lachaume%NULL%1,       Philippe%Bensaid%NULL%1,       Samia%Pichard%NULL%1,       Hanane%Kouider%NULL%1,       Guillaume%Morelle%NULL%1,       Irina%Craiu%NULL%1,       Corinne%Pondarre%NULL%1,       Anna%Deho%NULL%1,       Arielle%Maroni%NULL%1,       Mehdi%Oualha%NULL%2,       Zahir%Amoura%NULL%1,       Julien%Haroche%NULL%1,       Juliette%Chommeloux%NULL%1,       Fanny%Bajolle%NULL%0,       Constance%Beyler%NULL%2,       Stéphane%Bonacorsi%NULL%1,       Guislaine%Carcelain%NULL%1,       Isabelle%Koné-Paut%NULL%1,       Brigitte%Bader-Meunier%NULL%2,       Brigitte%Bader-Meunier%NULL%0,       Albert%Faye%NULL%3,       Albert%Faye%NULL%0,       Ulrich%Meinzer%NULL%2,       Caroline%Galeotti%NULL%1,       Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,       Oscar%Nolan%NULL%1,       Chui Yi%Lai%NULL%1,       Nanda%Prabhu%NULL%1,       Raghu%Krishnamurthy%NULL%1,       Alex G.%Richter%NULL%1,       Deepthi%Jyothish%NULL%1,       Hari Krishnan%Kanthimathinathan%NULL%2,       Steven B.%Welch%NULL%1,       Scott%Hackett%NULL%1,       Eslam%Al-Abadi%NULL%1,       Barnaby R.%Scholefield%NULL%1,       Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,       Julie%Starck%NULL%1,       Michael%Levy%NULL%1,       Clémence%Marais%NULL%1,       Judith%Chareyre%NULL%1,       Diala%Khraiche%NULL%1,       Marianne%Leruez-Ville%NULL%1,       Pierre%Quartier%NULL%1,       Pierre Louis%Léger%NULL%1,       Guillaume%Geslain%NULL%1,       Nada%Semaan%NULL%1,       Florence%Moulin%NULL%1,       Matthieu%Bendavid%NULL%1,       Sandrine%Jean%NULL%1,       Géraldine%Poncelet%NULL%1,       Sylvain%Renolleau%NULL%1,       Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,       Esra%Akkoyun%NULL%1,       Eudys%Briceno‐Brito%NULL%1,       Shanna%Kowalsky%NULL%0,       James%Reed%NULL%1,       Roberto%Posada%NULL%1,       Emilia Mia%Sordillo%NULL%1,       Michael%Tosi%NULL%1,       Rebecca%Trachtman%NULL%0,       Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,       Claire%Evans%NULL%1,       Hari Krishnan%Kanthimathinathan%NULL%0,       Jon%Lillie%NULL%1,       Joseph%Brierley%NULL%1,       Gareth%Waters%NULL%1,       Mae%Johnson%NULL%1,       Benedict%Griffiths%NULL%1,       Pascale%du Pré%NULL%1,       Zoha%Mohammad%NULL%1,       Akash%Deep%NULL%1,       Stephen%Playfor%NULL%1,       Davinder%Singh%NULL%1,       David%Inwald%NULL%1,       Michelle%Jardine%NULL%1,       Oliver%Ross%NULL%1,       Nayan%Shetty%NULL%1,       Mark%Worrall%NULL%1,       Ruchi%Sinha%NULL%1,       Ashwani%Koul%NULL%1,       Elizabeth%Whittaker%NULL%1,       Harish%Vyas%NULL%1,       Barnaby R%Scholefield%NULL%1,       Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,       Marie%Pouletty%NULL%1,       Patricia%Mariani%NULL%1,       Constance%Beyler%NULL%0,       Audrey%Blachier%NULL%1,       Stephane%Bonacorsi%NULL%1,       Kostas%Danis%NULL%1,       Maryline%Chomton%NULL%1,       Laure%Maurice%NULL%1,       Fleur%Le Bourgeois%NULL%1,       Marion%Caseris%NULL%0,       Jean%Gaschignard%NULL%1,       Julie%Poline%NULL%1,       Robert%Cohen%NULL%1,       Luigi%Titomanlio%NULL%1,       Albert%Faye%NULL%0,       Isabelle%Melki%NULL%0,       Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,       Erica B.%Rose%NULL%1,       Steven M.%Horwitz%NULL%1,       Jennifer P.%Collins%NULL%1,       Margaret M.%Newhams%NULL%1,       Mary Beth F.%Son%NULL%1,       Jane W.%Newburger%NULL%1,       Lawrence C.%Kleinman%NULL%1,       Sabrina M.%Heidemann%NULL%1,       Amarilis A.%Martin%NULL%2,       Amarilis A.%Martin%NULL%0,       Aalok R.%Singh%NULL%1,       Simon%Li%NULL%1,       Keiko M.%Tarquinio%NULL%1,       Preeti%Jaggi%NULL%1,       Matthew E.%Oster%NULL%1,       Sheemon P.%Zackai%NULL%1,       Jennifer%Gillen%NULL%1,       Adam J.%Ratner%NULL%1,       Rowan F.%Walsh%NULL%1,       Julie C.%Fitzgerald%NULL%1,       Michael A.%Keenaghan%NULL%1,       Hussam%Alharash%NULL%1,       Sule%Doymaz%NULL%1,       Katharine N.%Clouser%NULL%1,       John S.%Giuliano%NULL%1,       Anjali%Gupta%NULL%1,       Robert M.%Parker%NULL%1,       Aline B.%Maddux%NULL%1,       Vinod%Havalad%NULL%1,       Stacy%Ramsingh%NULL%1,       Hulya%Bukulmez%NULL%1,       Tamara T.%Bradford%NULL%1,       Lincoln S.%Smith%NULL%1,       Mark W.%Tenforde%NULL%1,       Christopher L.%Carroll%NULL%1,       Becky J.%Riggs%NULL%1,       Shira J.%Gertz%NULL%1,       Ariel%Daube%NULL%1,       Amanda%Lansell%NULL%2,       Amanda%Lansell%NULL%0,       Alvaro%Coronado Munoz%NULL%1,       Charlotte V.%Hobbs%NULL%2,       Charlotte V.%Hobbs%NULL%0,       Kimberly L.%Marohn%NULL%1,       Natasha B.%Halasa%NULL%1,       Manish M.%Patel%NULL%1,       Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,        Angelo%Mazza%NULL%1,        Annalisa%Gervasoni%NULL%1,        Laura%Martelli%NULL%1,        Maurizio%Ruggeri%NULL%1,        Matteo%Ciuffreda%NULL%1,        Ezio%Bonanomi%NULL%1,        Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,        Scott I.%Aydin%NULL%1,        Kim R.%Derespina%NULL%0,        Prerna B.%Bansal%NULL%1,        Shanna%Kowalsky%NULL%2,        Rebecca%Trachtman%NULL%2,        Jennifer K.%Gillen%NULL%1,        Michelle M.%Perez%NULL%1,        Sara H.%Soshnick%NULL%1,        Edward E.%Conway%NULL%1,        Asher%Bercow%NULL%1,        Howard S.%Seiden%NULL%1,        Robert H.%Pass%NULL%1,        Henry M.%Ushay%NULL%0,        George%Ofori-Amanfo%NULL%1,        Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,        Amanda%Cantor%NULL%1,        Philip%Zachariah%NULL%1,        Danielle%Ahn%NULL%1,        Mercedes%Martinez%NULL%1,        Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,        John C.%Smulian%NULL%1,        John A.%Lednicky%NULL%1,        Tony S.%Wen%NULL%1,        Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,        Emilia H.%Koumans%NULL%1,        Eric J.%Chow%NULL%1,        Elizabeth M.%Rosenthal%NULL%2,        Elizabeth M.%Rosenthal%NULL%0,        Alison%Muse%NULL%2,        Alison%Muse%NULL%0,        Jemma%Rowlands%NULL%1,        Meredith A.%Barranco%NULL%1,        Angela M.%Maxted%NULL%1,        Eli S.%Rosenberg%NULL%1,        Delia%Easton%NULL%1,        Tomoko%Udo%NULL%1,        Jessica%Kumar%NULL%1,        Wendy%Pulver%NULL%1,        Lou%Smith%NULL%1,        Brad%Hutton%NULL%1,        Debra%Blog%NULL%1,        Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,        Heba%Elbaaly%NULL%2,        Heba%Elbaaly%NULL%0,        Catriona E. L.%Reid%NULL%2,        Catriona E. L.%Reid%NULL%0,        Rui M. F.%Santos%NULL%2,        Rui M. F.%Santos%NULL%0,        Vinay%Shivamurthy%NULL%2,        Vinay%Shivamurthy%NULL%0,        James%Wong%NULL%1,        K. Haran%Jogeesvaran%NULL%2,        K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,        Clément%Poirault%NULL%1,        Alice%Corsia%NULL%1,        Fanny%Bajolle%NULL%2,        Jacques%Fourgeaud%NULL%1,        François%Angoulvant%NULL%1,        Agathe%Debray%NULL%1,        Romain%Basmaci%NULL%2,        Elodie%Salvador%NULL%1,        Sandra%Biscardi%NULL%1,        Pierre%Frange%NULL%1,        Martin%Chalumeau%NULL%1,        Jean-Laurent%Casanova%NULL%2,        Jean-Laurent%Casanova%NULL%0,        Jérémie F%Cohen%NULL%1,        Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,        Charlotte%Borocco%NULL%1,        Naim%Ouldali%NULL%1,        Marion%Caseris%NULL%2,        Romain%Basmaci%NULL%0,        Noémie%Lachaume%NULL%1,        Philippe%Bensaid%NULL%1,        Samia%Pichard%NULL%1,        Hanane%Kouider%NULL%1,        Guillaume%Morelle%NULL%1,        Irina%Craiu%NULL%1,        Corinne%Pondarre%NULL%1,        Anna%Deho%NULL%1,        Arielle%Maroni%NULL%1,        Mehdi%Oualha%NULL%2,        Zahir%Amoura%NULL%1,        Julien%Haroche%NULL%1,        Juliette%Chommeloux%NULL%1,        Fanny%Bajolle%NULL%0,        Constance%Beyler%NULL%2,        Stéphane%Bonacorsi%NULL%1,        Guislaine%Carcelain%NULL%1,        Isabelle%Koné-Paut%NULL%1,        Brigitte%Bader-Meunier%NULL%2,        Brigitte%Bader-Meunier%NULL%0,        Albert%Faye%NULL%3,        Albert%Faye%NULL%0,        Ulrich%Meinzer%NULL%2,        Caroline%Galeotti%NULL%1,        Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,        Oscar%Nolan%NULL%1,        Chui Yi%Lai%NULL%1,        Nanda%Prabhu%NULL%1,        Raghu%Krishnamurthy%NULL%1,        Alex G.%Richter%NULL%1,        Deepthi%Jyothish%NULL%1,        Hari Krishnan%Kanthimathinathan%NULL%2,        Steven B.%Welch%NULL%1,        Scott%Hackett%NULL%1,        Eslam%Al-Abadi%NULL%1,        Barnaby R.%Scholefield%NULL%1,        Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,        Julie%Starck%NULL%1,        Michael%Levy%NULL%1,        Clémence%Marais%NULL%1,        Judith%Chareyre%NULL%1,        Diala%Khraiche%NULL%1,        Marianne%Leruez-Ville%NULL%1,        Pierre%Quartier%NULL%1,        Pierre Louis%Léger%NULL%1,        Guillaume%Geslain%NULL%1,        Nada%Semaan%NULL%1,        Florence%Moulin%NULL%1,        Matthieu%Bendavid%NULL%1,        Sandrine%Jean%NULL%1,        Géraldine%Poncelet%NULL%1,        Sylvain%Renolleau%NULL%1,        Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,        Esra%Akkoyun%NULL%1,        Eudys%Briceno‐Brito%NULL%1,        Shanna%Kowalsky%NULL%0,        James%Reed%NULL%1,        Roberto%Posada%NULL%1,        Emilia Mia%Sordillo%NULL%1,        Michael%Tosi%NULL%1,        Rebecca%Trachtman%NULL%0,        Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,        Claire%Evans%NULL%1,        Hari Krishnan%Kanthimathinathan%NULL%0,        Jon%Lillie%NULL%1,        Joseph%Brierley%NULL%1,        Gareth%Waters%NULL%1,        Mae%Johnson%NULL%1,        Benedict%Griffiths%NULL%1,        Pascale%du Pré%NULL%1,        Zoha%Mohammad%NULL%1,        Akash%Deep%NULL%1,        Stephen%Playfor%NULL%1,        Davinder%Singh%NULL%1,        David%Inwald%NULL%1,        Michelle%Jardine%NULL%1,        Oliver%Ross%NULL%1,        Nayan%Shetty%NULL%1,        Mark%Worrall%NULL%1,        Ruchi%Sinha%NULL%1,        Ashwani%Koul%NULL%1,        Elizabeth%Whittaker%NULL%1,        Harish%Vyas%NULL%1,        Barnaby R%Scholefield%NULL%1,        Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,        Marie%Pouletty%NULL%1,        Patricia%Mariani%NULL%1,        Constance%Beyler%NULL%0,        Audrey%Blachier%NULL%1,        Stephane%Bonacorsi%NULL%1,        Kostas%Danis%NULL%1,        Maryline%Chomton%NULL%1,        Laure%Maurice%NULL%1,        Fleur%Le Bourgeois%NULL%1,        Marion%Caseris%NULL%0,        Jean%Gaschignard%NULL%1,        Julie%Poline%NULL%1,        Robert%Cohen%NULL%1,        Luigi%Titomanlio%NULL%1,        Albert%Faye%NULL%0,        Isabelle%Melki%NULL%0,        Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,        Erica B.%Rose%NULL%1,        Steven M.%Horwitz%NULL%1,        Jennifer P.%Collins%NULL%1,        Margaret M.%Newhams%NULL%1,        Mary Beth F.%Son%NULL%1,        Jane W.%Newburger%NULL%1,        Lawrence C.%Kleinman%NULL%1,        Sabrina M.%Heidemann%NULL%1,        Amarilis A.%Martin%NULL%2,        Amarilis A.%Martin%NULL%0,        Aalok R.%Singh%NULL%1,        Simon%Li%NULL%1,        Keiko M.%Tarquinio%NULL%1,        Preeti%Jaggi%NULL%1,        Matthew E.%Oster%NULL%1,        Sheemon P.%Zackai%NULL%1,        Jennifer%Gillen%NULL%1,        Adam J.%Ratner%NULL%1,        Rowan F.%Walsh%NULL%1,        Julie C.%Fitzgerald%NULL%1,        Michael A.%Keenaghan%NULL%1,        Hussam%Alharash%NULL%1,        Sule%Doymaz%NULL%1,        Katharine N.%Clouser%NULL%1,        John S.%Giuliano%NULL%1,        Anjali%Gupta%NULL%1,        Robert M.%Parker%NULL%1,        Aline B.%Maddux%NULL%1,        Vinod%Havalad%NULL%1,        Stacy%Ramsingh%NULL%1,        Hulya%Bukulmez%NULL%1,        Tamara T.%Bradford%NULL%1,        Lincoln S.%Smith%NULL%1,        Mark W.%Tenforde%NULL%1,        Christopher L.%Carroll%NULL%1,        Becky J.%Riggs%NULL%1,        Shira J.%Gertz%NULL%1,        Ariel%Daube%NULL%1,        Amanda%Lansell%NULL%2,        Amanda%Lansell%NULL%0,        Alvaro%Coronado Munoz%NULL%1,        Charlotte V.%Hobbs%NULL%2,        Charlotte V.%Hobbs%NULL%0,        Kimberly L.%Marohn%NULL%1,        Natasha B.%Halasa%NULL%1,        Manish M.%Patel%NULL%1,        Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1170,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1105,10 +1231,10 @@
         <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -1131,7 +1257,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1160,7 +1286,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1189,7 +1315,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1218,7 +1344,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1247,7 +1373,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1276,7 +1402,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1305,7 +1431,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1363,7 +1489,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1392,7 +1518,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1421,7 +1547,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1450,7 +1576,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1479,7 +1605,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1508,7 +1634,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="241">
   <si>
     <t>Doi</t>
   </si>
@@ -839,6 +839,137 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,        Erica B.%Rose%NULL%1,        Steven M.%Horwitz%NULL%1,        Jennifer P.%Collins%NULL%1,        Margaret M.%Newhams%NULL%1,        Mary Beth F.%Son%NULL%1,        Jane W.%Newburger%NULL%1,        Lawrence C.%Kleinman%NULL%1,        Sabrina M.%Heidemann%NULL%1,        Amarilis A.%Martin%NULL%2,        Amarilis A.%Martin%NULL%0,        Aalok R.%Singh%NULL%1,        Simon%Li%NULL%1,        Keiko M.%Tarquinio%NULL%1,        Preeti%Jaggi%NULL%1,        Matthew E.%Oster%NULL%1,        Sheemon P.%Zackai%NULL%1,        Jennifer%Gillen%NULL%1,        Adam J.%Ratner%NULL%1,        Rowan F.%Walsh%NULL%1,        Julie C.%Fitzgerald%NULL%1,        Michael A.%Keenaghan%NULL%1,        Hussam%Alharash%NULL%1,        Sule%Doymaz%NULL%1,        Katharine N.%Clouser%NULL%1,        John S.%Giuliano%NULL%1,        Anjali%Gupta%NULL%1,        Robert M.%Parker%NULL%1,        Aline B.%Maddux%NULL%1,        Vinod%Havalad%NULL%1,        Stacy%Ramsingh%NULL%1,        Hulya%Bukulmez%NULL%1,        Tamara T.%Bradford%NULL%1,        Lincoln S.%Smith%NULL%1,        Mark W.%Tenforde%NULL%1,        Christopher L.%Carroll%NULL%1,        Becky J.%Riggs%NULL%1,        Shira J.%Gertz%NULL%1,        Ariel%Daube%NULL%1,        Amanda%Lansell%NULL%2,        Amanda%Lansell%NULL%0,        Alvaro%Coronado Munoz%NULL%1,        Charlotte V.%Hobbs%NULL%2,        Charlotte V.%Hobbs%NULL%0,        Kimberly L.%Marohn%NULL%1,        Natasha B.%Halasa%NULL%1,        Manish M.%Patel%NULL%1,        Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,         Angelo%Mazza%NULL%1,         Annalisa%Gervasoni%NULL%1,         Laura%Martelli%NULL%1,         Maurizio%Ruggeri%NULL%1,         Matteo%Ciuffreda%NULL%1,         Ezio%Bonanomi%NULL%1,         Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Multisystem Inflammatory Syndrome Related to COVID-19 in Previously Healthy Children and Adolescents in New York City"</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1, Philip%Zachariah%xref no email%1, Mark%Gorelik%xref no email%1, Alexis%Boneparth%xref no email%1, Steven G.%Kernie%xref no email%1, Jordan S.%Orange%xref no email%1, Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-21</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,         Scott I.%Aydin%NULL%1,         Kim R.%Derespina%NULL%0,         Prerna B.%Bansal%NULL%1,         Shanna%Kowalsky%NULL%2,         Rebecca%Trachtman%NULL%2,         Jennifer K.%Gillen%NULL%1,         Michelle M.%Perez%NULL%1,         Sara H.%Soshnick%NULL%1,         Edward E.%Conway%NULL%1,         Asher%Bercow%NULL%1,         Howard S.%Seiden%NULL%1,         Robert H.%Pass%NULL%1,         Henry M.%Ushay%NULL%0,         George%Ofori-Amanfo%NULL%1,         Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,         Amanda%Cantor%NULL%1,         Philip%Zachariah%NULL%1,         Danielle%Ahn%NULL%1,         Mercedes%Martinez%NULL%1,         Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,         John C.%Smulian%NULL%1,         John A.%Lednicky%NULL%1,         Tony S.%Wen%NULL%1,         Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%2,         Emilia H.%Koumans%NULL%1,         Eric J.%Chow%NULL%1,         Elizabeth M.%Rosenthal%NULL%2,         Elizabeth M.%Rosenthal%NULL%0,         Alison%Muse%NULL%2,         Alison%Muse%NULL%0,         Jemma%Rowlands%NULL%1,         Meredith A.%Barranco%NULL%1,         Angela M.%Maxted%NULL%1,         Eli S.%Rosenberg%NULL%1,         Delia%Easton%NULL%1,         Tomoko%Udo%NULL%1,         Jessica%Kumar%NULL%1,         Wendy%Pulver%NULL%1,         Lou%Smith%NULL%1,         Brad%Hutton%NULL%1,         Debra%Blog%NULL%1,         Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,         Heba%Elbaaly%NULL%2,         Heba%Elbaaly%NULL%0,         Catriona E. L.%Reid%NULL%2,         Catriona E. L.%Reid%NULL%0,         Rui M. F.%Santos%NULL%2,         Rui M. F.%Santos%NULL%0,         Vinay%Shivamurthy%NULL%2,         Vinay%Shivamurthy%NULL%0,         James%Wong%NULL%1,         K. Haran%Jogeesvaran%NULL%2,         K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,         Clément%Poirault%NULL%1,         Alice%Corsia%NULL%1,         Fanny%Bajolle%NULL%2,         Jacques%Fourgeaud%NULL%1,         François%Angoulvant%NULL%1,         Agathe%Debray%NULL%1,         Romain%Basmaci%NULL%2,         Elodie%Salvador%NULL%1,         Sandra%Biscardi%NULL%1,         Pierre%Frange%NULL%1,         Martin%Chalumeau%NULL%1,         Jean-Laurent%Casanova%NULL%2,         Jean-Laurent%Casanova%NULL%0,         Jérémie F%Cohen%NULL%1,         Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,         Charlotte%Borocco%NULL%1,         Naim%Ouldali%NULL%1,         Marion%Caseris%NULL%2,         Romain%Basmaci%NULL%0,         Noémie%Lachaume%NULL%1,         Philippe%Bensaid%NULL%1,         Samia%Pichard%NULL%1,         Hanane%Kouider%NULL%1,         Guillaume%Morelle%NULL%1,         Irina%Craiu%NULL%1,         Corinne%Pondarre%NULL%1,         Anna%Deho%NULL%1,         Arielle%Maroni%NULL%1,         Mehdi%Oualha%NULL%2,         Zahir%Amoura%NULL%1,         Julien%Haroche%NULL%1,         Juliette%Chommeloux%NULL%1,         Fanny%Bajolle%NULL%0,         Constance%Beyler%NULL%2,         Stéphane%Bonacorsi%NULL%1,         Guislaine%Carcelain%NULL%1,         Isabelle%Koné-Paut%NULL%1,         Brigitte%Bader-Meunier%NULL%2,         Brigitte%Bader-Meunier%NULL%0,         Albert%Faye%NULL%3,         Albert%Faye%NULL%0,         Ulrich%Meinzer%NULL%2,         Caroline%Galeotti%NULL%1,         Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>"Acute Heart Failure in Multisystem Inflammatory Syndrome in Children in the Context of Global SARS-CoV-2 Pandemic"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            Background:\n            Cardiac injury and myocarditis have been described in adults with coronavirus disease 2019 (COVID-19).
+ Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection in children is typically minimally symptomatic.
+ We report a series of febrile pediatric patients with acute heart failure potentially associated with SARS-CoV-2 infection and the multisystem inflammatory syndrome in children as defined by the US Centers for Disease Control and Prevention.
+\n          \n          \n            Methods:\n            Over a 2-month period, contemporary with the SARS-CoV-2 pandemic in France and Switzerland, we retrospectively collected clinical, biological, therapeutic, and early outcomes data in children who were admitted to pediatric intensive care units in 14 centers for cardiogenic shock, left ventricular dysfunction, and severe inflammatory state.
+\n          \n          \n            Results:\n            Thirty-five children were identified and included in the study.
+ Median age at admission was 10 years (range, 2\u201316 years).
+ Comorbidities were present in 28%, including asthma and overweight.
+ Gastrointestinal symptoms were prominent.
+ Left ventricular ejection fraction was &amp;lt;30% in one-third; 80% required inotropic support with 28% treated with extracorporeal membrane oxygenation.
+ Inflammation markers were suggestive of cytokine storm (interleukin-6 median, 135 pg\/mL) and macrophage activation (D-dimer median, 5284 ng\/mL).
+ Mean BNP (B-type natriuretic peptide) was elevated (5743 pg\/mL).
+ Thirty-one of 35 patients (88%) tested positive for SARS-CoV-2 infection by polymerase chain reaction of nasopharyngeal swab or serology.
+ All patients received intravenous immunoglobulin, with adjunctive steroid therapy used in one-third.
+ Left ventricular function was restored in the 25 of 35 of those discharged from the intensive care unit.
+ No patient died, and all patients treated with extracorporeal membrane oxygenation were successfully weaned.
+\n          \n          \n            Conclusions:\n            Children may experience an acute cardiac decompensation caused by severe inflammatory state after SARS-CoV-2 infection (multisystem inflammatory syndrome in children).
+ Treatment with immunoglobulin appears to be associated with recovery of left ventricular systolic function.
+\n          </t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1, Mathilde%M\u00e9ot%xref no email%1, Fanny%Bajolle%xref no email%1, Diala%Khraiche%xref no email%1, Antoine%Legendre%xref no email%1, Samya%Abakka%xref no email%1, Johanne%Auriau%xref no email%1, Marion%Grimaud%xref no email%0, Mehdi%Oualha%xref no email%1, Maurice%Beghetti%xref no email%1, Julie%Wacker%xref no email%1, Caroline%Ovaert%xref no email%1, Sebastien%Hascoet%xref no email%1, Ma\u00eblle%Selegny%xref no email%1, Sophie%Malekzadeh-Milani%xref no email%1, Alice%Maltret%xref no email%1, Gilles%Bosser%xref no email%1, Nathan%Giroux%xref no email%1, Laurent%Bonnemains%xref no email%1, Jeanne%Bordet%xref no email%1, Sylvie%Di Filippo%xref no email%1, Pierre%Mauran%xref no email%1, Sylvie%Falcon-Eicher%xref no email%1, Jean-Beno\u00eet%Thambo%xref no email%1, Bruno%Lefort%xref no email%1, Pamela%Moceri%xref no email%1, Lucile%Houyel%xref no email%1, Sylvain%Renolleau%xref no email%1, Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,         Oscar%Nolan%NULL%1,         Chui Yi%Lai%NULL%1,         Nanda%Prabhu%NULL%1,         Raghu%Krishnamurthy%NULL%1,         Alex G.%Richter%NULL%1,         Deepthi%Jyothish%NULL%1,         Hari Krishnan%Kanthimathinathan%NULL%2,         Steven B.%Welch%NULL%1,         Scott%Hackett%NULL%1,         Eslam%Al-Abadi%NULL%1,         Barnaby R.%Scholefield%NULL%1,         Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,         Julie%Starck%NULL%1,         Michael%Levy%NULL%1,         Clémence%Marais%NULL%1,         Judith%Chareyre%NULL%1,         Diala%Khraiche%NULL%1,         Marianne%Leruez-Ville%NULL%1,         Pierre%Quartier%NULL%1,         Pierre Louis%Léger%NULL%1,         Guillaume%Geslain%NULL%1,         Nada%Semaan%NULL%1,         Florence%Moulin%NULL%1,         Matthieu%Bendavid%NULL%1,         Sandrine%Jean%NULL%1,         Géraldine%Poncelet%NULL%1,         Sylvain%Renolleau%NULL%1,         Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,         Esra%Akkoyun%NULL%1,         Eudys%Briceno‐Brito%NULL%1,         Shanna%Kowalsky%NULL%0,         James%Reed%NULL%1,         Roberto%Posada%NULL%1,         Emilia Mia%Sordillo%NULL%1,         Michael%Tosi%NULL%1,         Rebecca%Trachtman%NULL%0,         Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,         Claire%Evans%NULL%1,         Hari Krishnan%Kanthimathinathan%NULL%0,         Jon%Lillie%NULL%1,         Joseph%Brierley%NULL%1,         Gareth%Waters%NULL%1,         Mae%Johnson%NULL%1,         Benedict%Griffiths%NULL%1,         Pascale%du Pré%NULL%1,         Zoha%Mohammad%NULL%1,         Akash%Deep%NULL%1,         Stephen%Playfor%NULL%1,         Davinder%Singh%NULL%1,         David%Inwald%NULL%1,         Michelle%Jardine%NULL%1,         Oliver%Ross%NULL%1,         Nayan%Shetty%NULL%1,         Mark%Worrall%NULL%1,         Ruchi%Sinha%NULL%1,         Ashwani%Koul%NULL%1,         Elizabeth%Whittaker%NULL%1,         Harish%Vyas%NULL%1,         Barnaby R%Scholefield%NULL%1,         Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,         Marie%Pouletty%NULL%1,         Patricia%Mariani%NULL%1,         Constance%Beyler%NULL%0,         Audrey%Blachier%NULL%1,         Stephane%Bonacorsi%NULL%1,         Kostas%Danis%NULL%1,         Maryline%Chomton%NULL%1,         Laure%Maurice%NULL%1,         Fleur%Le Bourgeois%NULL%1,         Marion%Caseris%NULL%0,         Jean%Gaschignard%NULL%1,         Julie%Poline%NULL%1,         Robert%Cohen%NULL%1,         Luigi%Titomanlio%NULL%1,         Albert%Faye%NULL%0,         Isabelle%Melki%NULL%0,         Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,         Erica B.%Rose%NULL%1,         Steven M.%Horwitz%NULL%1,         Jennifer P.%Collins%NULL%1,         Margaret M.%Newhams%NULL%1,         Mary Beth F.%Son%NULL%1,         Jane W.%Newburger%NULL%1,         Lawrence C.%Kleinman%NULL%1,         Sabrina M.%Heidemann%NULL%1,         Amarilis A.%Martin%NULL%2,         Amarilis A.%Martin%NULL%0,         Aalok R.%Singh%NULL%1,         Simon%Li%NULL%1,         Keiko M.%Tarquinio%NULL%1,         Preeti%Jaggi%NULL%1,         Matthew E.%Oster%NULL%1,         Sheemon P.%Zackai%NULL%1,         Jennifer%Gillen%NULL%1,         Adam J.%Ratner%NULL%1,         Rowan F.%Walsh%NULL%1,         Julie C.%Fitzgerald%NULL%1,         Michael A.%Keenaghan%NULL%1,         Hussam%Alharash%NULL%1,         Sule%Doymaz%NULL%1,         Katharine N.%Clouser%NULL%1,         John S.%Giuliano%NULL%1,         Anjali%Gupta%NULL%1,         Robert M.%Parker%NULL%1,         Aline B.%Maddux%NULL%1,         Vinod%Havalad%NULL%1,         Stacy%Ramsingh%NULL%1,         Hulya%Bukulmez%NULL%1,         Tamara T.%Bradford%NULL%1,         Lincoln S.%Smith%NULL%1,         Mark W.%Tenforde%NULL%1,         Christopher L.%Carroll%NULL%1,         Becky J.%Riggs%NULL%1,         Shira J.%Gertz%NULL%1,         Ariel%Daube%NULL%1,         Amanda%Lansell%NULL%2,         Amanda%Lansell%NULL%0,         Alvaro%Coronado Munoz%NULL%1,         Charlotte V.%Hobbs%NULL%2,         Charlotte V.%Hobbs%NULL%0,         Kimberly L.%Marohn%NULL%1,         Natasha B.%Halasa%NULL%1,         Manish M.%Patel%NULL%1,         Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,          Angelo%Mazza%NULL%1,          Annalisa%Gervasoni%NULL%1,          Laura%Martelli%NULL%1,          Maurizio%Ruggeri%NULL%1,          Matteo%Ciuffreda%NULL%1,          Ezio%Bonanomi%NULL%1,          Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,  Philip%Zachariah%xref no email%1,  Mark%Gorelik%xref no email%1,  Alexis%Boneparth%xref no email%1,  Steven G.%Kernie%xref no email%1,  Jordan S.%Orange%xref no email%1,  Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,          Scott I.%Aydin%NULL%1,          Kim R.%Derespina%NULL%0,          Prerna B.%Bansal%NULL%1,          Shanna%Kowalsky%NULL%2,          Rebecca%Trachtman%NULL%2,          Jennifer K.%Gillen%NULL%1,          Michelle M.%Perez%NULL%1,          Sara H.%Soshnick%NULL%1,          Edward E.%Conway%NULL%1,          Asher%Bercow%NULL%1,          Howard S.%Seiden%NULL%1,          Robert H.%Pass%NULL%1,          Henry M.%Ushay%NULL%0,          George%Ofori-Amanfo%NULL%1,          Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,          Amanda%Cantor%NULL%1,          Philip%Zachariah%NULL%1,          Danielle%Ahn%NULL%1,          Mercedes%Martinez%NULL%1,          Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,          John C.%Smulian%NULL%1,          John A.%Lednicky%NULL%1,          Tony S.%Wen%NULL%1,          Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,          Emilia H.%Koumans%NULL%1,          Eric J.%Chow%NULL%1,          Elizabeth M.%Rosenthal%NULL%2,          Elizabeth M.%Rosenthal%NULL%0,          Alison%Muse%NULL%2,          Alison%Muse%NULL%0,          Jemma%Rowlands%NULL%1,          Meredith A.%Barranco%NULL%1,          Angela M.%Maxted%NULL%1,          Eli S.%Rosenberg%NULL%1,          Delia%Easton%NULL%1,          Tomoko%Udo%NULL%1,          Jessica%Kumar%NULL%1,          Wendy%Pulver%NULL%1,          Lou%Smith%NULL%1,          Brad%Hutton%NULL%1,          Debra%Blog%NULL%1,          Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,          Heba%Elbaaly%NULL%2,          Heba%Elbaaly%NULL%0,          Catriona E. L.%Reid%NULL%2,          Catriona E. L.%Reid%NULL%0,          Rui M. F.%Santos%NULL%2,          Rui M. F.%Santos%NULL%0,          Vinay%Shivamurthy%NULL%2,          Vinay%Shivamurthy%NULL%0,          James%Wong%NULL%1,          K. Haran%Jogeesvaran%NULL%2,          K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,          Clément%Poirault%NULL%1,          Alice%Corsia%NULL%1,          Fanny%Bajolle%NULL%2,          Jacques%Fourgeaud%NULL%1,          François%Angoulvant%NULL%1,          Agathe%Debray%NULL%1,          Romain%Basmaci%NULL%2,          Elodie%Salvador%NULL%1,          Sandra%Biscardi%NULL%1,          Pierre%Frange%NULL%1,          Martin%Chalumeau%NULL%1,          Jean-Laurent%Casanova%NULL%2,          Jean-Laurent%Casanova%NULL%0,          Jérémie F%Cohen%NULL%1,          Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,          Charlotte%Borocco%NULL%1,          Naim%Ouldali%NULL%1,          Marion%Caseris%NULL%2,          Romain%Basmaci%NULL%0,          Noémie%Lachaume%NULL%1,          Philippe%Bensaid%NULL%1,          Samia%Pichard%NULL%1,          Hanane%Kouider%NULL%1,          Guillaume%Morelle%NULL%1,          Irina%Craiu%NULL%1,          Corinne%Pondarre%NULL%1,          Anna%Deho%NULL%1,          Arielle%Maroni%NULL%1,          Mehdi%Oualha%NULL%2,          Zahir%Amoura%NULL%1,          Julien%Haroche%NULL%1,          Juliette%Chommeloux%NULL%1,          Fanny%Bajolle%NULL%0,          Constance%Beyler%NULL%2,          Stéphane%Bonacorsi%NULL%1,          Guislaine%Carcelain%NULL%1,          Isabelle%Koné-Paut%NULL%1,          Brigitte%Bader-Meunier%NULL%2,          Brigitte%Bader-Meunier%NULL%0,          Albert%Faye%NULL%3,          Albert%Faye%NULL%0,          Ulrich%Meinzer%NULL%2,          Caroline%Galeotti%NULL%1,          Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,  Mathilde%M\u00e9ot%xref no email%1,  Fanny%Bajolle%xref no email%1,  Diala%Khraiche%xref no email%1,  Antoine%Legendre%xref no email%1,  Samya%Abakka%xref no email%1,  Johanne%Auriau%xref no email%1,  Marion%Grimaud%xref no email%1,  Mehdi%Oualha%xref no email%1,  Maurice%Beghetti%xref no email%1,  Julie%Wacker%xref no email%1,  Caroline%Ovaert%xref no email%1,  Sebastien%Hascoet%xref no email%1,  Ma\u00eblle%Selegny%xref no email%1,  Sophie%Malekzadeh-Milani%xref no email%1,  Alice%Maltret%xref no email%1,  Gilles%Bosser%xref no email%1,  Nathan%Giroux%xref no email%1,  Laurent%Bonnemains%xref no email%1,  Jeanne%Bordet%xref no email%1,  Sylvie%Di Filippo%xref no email%1,  Pierre%Mauran%xref no email%1,  Sylvie%Falcon-Eicher%xref no email%1,  Jean-Beno\u00eet%Thambo%xref no email%1,  Bruno%Lefort%xref no email%1,  Pamela%Moceri%xref no email%1,  Lucile%Houyel%xref no email%1,  Sylvain%Renolleau%xref no email%1,  Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,          Oscar%Nolan%NULL%1,          Chui Yi%Lai%NULL%1,          Nanda%Prabhu%NULL%1,          Raghu%Krishnamurthy%NULL%1,          Alex G.%Richter%NULL%1,          Deepthi%Jyothish%NULL%1,          Hari Krishnan%Kanthimathinathan%NULL%2,          Steven B.%Welch%NULL%1,          Scott%Hackett%NULL%1,          Eslam%Al-Abadi%NULL%1,          Barnaby R.%Scholefield%NULL%1,          Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,          Julie%Starck%NULL%1,          Michael%Levy%NULL%1,          Clémence%Marais%NULL%1,          Judith%Chareyre%NULL%1,          Diala%Khraiche%NULL%1,          Marianne%Leruez-Ville%NULL%1,          Pierre%Quartier%NULL%1,          Pierre Louis%Léger%NULL%1,          Guillaume%Geslain%NULL%1,          Nada%Semaan%NULL%1,          Florence%Moulin%NULL%1,          Matthieu%Bendavid%NULL%1,          Sandrine%Jean%NULL%1,          Géraldine%Poncelet%NULL%1,          Sylvain%Renolleau%NULL%1,          Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,          Esra%Akkoyun%NULL%1,          Eudys%Briceno‐Brito%NULL%1,          Shanna%Kowalsky%NULL%0,          James%Reed%NULL%1,          Roberto%Posada%NULL%1,          Emilia Mia%Sordillo%NULL%1,          Michael%Tosi%NULL%1,          Rebecca%Trachtman%NULL%0,          Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,          Claire%Evans%NULL%1,          Hari Krishnan%Kanthimathinathan%NULL%0,          Jon%Lillie%NULL%1,          Joseph%Brierley%NULL%1,          Gareth%Waters%NULL%1,          Mae%Johnson%NULL%1,          Benedict%Griffiths%NULL%1,          Pascale%du Pré%NULL%1,          Zoha%Mohammad%NULL%1,          Akash%Deep%NULL%1,          Stephen%Playfor%NULL%1,          Davinder%Singh%NULL%1,          David%Inwald%NULL%1,          Michelle%Jardine%NULL%1,          Oliver%Ross%NULL%1,          Nayan%Shetty%NULL%1,          Mark%Worrall%NULL%1,          Ruchi%Sinha%NULL%1,          Ashwani%Koul%NULL%1,          Elizabeth%Whittaker%NULL%1,          Harish%Vyas%NULL%1,          Barnaby R%Scholefield%NULL%1,          Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,          Marie%Pouletty%NULL%1,          Patricia%Mariani%NULL%1,          Constance%Beyler%NULL%0,          Audrey%Blachier%NULL%1,          Stephane%Bonacorsi%NULL%1,          Kostas%Danis%NULL%1,          Maryline%Chomton%NULL%1,          Laure%Maurice%NULL%1,          Fleur%Le Bourgeois%NULL%1,          Marion%Caseris%NULL%0,          Jean%Gaschignard%NULL%1,          Julie%Poline%NULL%1,          Robert%Cohen%NULL%1,          Luigi%Titomanlio%NULL%1,          Albert%Faye%NULL%0,          Isabelle%Melki%NULL%0,          Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,          Erica B.%Rose%NULL%1,          Steven M.%Horwitz%NULL%1,          Jennifer P.%Collins%NULL%1,          Margaret M.%Newhams%NULL%1,          Mary Beth F.%Son%NULL%1,          Jane W.%Newburger%NULL%1,          Lawrence C.%Kleinman%NULL%1,          Sabrina M.%Heidemann%NULL%1,          Amarilis A.%Martin%NULL%2,          Amarilis A.%Martin%NULL%0,          Aalok R.%Singh%NULL%1,          Simon%Li%NULL%1,          Keiko M.%Tarquinio%NULL%1,          Preeti%Jaggi%NULL%1,          Matthew E.%Oster%NULL%1,          Sheemon P.%Zackai%NULL%1,          Jennifer%Gillen%NULL%1,          Adam J.%Ratner%NULL%1,          Rowan F.%Walsh%NULL%1,          Julie C.%Fitzgerald%NULL%1,          Michael A.%Keenaghan%NULL%1,          Hussam%Alharash%NULL%1,          Sule%Doymaz%NULL%1,          Katharine N.%Clouser%NULL%1,          John S.%Giuliano%NULL%1,          Anjali%Gupta%NULL%1,          Robert M.%Parker%NULL%1,          Aline B.%Maddux%NULL%1,          Vinod%Havalad%NULL%1,          Stacy%Ramsingh%NULL%1,          Hulya%Bukulmez%NULL%1,          Tamara T.%Bradford%NULL%1,          Lincoln S.%Smith%NULL%1,          Mark W.%Tenforde%NULL%1,          Christopher L.%Carroll%NULL%1,          Becky J.%Riggs%NULL%1,          Shira J.%Gertz%NULL%1,          Ariel%Daube%NULL%1,          Amanda%Lansell%NULL%2,          Amanda%Lansell%NULL%0,          Alvaro%Coronado Munoz%NULL%1,          Charlotte V.%Hobbs%NULL%2,          Charlotte V.%Hobbs%NULL%0,          Kimberly L.%Marohn%NULL%1,          Natasha B.%Halasa%NULL%1,          Manish M.%Patel%NULL%1,          Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1301,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1193,22 +1324,22 @@
         <v>44033.0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
@@ -1257,7 +1388,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1286,7 +1417,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1315,7 +1446,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1344,7 +1475,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1373,7 +1504,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1402,7 +1533,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1431,7 +1562,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1454,22 +1585,22 @@
         <v>44047.0</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="I12" t="s">
         <v>42</v>
@@ -1489,7 +1620,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1518,7 +1649,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1547,7 +1678,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1576,7 +1707,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1605,7 +1736,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1634,7 +1765,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="273">
   <si>
     <t>Doi</t>
   </si>
@@ -970,6 +970,102 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,          Erica B.%Rose%NULL%1,          Steven M.%Horwitz%NULL%1,          Jennifer P.%Collins%NULL%1,          Margaret M.%Newhams%NULL%1,          Mary Beth F.%Son%NULL%1,          Jane W.%Newburger%NULL%1,          Lawrence C.%Kleinman%NULL%1,          Sabrina M.%Heidemann%NULL%1,          Amarilis A.%Martin%NULL%2,          Amarilis A.%Martin%NULL%0,          Aalok R.%Singh%NULL%1,          Simon%Li%NULL%1,          Keiko M.%Tarquinio%NULL%1,          Preeti%Jaggi%NULL%1,          Matthew E.%Oster%NULL%1,          Sheemon P.%Zackai%NULL%1,          Jennifer%Gillen%NULL%1,          Adam J.%Ratner%NULL%1,          Rowan F.%Walsh%NULL%1,          Julie C.%Fitzgerald%NULL%1,          Michael A.%Keenaghan%NULL%1,          Hussam%Alharash%NULL%1,          Sule%Doymaz%NULL%1,          Katharine N.%Clouser%NULL%1,          John S.%Giuliano%NULL%1,          Anjali%Gupta%NULL%1,          Robert M.%Parker%NULL%1,          Aline B.%Maddux%NULL%1,          Vinod%Havalad%NULL%1,          Stacy%Ramsingh%NULL%1,          Hulya%Bukulmez%NULL%1,          Tamara T.%Bradford%NULL%1,          Lincoln S.%Smith%NULL%1,          Mark W.%Tenforde%NULL%1,          Christopher L.%Carroll%NULL%1,          Becky J.%Riggs%NULL%1,          Shira J.%Gertz%NULL%1,          Ariel%Daube%NULL%1,          Amanda%Lansell%NULL%2,          Amanda%Lansell%NULL%0,          Alvaro%Coronado Munoz%NULL%1,          Charlotte V.%Hobbs%NULL%2,          Charlotte V.%Hobbs%NULL%0,          Kimberly L.%Marohn%NULL%1,          Natasha B.%Halasa%NULL%1,          Manish M.%Patel%NULL%1,          Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,           Angelo%Mazza%NULL%1,           Annalisa%Gervasoni%NULL%1,           Laura%Martelli%NULL%1,           Maurizio%Ruggeri%NULL%1,           Matteo%Ciuffreda%NULL%1,           Ezio%Bonanomi%NULL%1,           Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,   Philip%Zachariah%xref no email%1,   Mark%Gorelik%xref no email%1,   Alexis%Boneparth%xref no email%1,   Steven G.%Kernie%xref no email%1,   Jordan S.%Orange%xref no email%1,   Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,           Scott I.%Aydin%NULL%1,           Kim R.%Derespina%NULL%0,           Prerna B.%Bansal%NULL%1,           Shanna%Kowalsky%NULL%2,           Rebecca%Trachtman%NULL%2,           Jennifer K.%Gillen%NULL%1,           Michelle M.%Perez%NULL%1,           Sara H.%Soshnick%NULL%1,           Edward E.%Conway%NULL%1,           Asher%Bercow%NULL%1,           Howard S.%Seiden%NULL%1,           Robert H.%Pass%NULL%1,           Henry M.%Ushay%NULL%0,           George%Ofori-Amanfo%NULL%1,           Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,           Amanda%Cantor%NULL%1,           Philip%Zachariah%NULL%1,           Danielle%Ahn%NULL%1,           Mercedes%Martinez%NULL%1,           Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,           John C.%Smulian%NULL%1,           John A.%Lednicky%NULL%1,           Tony S.%Wen%NULL%1,           Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,           Emilia H.%Koumans%NULL%1,           Eric J.%Chow%NULL%1,           Elizabeth M.%Rosenthal%NULL%2,           Elizabeth M.%Rosenthal%NULL%0,           Alison%Muse%NULL%2,           Alison%Muse%NULL%0,           Jemma%Rowlands%NULL%1,           Meredith A.%Barranco%NULL%1,           Angela M.%Maxted%NULL%1,           Eli S.%Rosenberg%NULL%1,           Delia%Easton%NULL%1,           Tomoko%Udo%NULL%1,           Jessica%Kumar%NULL%1,           Wendy%Pulver%NULL%1,           Lou%Smith%NULL%1,           Brad%Hutton%NULL%1,           Debra%Blog%NULL%1,           Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,           Heba%Elbaaly%NULL%2,           Heba%Elbaaly%NULL%0,           Catriona E. L.%Reid%NULL%2,           Catriona E. L.%Reid%NULL%0,           Rui M. F.%Santos%NULL%2,           Rui M. F.%Santos%NULL%0,           Vinay%Shivamurthy%NULL%2,           Vinay%Shivamurthy%NULL%0,           James%Wong%NULL%1,           K. Haran%Jogeesvaran%NULL%2,           K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,           Clément%Poirault%NULL%1,           Alice%Corsia%NULL%1,           Fanny%Bajolle%NULL%2,           Jacques%Fourgeaud%NULL%1,           François%Angoulvant%NULL%1,           Agathe%Debray%NULL%1,           Romain%Basmaci%NULL%2,           Elodie%Salvador%NULL%1,           Sandra%Biscardi%NULL%1,           Pierre%Frange%NULL%1,           Martin%Chalumeau%NULL%1,           Jean-Laurent%Casanova%NULL%2,           Jean-Laurent%Casanova%NULL%0,           Jérémie F%Cohen%NULL%1,           Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,           Charlotte%Borocco%NULL%1,           Naim%Ouldali%NULL%1,           Marion%Caseris%NULL%2,           Romain%Basmaci%NULL%0,           Noémie%Lachaume%NULL%1,           Philippe%Bensaid%NULL%1,           Samia%Pichard%NULL%1,           Hanane%Kouider%NULL%1,           Guillaume%Morelle%NULL%1,           Irina%Craiu%NULL%1,           Corinne%Pondarre%NULL%1,           Anna%Deho%NULL%1,           Arielle%Maroni%NULL%1,           Mehdi%Oualha%NULL%2,           Zahir%Amoura%NULL%1,           Julien%Haroche%NULL%1,           Juliette%Chommeloux%NULL%1,           Fanny%Bajolle%NULL%0,           Constance%Beyler%NULL%2,           Stéphane%Bonacorsi%NULL%1,           Guislaine%Carcelain%NULL%1,           Isabelle%Koné-Paut%NULL%1,           Brigitte%Bader-Meunier%NULL%2,           Brigitte%Bader-Meunier%NULL%0,           Albert%Faye%NULL%3,           Albert%Faye%NULL%0,           Ulrich%Meinzer%NULL%2,           Caroline%Galeotti%NULL%1,           Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,   Mathilde%M\u00e9ot%xref no email%1,   Fanny%Bajolle%xref no email%1,   Diala%Khraiche%xref no email%1,   Antoine%Legendre%xref no email%1,   Samya%Abakka%xref no email%1,   Johanne%Auriau%xref no email%1,   Marion%Grimaud%xref no email%1,   Mehdi%Oualha%xref no email%1,   Maurice%Beghetti%xref no email%1,   Julie%Wacker%xref no email%1,   Caroline%Ovaert%xref no email%1,   Sebastien%Hascoet%xref no email%1,   Ma\u00eblle%Selegny%xref no email%1,   Sophie%Malekzadeh-Milani%xref no email%1,   Alice%Maltret%xref no email%1,   Gilles%Bosser%xref no email%1,   Nathan%Giroux%xref no email%1,   Laurent%Bonnemains%xref no email%1,   Jeanne%Bordet%xref no email%1,   Sylvie%Di Filippo%xref no email%1,   Pierre%Mauran%xref no email%1,   Sylvie%Falcon-Eicher%xref no email%1,   Jean-Beno\u00eet%Thambo%xref no email%1,   Bruno%Lefort%xref no email%1,   Pamela%Moceri%xref no email%1,   Lucile%Houyel%xref no email%1,   Sylvain%Renolleau%xref no email%1,   Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,           Oscar%Nolan%NULL%1,           Chui Yi%Lai%NULL%1,           Nanda%Prabhu%NULL%1,           Raghu%Krishnamurthy%NULL%1,           Alex G.%Richter%NULL%1,           Deepthi%Jyothish%NULL%1,           Hari Krishnan%Kanthimathinathan%NULL%2,           Steven B.%Welch%NULL%1,           Scott%Hackett%NULL%1,           Eslam%Al-Abadi%NULL%1,           Barnaby R.%Scholefield%NULL%1,           Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,           Julie%Starck%NULL%1,           Michael%Levy%NULL%1,           Clémence%Marais%NULL%1,           Judith%Chareyre%NULL%1,           Diala%Khraiche%NULL%1,           Marianne%Leruez-Ville%NULL%1,           Pierre%Quartier%NULL%1,           Pierre Louis%Léger%NULL%1,           Guillaume%Geslain%NULL%1,           Nada%Semaan%NULL%1,           Florence%Moulin%NULL%1,           Matthieu%Bendavid%NULL%1,           Sandrine%Jean%NULL%1,           Géraldine%Poncelet%NULL%1,           Sylvain%Renolleau%NULL%1,           Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,           Esra%Akkoyun%NULL%1,           Eudys%Briceno‐Brito%NULL%1,           Shanna%Kowalsky%NULL%0,           James%Reed%NULL%1,           Roberto%Posada%NULL%1,           Emilia Mia%Sordillo%NULL%1,           Michael%Tosi%NULL%1,           Rebecca%Trachtman%NULL%0,           Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,           Claire%Evans%NULL%1,           Hari Krishnan%Kanthimathinathan%NULL%0,           Jon%Lillie%NULL%1,           Joseph%Brierley%NULL%1,           Gareth%Waters%NULL%1,           Mae%Johnson%NULL%1,           Benedict%Griffiths%NULL%1,           Pascale%du Pré%NULL%1,           Zoha%Mohammad%NULL%1,           Akash%Deep%NULL%1,           Stephen%Playfor%NULL%1,           Davinder%Singh%NULL%1,           David%Inwald%NULL%1,           Michelle%Jardine%NULL%1,           Oliver%Ross%NULL%1,           Nayan%Shetty%NULL%1,           Mark%Worrall%NULL%1,           Ruchi%Sinha%NULL%1,           Ashwani%Koul%NULL%1,           Elizabeth%Whittaker%NULL%1,           Harish%Vyas%NULL%1,           Barnaby R%Scholefield%NULL%1,           Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,           Marie%Pouletty%NULL%1,           Patricia%Mariani%NULL%1,           Constance%Beyler%NULL%0,           Audrey%Blachier%NULL%1,           Stephane%Bonacorsi%NULL%1,           Kostas%Danis%NULL%1,           Maryline%Chomton%NULL%1,           Laure%Maurice%NULL%1,           Fleur%Le Bourgeois%NULL%1,           Marion%Caseris%NULL%0,           Jean%Gaschignard%NULL%1,           Julie%Poline%NULL%1,           Robert%Cohen%NULL%1,           Luigi%Titomanlio%NULL%1,           Albert%Faye%NULL%0,           Isabelle%Melki%NULL%0,           Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,           Erica B.%Rose%NULL%1,           Steven M.%Horwitz%NULL%1,           Jennifer P.%Collins%NULL%1,           Margaret M.%Newhams%NULL%1,           Mary Beth F.%Son%NULL%1,           Jane W.%Newburger%NULL%1,           Lawrence C.%Kleinman%NULL%1,           Sabrina M.%Heidemann%NULL%1,           Amarilis A.%Martin%NULL%2,           Amarilis A.%Martin%NULL%0,           Aalok R.%Singh%NULL%1,           Simon%Li%NULL%1,           Keiko M.%Tarquinio%NULL%1,           Preeti%Jaggi%NULL%1,           Matthew E.%Oster%NULL%1,           Sheemon P.%Zackai%NULL%1,           Jennifer%Gillen%NULL%1,           Adam J.%Ratner%NULL%1,           Rowan F.%Walsh%NULL%1,           Julie C.%Fitzgerald%NULL%1,           Michael A.%Keenaghan%NULL%1,           Hussam%Alharash%NULL%1,           Sule%Doymaz%NULL%1,           Katharine N.%Clouser%NULL%1,           John S.%Giuliano%NULL%1,           Anjali%Gupta%NULL%1,           Robert M.%Parker%NULL%1,           Aline B.%Maddux%NULL%1,           Vinod%Havalad%NULL%1,           Stacy%Ramsingh%NULL%1,           Hulya%Bukulmez%NULL%1,           Tamara T.%Bradford%NULL%1,           Lincoln S.%Smith%NULL%1,           Mark W.%Tenforde%NULL%1,           Christopher L.%Carroll%NULL%1,           Becky J.%Riggs%NULL%1,           Shira J.%Gertz%NULL%1,           Ariel%Daube%NULL%1,           Amanda%Lansell%NULL%2,           Amanda%Lansell%NULL%0,           Alvaro%Coronado Munoz%NULL%1,           Charlotte V.%Hobbs%NULL%2,           Charlotte V.%Hobbs%NULL%0,           Kimberly L.%Marohn%NULL%1,           Natasha B.%Halasa%NULL%1,           Manish M.%Patel%NULL%1,           Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,            Angelo%Mazza%NULL%1,            Annalisa%Gervasoni%NULL%1,            Laura%Martelli%NULL%1,            Maurizio%Ruggeri%NULL%1,            Matteo%Ciuffreda%NULL%1,            Ezio%Bonanomi%NULL%1,            Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,    Philip%Zachariah%xref no email%1,    Mark%Gorelik%xref no email%1,    Alexis%Boneparth%xref no email%1,    Steven G.%Kernie%xref no email%1,    Jordan S.%Orange%xref no email%1,    Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,            Scott I.%Aydin%NULL%1,            Kim R.%Derespina%NULL%0,            Prerna B.%Bansal%NULL%1,            Shanna%Kowalsky%NULL%2,            Rebecca%Trachtman%NULL%2,            Jennifer K.%Gillen%NULL%1,            Michelle M.%Perez%NULL%1,            Sara H.%Soshnick%NULL%1,            Edward E.%Conway%NULL%1,            Asher%Bercow%NULL%1,            Howard S.%Seiden%NULL%1,            Robert H.%Pass%NULL%1,            Henry M.%Ushay%NULL%0,            George%Ofori-Amanfo%NULL%1,            Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,            Amanda%Cantor%NULL%1,            Philip%Zachariah%NULL%1,            Danielle%Ahn%NULL%1,            Mercedes%Martinez%NULL%1,            Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,            John C.%Smulian%NULL%1,            John A.%Lednicky%NULL%1,            Tony S.%Wen%NULL%1,            Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,            Emilia H.%Koumans%NULL%1,            Eric J.%Chow%NULL%1,            Elizabeth M.%Rosenthal%NULL%2,            Elizabeth M.%Rosenthal%NULL%0,            Alison%Muse%NULL%2,            Alison%Muse%NULL%0,            Jemma%Rowlands%NULL%1,            Meredith A.%Barranco%NULL%1,            Angela M.%Maxted%NULL%1,            Eli S.%Rosenberg%NULL%1,            Delia%Easton%NULL%1,            Tomoko%Udo%NULL%1,            Jessica%Kumar%NULL%1,            Wendy%Pulver%NULL%1,            Lou%Smith%NULL%1,            Brad%Hutton%NULL%1,            Debra%Blog%NULL%1,            Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,            Heba%Elbaaly%NULL%2,            Heba%Elbaaly%NULL%0,            Catriona E. L.%Reid%NULL%2,            Catriona E. L.%Reid%NULL%0,            Rui M. F.%Santos%NULL%2,            Rui M. F.%Santos%NULL%0,            Vinay%Shivamurthy%NULL%2,            Vinay%Shivamurthy%NULL%0,            James%Wong%NULL%1,            K. Haran%Jogeesvaran%NULL%2,            K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,            Clément%Poirault%NULL%1,            Alice%Corsia%NULL%1,            Fanny%Bajolle%NULL%2,            Jacques%Fourgeaud%NULL%1,            François%Angoulvant%NULL%1,            Agathe%Debray%NULL%1,            Romain%Basmaci%NULL%2,            Elodie%Salvador%NULL%1,            Sandra%Biscardi%NULL%1,            Pierre%Frange%NULL%1,            Martin%Chalumeau%NULL%1,            Jean-Laurent%Casanova%NULL%2,            Jean-Laurent%Casanova%NULL%0,            Jérémie F%Cohen%NULL%1,            Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,            Charlotte%Borocco%NULL%1,            Naim%Ouldali%NULL%1,            Marion%Caseris%NULL%2,            Romain%Basmaci%NULL%0,            Noémie%Lachaume%NULL%1,            Philippe%Bensaid%NULL%1,            Samia%Pichard%NULL%1,            Hanane%Kouider%NULL%1,            Guillaume%Morelle%NULL%1,            Irina%Craiu%NULL%1,            Corinne%Pondarre%NULL%1,            Anna%Deho%NULL%1,            Arielle%Maroni%NULL%1,            Mehdi%Oualha%NULL%2,            Zahir%Amoura%NULL%1,            Julien%Haroche%NULL%1,            Juliette%Chommeloux%NULL%1,            Fanny%Bajolle%NULL%0,            Constance%Beyler%NULL%2,            Stéphane%Bonacorsi%NULL%1,            Guislaine%Carcelain%NULL%1,            Isabelle%Koné-Paut%NULL%1,            Brigitte%Bader-Meunier%NULL%2,            Brigitte%Bader-Meunier%NULL%0,            Albert%Faye%NULL%3,            Albert%Faye%NULL%0,            Ulrich%Meinzer%NULL%2,            Caroline%Galeotti%NULL%1,            Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,    Mathilde%M\u00e9ot%xref no email%1,    Fanny%Bajolle%xref no email%1,    Diala%Khraiche%xref no email%1,    Antoine%Legendre%xref no email%1,    Samya%Abakka%xref no email%1,    Johanne%Auriau%xref no email%1,    Marion%Grimaud%xref no email%1,    Mehdi%Oualha%xref no email%1,    Maurice%Beghetti%xref no email%1,    Julie%Wacker%xref no email%1,    Caroline%Ovaert%xref no email%1,    Sebastien%Hascoet%xref no email%1,    Ma\u00eblle%Selegny%xref no email%1,    Sophie%Malekzadeh-Milani%xref no email%1,    Alice%Maltret%xref no email%1,    Gilles%Bosser%xref no email%1,    Nathan%Giroux%xref no email%1,    Laurent%Bonnemains%xref no email%1,    Jeanne%Bordet%xref no email%1,    Sylvie%Di Filippo%xref no email%1,    Pierre%Mauran%xref no email%1,    Sylvie%Falcon-Eicher%xref no email%1,    Jean-Beno\u00eet%Thambo%xref no email%1,    Bruno%Lefort%xref no email%1,    Pamela%Moceri%xref no email%1,    Lucile%Houyel%xref no email%1,    Sylvain%Renolleau%xref no email%1,    Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,            Oscar%Nolan%NULL%1,            Chui Yi%Lai%NULL%1,            Nanda%Prabhu%NULL%1,            Raghu%Krishnamurthy%NULL%1,            Alex G.%Richter%NULL%1,            Deepthi%Jyothish%NULL%1,            Hari Krishnan%Kanthimathinathan%NULL%2,            Steven B.%Welch%NULL%1,            Scott%Hackett%NULL%1,            Eslam%Al-Abadi%NULL%1,            Barnaby R.%Scholefield%NULL%1,            Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,            Julie%Starck%NULL%1,            Michael%Levy%NULL%1,            Clémence%Marais%NULL%1,            Judith%Chareyre%NULL%1,            Diala%Khraiche%NULL%1,            Marianne%Leruez-Ville%NULL%1,            Pierre%Quartier%NULL%1,            Pierre Louis%Léger%NULL%1,            Guillaume%Geslain%NULL%1,            Nada%Semaan%NULL%1,            Florence%Moulin%NULL%1,            Matthieu%Bendavid%NULL%1,            Sandrine%Jean%NULL%1,            Géraldine%Poncelet%NULL%1,            Sylvain%Renolleau%NULL%1,            Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,            Esra%Akkoyun%NULL%1,            Eudys%Briceno‐Brito%NULL%1,            Shanna%Kowalsky%NULL%0,            James%Reed%NULL%1,            Roberto%Posada%NULL%1,            Emilia Mia%Sordillo%NULL%1,            Michael%Tosi%NULL%1,            Rebecca%Trachtman%NULL%0,            Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,            Claire%Evans%NULL%1,            Hari Krishnan%Kanthimathinathan%NULL%0,            Jon%Lillie%NULL%1,            Joseph%Brierley%NULL%1,            Gareth%Waters%NULL%1,            Mae%Johnson%NULL%1,            Benedict%Griffiths%NULL%1,            Pascale%du Pré%NULL%1,            Zoha%Mohammad%NULL%1,            Akash%Deep%NULL%1,            Stephen%Playfor%NULL%1,            Davinder%Singh%NULL%1,            David%Inwald%NULL%1,            Michelle%Jardine%NULL%1,            Oliver%Ross%NULL%1,            Nayan%Shetty%NULL%1,            Mark%Worrall%NULL%1,            Ruchi%Sinha%NULL%1,            Ashwani%Koul%NULL%1,            Elizabeth%Whittaker%NULL%1,            Harish%Vyas%NULL%1,            Barnaby R%Scholefield%NULL%1,            Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,            Marie%Pouletty%NULL%1,            Patricia%Mariani%NULL%1,            Constance%Beyler%NULL%0,            Audrey%Blachier%NULL%1,            Stephane%Bonacorsi%NULL%1,            Kostas%Danis%NULL%1,            Maryline%Chomton%NULL%1,            Laure%Maurice%NULL%1,            Fleur%Le Bourgeois%NULL%1,            Marion%Caseris%NULL%0,            Jean%Gaschignard%NULL%1,            Julie%Poline%NULL%1,            Robert%Cohen%NULL%1,            Luigi%Titomanlio%NULL%1,            Albert%Faye%NULL%0,            Isabelle%Melki%NULL%0,            Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,            Erica B.%Rose%NULL%1,            Steven M.%Horwitz%NULL%1,            Jennifer P.%Collins%NULL%1,            Margaret M.%Newhams%NULL%1,            Mary Beth F.%Son%NULL%1,            Jane W.%Newburger%NULL%1,            Lawrence C.%Kleinman%NULL%1,            Sabrina M.%Heidemann%NULL%1,            Amarilis A.%Martin%NULL%2,            Amarilis A.%Martin%NULL%0,            Aalok R.%Singh%NULL%1,            Simon%Li%NULL%1,            Keiko M.%Tarquinio%NULL%1,            Preeti%Jaggi%NULL%1,            Matthew E.%Oster%NULL%1,            Sheemon P.%Zackai%NULL%1,            Jennifer%Gillen%NULL%1,            Adam J.%Ratner%NULL%1,            Rowan F.%Walsh%NULL%1,            Julie C.%Fitzgerald%NULL%1,            Michael A.%Keenaghan%NULL%1,            Hussam%Alharash%NULL%1,            Sule%Doymaz%NULL%1,            Katharine N.%Clouser%NULL%1,            John S.%Giuliano%NULL%1,            Anjali%Gupta%NULL%1,            Robert M.%Parker%NULL%1,            Aline B.%Maddux%NULL%1,            Vinod%Havalad%NULL%1,            Stacy%Ramsingh%NULL%1,            Hulya%Bukulmez%NULL%1,            Tamara T.%Bradford%NULL%1,            Lincoln S.%Smith%NULL%1,            Mark W.%Tenforde%NULL%1,            Christopher L.%Carroll%NULL%1,            Becky J.%Riggs%NULL%1,            Shira J.%Gertz%NULL%1,            Ariel%Daube%NULL%1,            Amanda%Lansell%NULL%2,            Amanda%Lansell%NULL%0,            Alvaro%Coronado Munoz%NULL%1,            Charlotte V.%Hobbs%NULL%2,            Charlotte V.%Hobbs%NULL%0,            Kimberly L.%Marohn%NULL%1,            Natasha B.%Halasa%NULL%1,            Manish M.%Patel%NULL%1,            Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1397,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1330,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1388,7 +1484,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1417,7 +1513,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1446,7 +1542,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1475,7 +1571,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1504,7 +1600,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1533,7 +1629,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1562,7 +1658,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1591,7 +1687,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1620,7 +1716,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1649,7 +1745,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1678,7 +1774,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1707,7 +1803,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1736,7 +1832,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1765,7 +1861,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="307">
   <si>
     <t>Doi</t>
   </si>
@@ -1066,6 +1066,140 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,            Erica B.%Rose%NULL%1,            Steven M.%Horwitz%NULL%1,            Jennifer P.%Collins%NULL%1,            Margaret M.%Newhams%NULL%1,            Mary Beth F.%Son%NULL%1,            Jane W.%Newburger%NULL%1,            Lawrence C.%Kleinman%NULL%1,            Sabrina M.%Heidemann%NULL%1,            Amarilis A.%Martin%NULL%2,            Amarilis A.%Martin%NULL%0,            Aalok R.%Singh%NULL%1,            Simon%Li%NULL%1,            Keiko M.%Tarquinio%NULL%1,            Preeti%Jaggi%NULL%1,            Matthew E.%Oster%NULL%1,            Sheemon P.%Zackai%NULL%1,            Jennifer%Gillen%NULL%1,            Adam J.%Ratner%NULL%1,            Rowan F.%Walsh%NULL%1,            Julie C.%Fitzgerald%NULL%1,            Michael A.%Keenaghan%NULL%1,            Hussam%Alharash%NULL%1,            Sule%Doymaz%NULL%1,            Katharine N.%Clouser%NULL%1,            John S.%Giuliano%NULL%1,            Anjali%Gupta%NULL%1,            Robert M.%Parker%NULL%1,            Aline B.%Maddux%NULL%1,            Vinod%Havalad%NULL%1,            Stacy%Ramsingh%NULL%1,            Hulya%Bukulmez%NULL%1,            Tamara T.%Bradford%NULL%1,            Lincoln S.%Smith%NULL%1,            Mark W.%Tenforde%NULL%1,            Christopher L.%Carroll%NULL%1,            Becky J.%Riggs%NULL%1,            Shira J.%Gertz%NULL%1,            Ariel%Daube%NULL%1,            Amanda%Lansell%NULL%2,            Amanda%Lansell%NULL%0,            Alvaro%Coronado Munoz%NULL%1,            Charlotte V.%Hobbs%NULL%2,            Charlotte V.%Hobbs%NULL%0,            Kimberly L.%Marohn%NULL%1,            Natasha B.%Halasa%NULL%1,            Manish M.%Patel%NULL%1,            Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,             Angelo%Mazza%NULL%1,             Annalisa%Gervasoni%NULL%1,             Laura%Martelli%NULL%1,             Maurizio%Ruggeri%NULL%1,             Matteo%Ciuffreda%NULL%1,             Ezio%Bonanomi%NULL%1,             Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,     Philip%Zachariah%xref no email%1,     Mark%Gorelik%xref no email%1,     Alexis%Boneparth%xref no email%1,     Steven G.%Kernie%xref no email%1,     Jordan S.%Orange%xref no email%1,     Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,             Scott I.%Aydin%NULL%1,             Kim R.%Derespina%NULL%0,             Prerna B.%Bansal%NULL%1,             Shanna%Kowalsky%NULL%2,             Rebecca%Trachtman%NULL%2,             Jennifer K.%Gillen%NULL%1,             Michelle M.%Perez%NULL%1,             Sara H.%Soshnick%NULL%1,             Edward E.%Conway%NULL%1,             Asher%Bercow%NULL%1,             Howard S.%Seiden%NULL%1,             Robert H.%Pass%NULL%1,             Henry M.%Ushay%NULL%0,             George%Ofori-Amanfo%NULL%1,             Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,             Amanda%Cantor%NULL%1,             Philip%Zachariah%NULL%1,             Danielle%Ahn%NULL%1,             Mercedes%Martinez%NULL%1,             Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,             John C.%Smulian%NULL%1,             John A.%Lednicky%NULL%1,             Tony S.%Wen%NULL%1,             Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,             Emilia H.%Koumans%NULL%1,             Eric J.%Chow%NULL%1,             Elizabeth M.%Rosenthal%NULL%2,             Elizabeth M.%Rosenthal%NULL%0,             Alison%Muse%NULL%2,             Alison%Muse%NULL%0,             Jemma%Rowlands%NULL%1,             Meredith A.%Barranco%NULL%1,             Angela M.%Maxted%NULL%1,             Eli S.%Rosenberg%NULL%1,             Delia%Easton%NULL%1,             Tomoko%Udo%NULL%1,             Jessica%Kumar%NULL%1,             Wendy%Pulver%NULL%1,             Lou%Smith%NULL%1,             Brad%Hutton%NULL%1,             Debra%Blog%NULL%1,             Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,             Heba%Elbaaly%NULL%2,             Heba%Elbaaly%NULL%0,             Catriona E. L.%Reid%NULL%2,             Catriona E. L.%Reid%NULL%0,             Rui M. F.%Santos%NULL%2,             Rui M. F.%Santos%NULL%0,             Vinay%Shivamurthy%NULL%2,             Vinay%Shivamurthy%NULL%0,             James%Wong%NULL%1,             K. Haran%Jogeesvaran%NULL%2,             K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,             Clément%Poirault%NULL%1,             Alice%Corsia%NULL%1,             Fanny%Bajolle%NULL%2,             Jacques%Fourgeaud%NULL%1,             François%Angoulvant%NULL%1,             Agathe%Debray%NULL%1,             Romain%Basmaci%NULL%2,             Elodie%Salvador%NULL%1,             Sandra%Biscardi%NULL%1,             Pierre%Frange%NULL%1,             Martin%Chalumeau%NULL%1,             Jean-Laurent%Casanova%NULL%2,             Jean-Laurent%Casanova%NULL%0,             Jérémie F%Cohen%NULL%1,             Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,             Charlotte%Borocco%NULL%1,             Naim%Ouldali%NULL%1,             Marion%Caseris%NULL%2,             Romain%Basmaci%NULL%0,             Noémie%Lachaume%NULL%1,             Philippe%Bensaid%NULL%1,             Samia%Pichard%NULL%1,             Hanane%Kouider%NULL%1,             Guillaume%Morelle%NULL%1,             Irina%Craiu%NULL%1,             Corinne%Pondarre%NULL%1,             Anna%Deho%NULL%1,             Arielle%Maroni%NULL%1,             Mehdi%Oualha%NULL%2,             Zahir%Amoura%NULL%1,             Julien%Haroche%NULL%1,             Juliette%Chommeloux%NULL%1,             Fanny%Bajolle%NULL%0,             Constance%Beyler%NULL%2,             Stéphane%Bonacorsi%NULL%1,             Guislaine%Carcelain%NULL%1,             Isabelle%Koné-Paut%NULL%1,             Brigitte%Bader-Meunier%NULL%2,             Brigitte%Bader-Meunier%NULL%0,             Albert%Faye%NULL%3,             Albert%Faye%NULL%0,             Ulrich%Meinzer%NULL%2,             Caroline%Galeotti%NULL%1,             Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,     Mathilde%M\u00e9ot%xref no email%1,     Fanny%Bajolle%xref no email%1,     Diala%Khraiche%xref no email%1,     Antoine%Legendre%xref no email%1,     Samya%Abakka%xref no email%1,     Johanne%Auriau%xref no email%1,     Marion%Grimaud%xref no email%1,     Mehdi%Oualha%xref no email%1,     Maurice%Beghetti%xref no email%1,     Julie%Wacker%xref no email%1,     Caroline%Ovaert%xref no email%1,     Sebastien%Hascoet%xref no email%1,     Ma\u00eblle%Selegny%xref no email%1,     Sophie%Malekzadeh-Milani%xref no email%1,     Alice%Maltret%xref no email%1,     Gilles%Bosser%xref no email%1,     Nathan%Giroux%xref no email%1,     Laurent%Bonnemains%xref no email%1,     Jeanne%Bordet%xref no email%1,     Sylvie%Di Filippo%xref no email%1,     Pierre%Mauran%xref no email%1,     Sylvie%Falcon-Eicher%xref no email%1,     Jean-Beno\u00eet%Thambo%xref no email%1,     Bruno%Lefort%xref no email%1,     Pamela%Moceri%xref no email%1,     Lucile%Houyel%xref no email%1,     Sylvain%Renolleau%xref no email%1,     Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children were relatively spared during COVID-19 pandemic.
+ However, the recently reported hyperinflammatory syndrome with overlapping features of Kawasaki disease and toxic shock syndrome—“Paediatric Inflammatory Multisystem Syndrome-temporally associated with SARS-CoV-2” (PIMS-TS) has caused concern.
+ We describe cardiac findings and short-term outcomes in children with PIMS-TS at a tertiary children’s hospital.
+ Single-center observational study of children with PIMS-TS from 10th April to 9th May 2020. Data on ECG and echocardiogram were retrospectively analyzed along with demographics, clinical features and blood parameters.
+ Fifteen children with median age of 8.8 (IQR 6.4–11.2) years were included, all were from African/Afro-Caribbean, South Asian, Mixed or other minority ethnic groups.
+ All showed raised inflammatory/cardiac markers (CRP, ferritin, Troponin I, CK and pro-BNP).
+ Transient valve regurgitation was present in 10 patients (67%).
+ Left Ventricular ejection fraction was reduced in 12 (80%), fractional shortening in 8 (53%) with resolution in all but 2. Fourteen (93%) had coronary artery abnormalities, with normalization in 6. ECG abnormalities were present in 9 (60%) which normalized in 6 by discharge.
+ Ten (67%) needed inotropes and/or vasopressors.
+ None needed extracorporeal life support.
+ Improvement in cardiac biochemical markers was closely followed by improvement in ECG/echocardiogram.
+ All patients were discharged alive and twelve (80%) have been reviewed since.
+ Our entire cohort with PIMS-TS had cardiac involvement and this degree of involvement is significantly more than other published series and emphasizes the need for specialist cardiac review.
+ We believe that our multi-disciplinary team approach was crucial for the good short-term outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,             Oscar%Nolan%NULL%1,             Chui Yi%Lai%NULL%1,             Nanda%Prabhu%NULL%1,             Raghu%Krishnamurthy%NULL%1,             Alex G.%Richter%NULL%1,             Deepthi%Jyothish%NULL%1,             Hari Krishnan%Kanthimathinathan%NULL%2,             Steven B.%Welch%NULL%1,             Scott%Hackett%NULL%1,             Eslam%Al-Abadi%NULL%1,             Barnaby R.%Scholefield%NULL%1,             Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
+ This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
+Results
+20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
+ The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
+ All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
+ At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
+ SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
+ One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
+ All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
+ All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
+ All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
+Conclusions
+Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
+ Early recognition of this disease is needed and referral to an expert center is recommended.
+ A delayed and inappropriate host immunological response is suspected.
+ While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
+</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,             Julie%Starck%NULL%1,             Michael%Levy%NULL%1,             Clémence%Marais%NULL%1,             Judith%Chareyre%NULL%1,             Diala%Khraiche%NULL%1,             Marianne%Leruez-Ville%NULL%1,             Pierre%Quartier%NULL%1,             Pierre Louis%Léger%NULL%1,             Guillaume%Geslain%NULL%1,             Nada%Semaan%NULL%1,             Florence%Moulin%NULL%1,             Matthieu%Bendavid%NULL%1,             Sandrine%Jean%NULL%1,             Géraldine%Poncelet%NULL%1,             Sylvain%Renolleau%NULL%1,             Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,             Esra%Akkoyun%NULL%1,             Eudys%Briceno‐Brito%NULL%1,             Shanna%Kowalsky%NULL%0,             James%Reed%NULL%1,             Roberto%Posada%NULL%1,             Emilia Mia%Sordillo%NULL%1,             Michael%Tosi%NULL%1,             Rebecca%Trachtman%NULL%0,             Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,             Claire%Evans%NULL%1,             Hari Krishnan%Kanthimathinathan%NULL%0,             Jon%Lillie%NULL%1,             Joseph%Brierley%NULL%1,             Gareth%Waters%NULL%1,             Mae%Johnson%NULL%1,             Benedict%Griffiths%NULL%1,             Pascale%du Pré%NULL%1,             Zoha%Mohammad%NULL%1,             Akash%Deep%NULL%1,             Stephen%Playfor%NULL%1,             Davinder%Singh%NULL%1,             David%Inwald%NULL%1,             Michelle%Jardine%NULL%1,             Oliver%Ross%NULL%1,             Nayan%Shetty%NULL%1,             Mark%Worrall%NULL%1,             Ruchi%Sinha%NULL%1,             Ashwani%Koul%NULL%1,             Elizabeth%Whittaker%NULL%1,             Harish%Vyas%NULL%1,             Barnaby R%Scholefield%NULL%1,             Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,             Marie%Pouletty%NULL%1,             Patricia%Mariani%NULL%1,             Constance%Beyler%NULL%0,             Audrey%Blachier%NULL%1,             Stephane%Bonacorsi%NULL%1,             Kostas%Danis%NULL%1,             Maryline%Chomton%NULL%1,             Laure%Maurice%NULL%1,             Fleur%Le Bourgeois%NULL%1,             Marion%Caseris%NULL%0,             Jean%Gaschignard%NULL%1,             Julie%Poline%NULL%1,             Robert%Cohen%NULL%1,             Luigi%Titomanlio%NULL%1,             Albert%Faye%NULL%0,             Isabelle%Melki%NULL%0,             Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,             Erica B.%Rose%NULL%1,             Steven M.%Horwitz%NULL%1,             Jennifer P.%Collins%NULL%1,             Margaret M.%Newhams%NULL%1,             Mary Beth F.%Son%NULL%1,             Jane W.%Newburger%NULL%1,             Lawrence C.%Kleinman%NULL%1,             Sabrina M.%Heidemann%NULL%1,             Amarilis A.%Martin%NULL%2,             Amarilis A.%Martin%NULL%0,             Aalok R.%Singh%NULL%1,             Simon%Li%NULL%1,             Keiko M.%Tarquinio%NULL%1,             Preeti%Jaggi%NULL%1,             Matthew E.%Oster%NULL%1,             Sheemon P.%Zackai%NULL%1,             Jennifer%Gillen%NULL%1,             Adam J.%Ratner%NULL%1,             Rowan F.%Walsh%NULL%1,             Julie C.%Fitzgerald%NULL%1,             Michael A.%Keenaghan%NULL%1,             Hussam%Alharash%NULL%1,             Sule%Doymaz%NULL%1,             Katharine N.%Clouser%NULL%1,             John S.%Giuliano%NULL%1,             Anjali%Gupta%NULL%1,             Robert M.%Parker%NULL%1,             Aline B.%Maddux%NULL%1,             Vinod%Havalad%NULL%1,             Stacy%Ramsingh%NULL%1,             Hulya%Bukulmez%NULL%1,             Tamara T.%Bradford%NULL%1,             Lincoln S.%Smith%NULL%1,             Mark W.%Tenforde%NULL%1,             Christopher L.%Carroll%NULL%1,             Becky J.%Riggs%NULL%1,             Shira J.%Gertz%NULL%1,             Ariel%Daube%NULL%1,             Amanda%Lansell%NULL%2,             Amanda%Lansell%NULL%0,             Alvaro%Coronado Munoz%NULL%1,             Charlotte V.%Hobbs%NULL%2,             Charlotte V.%Hobbs%NULL%0,             Kimberly L.%Marohn%NULL%1,             Natasha B.%Halasa%NULL%1,             Manish M.%Patel%NULL%1,             Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,              Angelo%Mazza%NULL%1,              Annalisa%Gervasoni%NULL%1,              Laura%Martelli%NULL%1,              Maurizio%Ruggeri%NULL%1,              Matteo%Ciuffreda%NULL%1,              Ezio%Bonanomi%NULL%1,              Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,      Philip%Zachariah%xref no email%1,      Mark%Gorelik%xref no email%1,      Alexis%Boneparth%xref no email%1,      Steven G.%Kernie%xref no email%1,      Jordan S.%Orange%xref no email%1,      Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,              Scott I.%Aydin%NULL%1,              Kim R.%Derespina%NULL%0,              Prerna B.%Bansal%NULL%1,              Shanna%Kowalsky%NULL%2,              Rebecca%Trachtman%NULL%2,              Jennifer K.%Gillen%NULL%1,              Michelle M.%Perez%NULL%1,              Sara H.%Soshnick%NULL%1,              Edward E.%Conway%NULL%1,              Asher%Bercow%NULL%1,              Howard S.%Seiden%NULL%1,              Robert H.%Pass%NULL%1,              Henry M.%Ushay%NULL%0,              George%Ofori-Amanfo%NULL%1,              Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,              Amanda%Cantor%NULL%1,              Philip%Zachariah%NULL%1,              Danielle%Ahn%NULL%1,              Mercedes%Martinez%NULL%1,              Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,              John C.%Smulian%NULL%1,              John A.%Lednicky%NULL%1,              Tony S.%Wen%NULL%1,              Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,              Emilia H.%Koumans%NULL%1,              Eric J.%Chow%NULL%1,              Elizabeth M.%Rosenthal%NULL%2,              Elizabeth M.%Rosenthal%NULL%0,              Alison%Muse%NULL%2,              Alison%Muse%NULL%0,              Jemma%Rowlands%NULL%1,              Meredith A.%Barranco%NULL%1,              Angela M.%Maxted%NULL%1,              Eli S.%Rosenberg%NULL%1,              Delia%Easton%NULL%1,              Tomoko%Udo%NULL%1,              Jessica%Kumar%NULL%1,              Wendy%Pulver%NULL%1,              Lou%Smith%NULL%1,              Brad%Hutton%NULL%1,              Debra%Blog%NULL%1,              Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,              Heba%Elbaaly%NULL%2,              Heba%Elbaaly%NULL%0,              Catriona E. L.%Reid%NULL%2,              Catriona E. L.%Reid%NULL%0,              Rui M. F.%Santos%NULL%2,              Rui M. F.%Santos%NULL%0,              Vinay%Shivamurthy%NULL%2,              Vinay%Shivamurthy%NULL%0,              James%Wong%NULL%1,              K. Haran%Jogeesvaran%NULL%2,              K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,              Clément%Poirault%NULL%1,              Alice%Corsia%NULL%1,              Fanny%Bajolle%NULL%2,              Jacques%Fourgeaud%NULL%1,              François%Angoulvant%NULL%1,              Agathe%Debray%NULL%1,              Romain%Basmaci%NULL%2,              Elodie%Salvador%NULL%1,              Sandra%Biscardi%NULL%1,              Pierre%Frange%NULL%1,              Martin%Chalumeau%NULL%1,              Jean-Laurent%Casanova%NULL%2,              Jean-Laurent%Casanova%NULL%0,              Jérémie F%Cohen%NULL%1,              Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,              Charlotte%Borocco%NULL%1,              Naim%Ouldali%NULL%1,              Marion%Caseris%NULL%2,              Romain%Basmaci%NULL%0,              Noémie%Lachaume%NULL%1,              Philippe%Bensaid%NULL%1,              Samia%Pichard%NULL%1,              Hanane%Kouider%NULL%1,              Guillaume%Morelle%NULL%1,              Irina%Craiu%NULL%1,              Corinne%Pondarre%NULL%1,              Anna%Deho%NULL%1,              Arielle%Maroni%NULL%1,              Mehdi%Oualha%NULL%2,              Zahir%Amoura%NULL%1,              Julien%Haroche%NULL%1,              Juliette%Chommeloux%NULL%1,              Fanny%Bajolle%NULL%0,              Constance%Beyler%NULL%2,              Stéphane%Bonacorsi%NULL%1,              Guislaine%Carcelain%NULL%1,              Isabelle%Koné-Paut%NULL%1,              Brigitte%Bader-Meunier%NULL%2,              Brigitte%Bader-Meunier%NULL%0,              Albert%Faye%NULL%3,              Albert%Faye%NULL%0,              Ulrich%Meinzer%NULL%2,              Caroline%Galeotti%NULL%1,              Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,      Mathilde%M\u00e9ot%xref no email%1,      Fanny%Bajolle%xref no email%1,      Diala%Khraiche%xref no email%1,      Antoine%Legendre%xref no email%1,      Samya%Abakka%xref no email%1,      Johanne%Auriau%xref no email%1,      Marion%Grimaud%xref no email%1,      Mehdi%Oualha%xref no email%1,      Maurice%Beghetti%xref no email%1,      Julie%Wacker%xref no email%1,      Caroline%Ovaert%xref no email%1,      Sebastien%Hascoet%xref no email%1,      Ma\u00eblle%Selegny%xref no email%1,      Sophie%Malekzadeh-Milani%xref no email%1,      Alice%Maltret%xref no email%1,      Gilles%Bosser%xref no email%1,      Nathan%Giroux%xref no email%1,      Laurent%Bonnemains%xref no email%1,      Jeanne%Bordet%xref no email%1,      Sylvie%Di Filippo%xref no email%1,      Pierre%Mauran%xref no email%1,      Sylvie%Falcon-Eicher%xref no email%1,      Jean-Beno\u00eet%Thambo%xref no email%1,      Bruno%Lefort%xref no email%1,      Pamela%Moceri%xref no email%1,      Lucile%Houyel%xref no email%1,      Sylvain%Renolleau%xref no email%1,      Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,              Oscar%Nolan%NULL%1,              Chui Yi%Lai%NULL%1,              Nanda%Prabhu%NULL%1,              Raghu%Krishnamurthy%NULL%1,              Alex G.%Richter%NULL%1,              Deepthi%Jyothish%NULL%1,              Hari Krishnan%Kanthimathinathan%NULL%2,              Steven B.%Welch%NULL%1,              Scott%Hackett%NULL%1,              Eslam%Al-Abadi%NULL%1,              Barnaby R.%Scholefield%NULL%1,              Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,              Julie%Starck%NULL%1,              Michael%Levy%NULL%1,              Clémence%Marais%NULL%1,              Judith%Chareyre%NULL%1,              Diala%Khraiche%NULL%1,              Marianne%Leruez-Ville%NULL%1,              Pierre%Quartier%NULL%1,              Pierre Louis%Léger%NULL%1,              Guillaume%Geslain%NULL%1,              Nada%Semaan%NULL%1,              Florence%Moulin%NULL%1,              Matthieu%Bendavid%NULL%1,              Sandrine%Jean%NULL%1,              Géraldine%Poncelet%NULL%1,              Sylvain%Renolleau%NULL%1,              Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,              Esra%Akkoyun%NULL%1,              Eudys%Briceno‐Brito%NULL%1,              Shanna%Kowalsky%NULL%0,              James%Reed%NULL%1,              Roberto%Posada%NULL%1,              Emilia Mia%Sordillo%NULL%1,              Michael%Tosi%NULL%1,              Rebecca%Trachtman%NULL%0,              Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,              Claire%Evans%NULL%1,              Hari Krishnan%Kanthimathinathan%NULL%0,              Jon%Lillie%NULL%1,              Joseph%Brierley%NULL%1,              Gareth%Waters%NULL%1,              Mae%Johnson%NULL%1,              Benedict%Griffiths%NULL%1,              Pascale%du Pré%NULL%1,              Zoha%Mohammad%NULL%1,              Akash%Deep%NULL%1,              Stephen%Playfor%NULL%1,              Davinder%Singh%NULL%1,              David%Inwald%NULL%1,              Michelle%Jardine%NULL%1,              Oliver%Ross%NULL%1,              Nayan%Shetty%NULL%1,              Mark%Worrall%NULL%1,              Ruchi%Sinha%NULL%1,              Ashwani%Koul%NULL%1,              Elizabeth%Whittaker%NULL%1,              Harish%Vyas%NULL%1,              Barnaby R%Scholefield%NULL%1,              Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,              Marie%Pouletty%NULL%1,              Patricia%Mariani%NULL%1,              Constance%Beyler%NULL%0,              Audrey%Blachier%NULL%1,              Stephane%Bonacorsi%NULL%1,              Kostas%Danis%NULL%1,              Maryline%Chomton%NULL%1,              Laure%Maurice%NULL%1,              Fleur%Le Bourgeois%NULL%1,              Marion%Caseris%NULL%0,              Jean%Gaschignard%NULL%1,              Julie%Poline%NULL%1,              Robert%Cohen%NULL%1,              Luigi%Titomanlio%NULL%1,              Albert%Faye%NULL%0,              Isabelle%Melki%NULL%0,              Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,              Erica B.%Rose%NULL%1,              Steven M.%Horwitz%NULL%1,              Jennifer P.%Collins%NULL%1,              Margaret M.%Newhams%NULL%1,              Mary Beth F.%Son%NULL%1,              Jane W.%Newburger%NULL%1,              Lawrence C.%Kleinman%NULL%1,              Sabrina M.%Heidemann%NULL%1,              Amarilis A.%Martin%NULL%2,              Amarilis A.%Martin%NULL%0,              Aalok R.%Singh%NULL%1,              Simon%Li%NULL%1,              Keiko M.%Tarquinio%NULL%1,              Preeti%Jaggi%NULL%1,              Matthew E.%Oster%NULL%1,              Sheemon P.%Zackai%NULL%1,              Jennifer%Gillen%NULL%1,              Adam J.%Ratner%NULL%1,              Rowan F.%Walsh%NULL%1,              Julie C.%Fitzgerald%NULL%1,              Michael A.%Keenaghan%NULL%1,              Hussam%Alharash%NULL%1,              Sule%Doymaz%NULL%1,              Katharine N.%Clouser%NULL%1,              John S.%Giuliano%NULL%1,              Anjali%Gupta%NULL%1,              Robert M.%Parker%NULL%1,              Aline B.%Maddux%NULL%1,              Vinod%Havalad%NULL%1,              Stacy%Ramsingh%NULL%1,              Hulya%Bukulmez%NULL%1,              Tamara T.%Bradford%NULL%1,              Lincoln S.%Smith%NULL%1,              Mark W.%Tenforde%NULL%1,              Christopher L.%Carroll%NULL%1,              Becky J.%Riggs%NULL%1,              Shira J.%Gertz%NULL%1,              Ariel%Daube%NULL%1,              Amanda%Lansell%NULL%2,              Amanda%Lansell%NULL%0,              Alvaro%Coronado Munoz%NULL%1,              Charlotte V.%Hobbs%NULL%2,              Charlotte V.%Hobbs%NULL%0,              Kimberly L.%Marohn%NULL%1,              Natasha B.%Halasa%NULL%1,              Manish M.%Patel%NULL%1,              Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1426,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1484,7 +1618,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1513,7 +1647,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1542,7 +1676,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1571,7 +1705,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1600,7 +1734,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1629,7 +1763,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1658,7 +1792,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1687,7 +1821,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1713,10 +1847,10 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1742,10 +1876,10 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1774,7 +1908,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1803,7 +1937,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1832,7 +1966,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1861,7 +1995,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="323">
   <si>
     <t>Doi</t>
   </si>
@@ -1200,6 +1200,54 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,              Erica B.%Rose%NULL%1,              Steven M.%Horwitz%NULL%1,              Jennifer P.%Collins%NULL%1,              Margaret M.%Newhams%NULL%1,              Mary Beth F.%Son%NULL%1,              Jane W.%Newburger%NULL%1,              Lawrence C.%Kleinman%NULL%1,              Sabrina M.%Heidemann%NULL%1,              Amarilis A.%Martin%NULL%2,              Amarilis A.%Martin%NULL%0,              Aalok R.%Singh%NULL%1,              Simon%Li%NULL%1,              Keiko M.%Tarquinio%NULL%1,              Preeti%Jaggi%NULL%1,              Matthew E.%Oster%NULL%1,              Sheemon P.%Zackai%NULL%1,              Jennifer%Gillen%NULL%1,              Adam J.%Ratner%NULL%1,              Rowan F.%Walsh%NULL%1,              Julie C.%Fitzgerald%NULL%1,              Michael A.%Keenaghan%NULL%1,              Hussam%Alharash%NULL%1,              Sule%Doymaz%NULL%1,              Katharine N.%Clouser%NULL%1,              John S.%Giuliano%NULL%1,              Anjali%Gupta%NULL%1,              Robert M.%Parker%NULL%1,              Aline B.%Maddux%NULL%1,              Vinod%Havalad%NULL%1,              Stacy%Ramsingh%NULL%1,              Hulya%Bukulmez%NULL%1,              Tamara T.%Bradford%NULL%1,              Lincoln S.%Smith%NULL%1,              Mark W.%Tenforde%NULL%1,              Christopher L.%Carroll%NULL%1,              Becky J.%Riggs%NULL%1,              Shira J.%Gertz%NULL%1,              Ariel%Daube%NULL%1,              Amanda%Lansell%NULL%2,              Amanda%Lansell%NULL%0,              Alvaro%Coronado Munoz%NULL%1,              Charlotte V.%Hobbs%NULL%2,              Charlotte V.%Hobbs%NULL%0,              Kimberly L.%Marohn%NULL%1,              Natasha B.%Halasa%NULL%1,              Manish M.%Patel%NULL%1,              Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,               Angelo%Mazza%NULL%1,               Annalisa%Gervasoni%NULL%1,               Laura%Martelli%NULL%1,               Maurizio%Ruggeri%NULL%1,               Matteo%Ciuffreda%NULL%1,               Ezio%Bonanomi%NULL%1,               Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,       Philip%Zachariah%xref no email%1,       Mark%Gorelik%xref no email%1,       Alexis%Boneparth%xref no email%1,       Steven G.%Kernie%xref no email%1,       Jordan S.%Orange%xref no email%1,       Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,               Scott I.%Aydin%NULL%1,               Kim R.%Derespina%NULL%0,               Prerna B.%Bansal%NULL%1,               Shanna%Kowalsky%NULL%2,               Rebecca%Trachtman%NULL%2,               Jennifer K.%Gillen%NULL%1,               Michelle M.%Perez%NULL%1,               Sara H.%Soshnick%NULL%1,               Edward E.%Conway%NULL%1,               Asher%Bercow%NULL%1,               Howard S.%Seiden%NULL%1,               Robert H.%Pass%NULL%1,               Henry M.%Ushay%NULL%0,               George%Ofori-Amanfo%NULL%1,               Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,               Amanda%Cantor%NULL%1,               Philip%Zachariah%NULL%1,               Danielle%Ahn%NULL%1,               Mercedes%Martinez%NULL%1,               Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,               John C.%Smulian%NULL%1,               John A.%Lednicky%NULL%1,               Tony S.%Wen%NULL%1,               Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,               Emilia H.%Koumans%NULL%1,               Eric J.%Chow%NULL%1,               Elizabeth M.%Rosenthal%NULL%2,               Elizabeth M.%Rosenthal%NULL%0,               Alison%Muse%NULL%2,               Alison%Muse%NULL%0,               Jemma%Rowlands%NULL%1,               Meredith A.%Barranco%NULL%1,               Angela M.%Maxted%NULL%1,               Eli S.%Rosenberg%NULL%1,               Delia%Easton%NULL%1,               Tomoko%Udo%NULL%1,               Jessica%Kumar%NULL%1,               Wendy%Pulver%NULL%1,               Lou%Smith%NULL%1,               Brad%Hutton%NULL%1,               Debra%Blog%NULL%1,               Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,               Heba%Elbaaly%NULL%2,               Heba%Elbaaly%NULL%0,               Catriona E. L.%Reid%NULL%2,               Catriona E. L.%Reid%NULL%0,               Rui M. F.%Santos%NULL%2,               Rui M. F.%Santos%NULL%0,               Vinay%Shivamurthy%NULL%2,               Vinay%Shivamurthy%NULL%0,               James%Wong%NULL%1,               K. Haran%Jogeesvaran%NULL%2,               K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,               Clément%Poirault%NULL%1,               Alice%Corsia%NULL%1,               Fanny%Bajolle%NULL%2,               Jacques%Fourgeaud%NULL%1,               François%Angoulvant%NULL%1,               Agathe%Debray%NULL%1,               Romain%Basmaci%NULL%2,               Elodie%Salvador%NULL%1,               Sandra%Biscardi%NULL%1,               Pierre%Frange%NULL%1,               Martin%Chalumeau%NULL%1,               Jean-Laurent%Casanova%NULL%2,               Jean-Laurent%Casanova%NULL%0,               Jérémie F%Cohen%NULL%1,               Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,               Charlotte%Borocco%NULL%1,               Naim%Ouldali%NULL%1,               Marion%Caseris%NULL%2,               Romain%Basmaci%NULL%0,               Noémie%Lachaume%NULL%1,               Philippe%Bensaid%NULL%1,               Samia%Pichard%NULL%1,               Hanane%Kouider%NULL%1,               Guillaume%Morelle%NULL%1,               Irina%Craiu%NULL%1,               Corinne%Pondarre%NULL%1,               Anna%Deho%NULL%1,               Arielle%Maroni%NULL%1,               Mehdi%Oualha%NULL%2,               Zahir%Amoura%NULL%1,               Julien%Haroche%NULL%1,               Juliette%Chommeloux%NULL%1,               Fanny%Bajolle%NULL%0,               Constance%Beyler%NULL%2,               Stéphane%Bonacorsi%NULL%1,               Guislaine%Carcelain%NULL%1,               Isabelle%Koné-Paut%NULL%1,               Brigitte%Bader-Meunier%NULL%2,               Brigitte%Bader-Meunier%NULL%0,               Albert%Faye%NULL%3,               Albert%Faye%NULL%0,               Ulrich%Meinzer%NULL%2,               Caroline%Galeotti%NULL%1,               Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,       Mathilde%M\u00e9ot%xref no email%1,       Fanny%Bajolle%xref no email%1,       Diala%Khraiche%xref no email%1,       Antoine%Legendre%xref no email%1,       Samya%Abakka%xref no email%1,       Johanne%Auriau%xref no email%1,       Marion%Grimaud%xref no email%1,       Mehdi%Oualha%xref no email%1,       Maurice%Beghetti%xref no email%1,       Julie%Wacker%xref no email%1,       Caroline%Ovaert%xref no email%1,       Sebastien%Hascoet%xref no email%1,       Ma\u00eblle%Selegny%xref no email%1,       Sophie%Malekzadeh-Milani%xref no email%1,       Alice%Maltret%xref no email%1,       Gilles%Bosser%xref no email%1,       Nathan%Giroux%xref no email%1,       Laurent%Bonnemains%xref no email%1,       Jeanne%Bordet%xref no email%1,       Sylvie%Di Filippo%xref no email%1,       Pierre%Mauran%xref no email%1,       Sylvie%Falcon-Eicher%xref no email%1,       Jean-Beno\u00eet%Thambo%xref no email%1,       Bruno%Lefort%xref no email%1,       Pamela%Moceri%xref no email%1,       Lucile%Houyel%xref no email%1,       Sylvain%Renolleau%xref no email%1,       Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,               Oscar%Nolan%NULL%1,               Chui Yi%Lai%NULL%1,               Nanda%Prabhu%NULL%1,               Raghu%Krishnamurthy%NULL%1,               Alex G.%Richter%NULL%1,               Deepthi%Jyothish%NULL%1,               Hari Krishnan%Kanthimathinathan%NULL%2,               Steven B.%Welch%NULL%1,               Scott%Hackett%NULL%1,               Eslam%Al-Abadi%NULL%1,               Barnaby R.%Scholefield%NULL%1,               Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,               Julie%Starck%NULL%1,               Michael%Levy%NULL%1,               Clémence%Marais%NULL%1,               Judith%Chareyre%NULL%1,               Diala%Khraiche%NULL%1,               Marianne%Leruez-Ville%NULL%1,               Pierre%Quartier%NULL%1,               Pierre Louis%Léger%NULL%1,               Guillaume%Geslain%NULL%1,               Nada%Semaan%NULL%1,               Florence%Moulin%NULL%1,               Matthieu%Bendavid%NULL%1,               Sandrine%Jean%NULL%1,               Géraldine%Poncelet%NULL%1,               Sylvain%Renolleau%NULL%1,               Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,               Esra%Akkoyun%NULL%1,               Eudys%Briceno‐Brito%NULL%1,               Shanna%Kowalsky%NULL%0,               James%Reed%NULL%1,               Roberto%Posada%NULL%1,               Emilia Mia%Sordillo%NULL%1,               Michael%Tosi%NULL%1,               Rebecca%Trachtman%NULL%0,               Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,               Claire%Evans%NULL%1,               Hari Krishnan%Kanthimathinathan%NULL%0,               Jon%Lillie%NULL%1,               Joseph%Brierley%NULL%1,               Gareth%Waters%NULL%1,               Mae%Johnson%NULL%1,               Benedict%Griffiths%NULL%1,               Pascale%du Pré%NULL%1,               Zoha%Mohammad%NULL%1,               Akash%Deep%NULL%1,               Stephen%Playfor%NULL%1,               Davinder%Singh%NULL%1,               David%Inwald%NULL%1,               Michelle%Jardine%NULL%1,               Oliver%Ross%NULL%1,               Nayan%Shetty%NULL%1,               Mark%Worrall%NULL%1,               Ruchi%Sinha%NULL%1,               Ashwani%Koul%NULL%1,               Elizabeth%Whittaker%NULL%1,               Harish%Vyas%NULL%1,               Barnaby R%Scholefield%NULL%1,               Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,               Marie%Pouletty%NULL%1,               Patricia%Mariani%NULL%1,               Constance%Beyler%NULL%0,               Audrey%Blachier%NULL%1,               Stephane%Bonacorsi%NULL%1,               Kostas%Danis%NULL%1,               Maryline%Chomton%NULL%1,               Laure%Maurice%NULL%1,               Fleur%Le Bourgeois%NULL%1,               Marion%Caseris%NULL%0,               Jean%Gaschignard%NULL%1,               Julie%Poline%NULL%1,               Robert%Cohen%NULL%1,               Luigi%Titomanlio%NULL%1,               Albert%Faye%NULL%0,               Isabelle%Melki%NULL%0,               Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,               Erica B.%Rose%NULL%1,               Steven M.%Horwitz%NULL%1,               Jennifer P.%Collins%NULL%1,               Margaret M.%Newhams%NULL%1,               Mary Beth F.%Son%NULL%1,               Jane W.%Newburger%NULL%1,               Lawrence C.%Kleinman%NULL%1,               Sabrina M.%Heidemann%NULL%1,               Amarilis A.%Martin%NULL%2,               Amarilis A.%Martin%NULL%0,               Aalok R.%Singh%NULL%1,               Simon%Li%NULL%1,               Keiko M.%Tarquinio%NULL%1,               Preeti%Jaggi%NULL%1,               Matthew E.%Oster%NULL%1,               Sheemon P.%Zackai%NULL%1,               Jennifer%Gillen%NULL%1,               Adam J.%Ratner%NULL%1,               Rowan F.%Walsh%NULL%1,               Julie C.%Fitzgerald%NULL%1,               Michael A.%Keenaghan%NULL%1,               Hussam%Alharash%NULL%1,               Sule%Doymaz%NULL%1,               Katharine N.%Clouser%NULL%1,               John S.%Giuliano%NULL%1,               Anjali%Gupta%NULL%1,               Robert M.%Parker%NULL%1,               Aline B.%Maddux%NULL%1,               Vinod%Havalad%NULL%1,               Stacy%Ramsingh%NULL%1,               Hulya%Bukulmez%NULL%1,               Tamara T.%Bradford%NULL%1,               Lincoln S.%Smith%NULL%1,               Mark W.%Tenforde%NULL%1,               Christopher L.%Carroll%NULL%1,               Becky J.%Riggs%NULL%1,               Shira J.%Gertz%NULL%1,               Ariel%Daube%NULL%1,               Amanda%Lansell%NULL%2,               Amanda%Lansell%NULL%0,               Alvaro%Coronado Munoz%NULL%1,               Charlotte V.%Hobbs%NULL%2,               Charlotte V.%Hobbs%NULL%0,               Kimberly L.%Marohn%NULL%1,               Natasha B.%Halasa%NULL%1,               Manish M.%Patel%NULL%1,               Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1579,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1560,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1618,7 +1666,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1647,7 +1695,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1676,7 +1724,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1705,7 +1753,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1734,7 +1782,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1763,7 +1811,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1792,7 +1840,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1821,7 +1869,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1850,7 +1898,7 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1879,7 +1927,7 @@
         <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1908,7 +1956,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1937,7 +1985,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -1966,7 +2014,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1995,7 +2043,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="339">
   <si>
     <t>Doi</t>
   </si>
@@ -1248,6 +1248,54 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,               Erica B.%Rose%NULL%1,               Steven M.%Horwitz%NULL%1,               Jennifer P.%Collins%NULL%1,               Margaret M.%Newhams%NULL%1,               Mary Beth F.%Son%NULL%1,               Jane W.%Newburger%NULL%1,               Lawrence C.%Kleinman%NULL%1,               Sabrina M.%Heidemann%NULL%1,               Amarilis A.%Martin%NULL%2,               Amarilis A.%Martin%NULL%0,               Aalok R.%Singh%NULL%1,               Simon%Li%NULL%1,               Keiko M.%Tarquinio%NULL%1,               Preeti%Jaggi%NULL%1,               Matthew E.%Oster%NULL%1,               Sheemon P.%Zackai%NULL%1,               Jennifer%Gillen%NULL%1,               Adam J.%Ratner%NULL%1,               Rowan F.%Walsh%NULL%1,               Julie C.%Fitzgerald%NULL%1,               Michael A.%Keenaghan%NULL%1,               Hussam%Alharash%NULL%1,               Sule%Doymaz%NULL%1,               Katharine N.%Clouser%NULL%1,               John S.%Giuliano%NULL%1,               Anjali%Gupta%NULL%1,               Robert M.%Parker%NULL%1,               Aline B.%Maddux%NULL%1,               Vinod%Havalad%NULL%1,               Stacy%Ramsingh%NULL%1,               Hulya%Bukulmez%NULL%1,               Tamara T.%Bradford%NULL%1,               Lincoln S.%Smith%NULL%1,               Mark W.%Tenforde%NULL%1,               Christopher L.%Carroll%NULL%1,               Becky J.%Riggs%NULL%1,               Shira J.%Gertz%NULL%1,               Ariel%Daube%NULL%1,               Amanda%Lansell%NULL%2,               Amanda%Lansell%NULL%0,               Alvaro%Coronado Munoz%NULL%1,               Charlotte V.%Hobbs%NULL%2,               Charlotte V.%Hobbs%NULL%0,               Kimberly L.%Marohn%NULL%1,               Natasha B.%Halasa%NULL%1,               Manish M.%Patel%NULL%1,               Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                Angelo%Mazza%NULL%1,                Annalisa%Gervasoni%NULL%1,                Laura%Martelli%NULL%1,                Maurizio%Ruggeri%NULL%1,                Matteo%Ciuffreda%NULL%1,                Ezio%Bonanomi%NULL%1,                Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,        Philip%Zachariah%xref no email%1,        Mark%Gorelik%xref no email%1,        Alexis%Boneparth%xref no email%1,        Steven G.%Kernie%xref no email%1,        Jordan S.%Orange%xref no email%1,        Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                Scott I.%Aydin%NULL%1,                Kim R.%Derespina%NULL%0,                Prerna B.%Bansal%NULL%1,                Shanna%Kowalsky%NULL%2,                Rebecca%Trachtman%NULL%2,                Jennifer K.%Gillen%NULL%1,                Michelle M.%Perez%NULL%1,                Sara H.%Soshnick%NULL%1,                Edward E.%Conway%NULL%1,                Asher%Bercow%NULL%1,                Howard S.%Seiden%NULL%1,                Robert H.%Pass%NULL%1,                Henry M.%Ushay%NULL%0,                George%Ofori-Amanfo%NULL%1,                Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                Amanda%Cantor%NULL%1,                Philip%Zachariah%NULL%1,                Danielle%Ahn%NULL%1,                Mercedes%Martinez%NULL%1,                Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                John C.%Smulian%NULL%1,                John A.%Lednicky%NULL%1,                Tony S.%Wen%NULL%1,                Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                Emilia H.%Koumans%NULL%1,                Eric J.%Chow%NULL%1,                Elizabeth M.%Rosenthal%NULL%2,                Elizabeth M.%Rosenthal%NULL%0,                Alison%Muse%NULL%2,                Alison%Muse%NULL%0,                Jemma%Rowlands%NULL%1,                Meredith A.%Barranco%NULL%1,                Angela M.%Maxted%NULL%1,                Eli S.%Rosenberg%NULL%1,                Delia%Easton%NULL%1,                Tomoko%Udo%NULL%1,                Jessica%Kumar%NULL%1,                Wendy%Pulver%NULL%1,                Lou%Smith%NULL%1,                Brad%Hutton%NULL%1,                Debra%Blog%NULL%1,                Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                Heba%Elbaaly%NULL%2,                Heba%Elbaaly%NULL%0,                Catriona E. L.%Reid%NULL%2,                Catriona E. L.%Reid%NULL%0,                Rui M. F.%Santos%NULL%2,                Rui M. F.%Santos%NULL%0,                Vinay%Shivamurthy%NULL%2,                Vinay%Shivamurthy%NULL%0,                James%Wong%NULL%1,                K. Haran%Jogeesvaran%NULL%2,                K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                Clément%Poirault%NULL%1,                Alice%Corsia%NULL%1,                Fanny%Bajolle%NULL%2,                Jacques%Fourgeaud%NULL%1,                François%Angoulvant%NULL%1,                Agathe%Debray%NULL%1,                Romain%Basmaci%NULL%2,                Elodie%Salvador%NULL%1,                Sandra%Biscardi%NULL%1,                Pierre%Frange%NULL%1,                Martin%Chalumeau%NULL%1,                Jean-Laurent%Casanova%NULL%2,                Jean-Laurent%Casanova%NULL%0,                Jérémie F%Cohen%NULL%1,                Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                Charlotte%Borocco%NULL%1,                Naim%Ouldali%NULL%1,                Marion%Caseris%NULL%2,                Romain%Basmaci%NULL%0,                Noémie%Lachaume%NULL%1,                Philippe%Bensaid%NULL%1,                Samia%Pichard%NULL%1,                Hanane%Kouider%NULL%1,                Guillaume%Morelle%NULL%1,                Irina%Craiu%NULL%1,                Corinne%Pondarre%NULL%1,                Anna%Deho%NULL%1,                Arielle%Maroni%NULL%1,                Mehdi%Oualha%NULL%2,                Zahir%Amoura%NULL%1,                Julien%Haroche%NULL%1,                Juliette%Chommeloux%NULL%1,                Fanny%Bajolle%NULL%0,                Constance%Beyler%NULL%2,                Stéphane%Bonacorsi%NULL%1,                Guislaine%Carcelain%NULL%1,                Isabelle%Koné-Paut%NULL%1,                Brigitte%Bader-Meunier%NULL%2,                Brigitte%Bader-Meunier%NULL%0,                Albert%Faye%NULL%3,                Albert%Faye%NULL%0,                Ulrich%Meinzer%NULL%2,                Caroline%Galeotti%NULL%1,                Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,        Mathilde%M\u00e9ot%xref no email%1,        Fanny%Bajolle%xref no email%1,        Diala%Khraiche%xref no email%1,        Antoine%Legendre%xref no email%1,        Samya%Abakka%xref no email%1,        Johanne%Auriau%xref no email%1,        Marion%Grimaud%xref no email%1,        Mehdi%Oualha%xref no email%1,        Maurice%Beghetti%xref no email%1,        Julie%Wacker%xref no email%1,        Caroline%Ovaert%xref no email%1,        Sebastien%Hascoet%xref no email%1,        Ma\u00eblle%Selegny%xref no email%1,        Sophie%Malekzadeh-Milani%xref no email%1,        Alice%Maltret%xref no email%1,        Gilles%Bosser%xref no email%1,        Nathan%Giroux%xref no email%1,        Laurent%Bonnemains%xref no email%1,        Jeanne%Bordet%xref no email%1,        Sylvie%Di Filippo%xref no email%1,        Pierre%Mauran%xref no email%1,        Sylvie%Falcon-Eicher%xref no email%1,        Jean-Beno\u00eet%Thambo%xref no email%1,        Bruno%Lefort%xref no email%1,        Pamela%Moceri%xref no email%1,        Lucile%Houyel%xref no email%1,        Sylvain%Renolleau%xref no email%1,        Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                Oscar%Nolan%NULL%1,                Chui Yi%Lai%NULL%1,                Nanda%Prabhu%NULL%1,                Raghu%Krishnamurthy%NULL%1,                Alex G.%Richter%NULL%1,                Deepthi%Jyothish%NULL%1,                Hari Krishnan%Kanthimathinathan%NULL%2,                Steven B.%Welch%NULL%1,                Scott%Hackett%NULL%1,                Eslam%Al-Abadi%NULL%1,                Barnaby R.%Scholefield%NULL%1,                Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                Julie%Starck%NULL%1,                Michael%Levy%NULL%1,                Clémence%Marais%NULL%1,                Judith%Chareyre%NULL%1,                Diala%Khraiche%NULL%1,                Marianne%Leruez-Ville%NULL%1,                Pierre%Quartier%NULL%1,                Pierre Louis%Léger%NULL%1,                Guillaume%Geslain%NULL%1,                Nada%Semaan%NULL%1,                Florence%Moulin%NULL%1,                Matthieu%Bendavid%NULL%1,                Sandrine%Jean%NULL%1,                Géraldine%Poncelet%NULL%1,                Sylvain%Renolleau%NULL%1,                Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                Esra%Akkoyun%NULL%1,                Eudys%Briceno‐Brito%NULL%1,                Shanna%Kowalsky%NULL%0,                James%Reed%NULL%1,                Roberto%Posada%NULL%1,                Emilia Mia%Sordillo%NULL%1,                Michael%Tosi%NULL%1,                Rebecca%Trachtman%NULL%0,                Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                Claire%Evans%NULL%1,                Hari Krishnan%Kanthimathinathan%NULL%0,                Jon%Lillie%NULL%1,                Joseph%Brierley%NULL%1,                Gareth%Waters%NULL%1,                Mae%Johnson%NULL%1,                Benedict%Griffiths%NULL%1,                Pascale%du Pré%NULL%1,                Zoha%Mohammad%NULL%1,                Akash%Deep%NULL%1,                Stephen%Playfor%NULL%1,                Davinder%Singh%NULL%1,                David%Inwald%NULL%1,                Michelle%Jardine%NULL%1,                Oliver%Ross%NULL%1,                Nayan%Shetty%NULL%1,                Mark%Worrall%NULL%1,                Ruchi%Sinha%NULL%1,                Ashwani%Koul%NULL%1,                Elizabeth%Whittaker%NULL%1,                Harish%Vyas%NULL%1,                Barnaby R%Scholefield%NULL%1,                Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                Marie%Pouletty%NULL%1,                Patricia%Mariani%NULL%1,                Constance%Beyler%NULL%0,                Audrey%Blachier%NULL%1,                Stephane%Bonacorsi%NULL%1,                Kostas%Danis%NULL%1,                Maryline%Chomton%NULL%1,                Laure%Maurice%NULL%1,                Fleur%Le Bourgeois%NULL%1,                Marion%Caseris%NULL%0,                Jean%Gaschignard%NULL%1,                Julie%Poline%NULL%1,                Robert%Cohen%NULL%1,                Luigi%Titomanlio%NULL%1,                Albert%Faye%NULL%0,                Isabelle%Melki%NULL%0,                Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                Erica B.%Rose%NULL%1,                Steven M.%Horwitz%NULL%1,                Jennifer P.%Collins%NULL%1,                Margaret M.%Newhams%NULL%1,                Mary Beth F.%Son%NULL%1,                Jane W.%Newburger%NULL%1,                Lawrence C.%Kleinman%NULL%1,                Sabrina M.%Heidemann%NULL%1,                Amarilis A.%Martin%NULL%2,                Amarilis A.%Martin%NULL%0,                Aalok R.%Singh%NULL%1,                Simon%Li%NULL%1,                Keiko M.%Tarquinio%NULL%1,                Preeti%Jaggi%NULL%1,                Matthew E.%Oster%NULL%1,                Sheemon P.%Zackai%NULL%1,                Jennifer%Gillen%NULL%1,                Adam J.%Ratner%NULL%1,                Rowan F.%Walsh%NULL%1,                Julie C.%Fitzgerald%NULL%1,                Michael A.%Keenaghan%NULL%1,                Hussam%Alharash%NULL%1,                Sule%Doymaz%NULL%1,                Katharine N.%Clouser%NULL%1,                John S.%Giuliano%NULL%1,                Anjali%Gupta%NULL%1,                Robert M.%Parker%NULL%1,                Aline B.%Maddux%NULL%1,                Vinod%Havalad%NULL%1,                Stacy%Ramsingh%NULL%1,                Hulya%Bukulmez%NULL%1,                Tamara T.%Bradford%NULL%1,                Lincoln S.%Smith%NULL%1,                Mark W.%Tenforde%NULL%1,                Christopher L.%Carroll%NULL%1,                Becky J.%Riggs%NULL%1,                Shira J.%Gertz%NULL%1,                Ariel%Daube%NULL%1,                Amanda%Lansell%NULL%2,                Amanda%Lansell%NULL%0,                Alvaro%Coronado Munoz%NULL%1,                Charlotte V.%Hobbs%NULL%2,                Charlotte V.%Hobbs%NULL%0,                Kimberly L.%Marohn%NULL%1,                Natasha B.%Halasa%NULL%1,                Manish M.%Patel%NULL%1,                Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1627,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1608,7 +1656,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1666,7 +1714,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1695,7 +1743,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1724,7 +1772,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1753,7 +1801,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1782,7 +1830,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1811,7 +1859,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1840,7 +1888,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1869,7 +1917,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1898,7 +1946,7 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1927,7 +1975,7 @@
         <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1956,7 +2004,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -1985,7 +2033,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2014,7 +2062,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2043,7 +2091,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="371">
   <si>
     <t>Doi</t>
   </si>
@@ -1296,6 +1296,102 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,                Erica B.%Rose%NULL%1,                Steven M.%Horwitz%NULL%1,                Jennifer P.%Collins%NULL%1,                Margaret M.%Newhams%NULL%1,                Mary Beth F.%Son%NULL%1,                Jane W.%Newburger%NULL%1,                Lawrence C.%Kleinman%NULL%1,                Sabrina M.%Heidemann%NULL%1,                Amarilis A.%Martin%NULL%2,                Amarilis A.%Martin%NULL%0,                Aalok R.%Singh%NULL%1,                Simon%Li%NULL%1,                Keiko M.%Tarquinio%NULL%1,                Preeti%Jaggi%NULL%1,                Matthew E.%Oster%NULL%1,                Sheemon P.%Zackai%NULL%1,                Jennifer%Gillen%NULL%1,                Adam J.%Ratner%NULL%1,                Rowan F.%Walsh%NULL%1,                Julie C.%Fitzgerald%NULL%1,                Michael A.%Keenaghan%NULL%1,                Hussam%Alharash%NULL%1,                Sule%Doymaz%NULL%1,                Katharine N.%Clouser%NULL%1,                John S.%Giuliano%NULL%1,                Anjali%Gupta%NULL%1,                Robert M.%Parker%NULL%1,                Aline B.%Maddux%NULL%1,                Vinod%Havalad%NULL%1,                Stacy%Ramsingh%NULL%1,                Hulya%Bukulmez%NULL%1,                Tamara T.%Bradford%NULL%1,                Lincoln S.%Smith%NULL%1,                Mark W.%Tenforde%NULL%1,                Christopher L.%Carroll%NULL%1,                Becky J.%Riggs%NULL%1,                Shira J.%Gertz%NULL%1,                Ariel%Daube%NULL%1,                Amanda%Lansell%NULL%2,                Amanda%Lansell%NULL%0,                Alvaro%Coronado Munoz%NULL%1,                Charlotte V.%Hobbs%NULL%2,                Charlotte V.%Hobbs%NULL%0,                Kimberly L.%Marohn%NULL%1,                Natasha B.%Halasa%NULL%1,                Manish M.%Patel%NULL%1,                Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                 Angelo%Mazza%NULL%1,                 Annalisa%Gervasoni%NULL%1,                 Laura%Martelli%NULL%1,                 Maurizio%Ruggeri%NULL%1,                 Matteo%Ciuffreda%NULL%1,                 Ezio%Bonanomi%NULL%1,                 Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,         Philip%Zachariah%xref no email%1,         Mark%Gorelik%xref no email%1,         Alexis%Boneparth%xref no email%1,         Steven G.%Kernie%xref no email%1,         Jordan S.%Orange%xref no email%1,         Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                 Scott I.%Aydin%NULL%1,                 Kim R.%Derespina%NULL%0,                 Prerna B.%Bansal%NULL%1,                 Shanna%Kowalsky%NULL%2,                 Rebecca%Trachtman%NULL%2,                 Jennifer K.%Gillen%NULL%1,                 Michelle M.%Perez%NULL%1,                 Sara H.%Soshnick%NULL%1,                 Edward E.%Conway%NULL%1,                 Asher%Bercow%NULL%1,                 Howard S.%Seiden%NULL%1,                 Robert H.%Pass%NULL%1,                 Henry M.%Ushay%NULL%0,                 George%Ofori-Amanfo%NULL%1,                 Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                 Amanda%Cantor%NULL%1,                 Philip%Zachariah%NULL%1,                 Danielle%Ahn%NULL%1,                 Mercedes%Martinez%NULL%1,                 Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                 John C.%Smulian%NULL%1,                 John A.%Lednicky%NULL%1,                 Tony S.%Wen%NULL%1,                 Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                 Emilia H.%Koumans%NULL%1,                 Eric J.%Chow%NULL%1,                 Elizabeth M.%Rosenthal%NULL%2,                 Elizabeth M.%Rosenthal%NULL%0,                 Alison%Muse%NULL%2,                 Alison%Muse%NULL%0,                 Jemma%Rowlands%NULL%1,                 Meredith A.%Barranco%NULL%1,                 Angela M.%Maxted%NULL%1,                 Eli S.%Rosenberg%NULL%1,                 Delia%Easton%NULL%1,                 Tomoko%Udo%NULL%1,                 Jessica%Kumar%NULL%1,                 Wendy%Pulver%NULL%1,                 Lou%Smith%NULL%1,                 Brad%Hutton%NULL%1,                 Debra%Blog%NULL%1,                 Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                 Heba%Elbaaly%NULL%2,                 Heba%Elbaaly%NULL%0,                 Catriona E. L.%Reid%NULL%2,                 Catriona E. L.%Reid%NULL%0,                 Rui M. F.%Santos%NULL%2,                 Rui M. F.%Santos%NULL%0,                 Vinay%Shivamurthy%NULL%2,                 Vinay%Shivamurthy%NULL%0,                 James%Wong%NULL%1,                 K. Haran%Jogeesvaran%NULL%2,                 K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                 Clément%Poirault%NULL%1,                 Alice%Corsia%NULL%1,                 Fanny%Bajolle%NULL%2,                 Jacques%Fourgeaud%NULL%1,                 François%Angoulvant%NULL%1,                 Agathe%Debray%NULL%1,                 Romain%Basmaci%NULL%2,                 Elodie%Salvador%NULL%1,                 Sandra%Biscardi%NULL%1,                 Pierre%Frange%NULL%1,                 Martin%Chalumeau%NULL%1,                 Jean-Laurent%Casanova%NULL%2,                 Jean-Laurent%Casanova%NULL%0,                 Jérémie F%Cohen%NULL%1,                 Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                 Charlotte%Borocco%NULL%1,                 Naim%Ouldali%NULL%1,                 Marion%Caseris%NULL%2,                 Romain%Basmaci%NULL%0,                 Noémie%Lachaume%NULL%1,                 Philippe%Bensaid%NULL%1,                 Samia%Pichard%NULL%1,                 Hanane%Kouider%NULL%1,                 Guillaume%Morelle%NULL%1,                 Irina%Craiu%NULL%1,                 Corinne%Pondarre%NULL%1,                 Anna%Deho%NULL%1,                 Arielle%Maroni%NULL%1,                 Mehdi%Oualha%NULL%2,                 Zahir%Amoura%NULL%1,                 Julien%Haroche%NULL%1,                 Juliette%Chommeloux%NULL%1,                 Fanny%Bajolle%NULL%0,                 Constance%Beyler%NULL%2,                 Stéphane%Bonacorsi%NULL%1,                 Guislaine%Carcelain%NULL%1,                 Isabelle%Koné-Paut%NULL%1,                 Brigitte%Bader-Meunier%NULL%2,                 Brigitte%Bader-Meunier%NULL%0,                 Albert%Faye%NULL%3,                 Albert%Faye%NULL%0,                 Ulrich%Meinzer%NULL%2,                 Caroline%Galeotti%NULL%1,                 Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,         Mathilde%M\u00e9ot%xref no email%1,         Fanny%Bajolle%xref no email%1,         Diala%Khraiche%xref no email%1,         Antoine%Legendre%xref no email%1,         Samya%Abakka%xref no email%1,         Johanne%Auriau%xref no email%1,         Marion%Grimaud%xref no email%1,         Mehdi%Oualha%xref no email%1,         Maurice%Beghetti%xref no email%1,         Julie%Wacker%xref no email%1,         Caroline%Ovaert%xref no email%1,         Sebastien%Hascoet%xref no email%1,         Ma\u00eblle%Selegny%xref no email%1,         Sophie%Malekzadeh-Milani%xref no email%1,         Alice%Maltret%xref no email%1,         Gilles%Bosser%xref no email%1,         Nathan%Giroux%xref no email%1,         Laurent%Bonnemains%xref no email%1,         Jeanne%Bordet%xref no email%1,         Sylvie%Di Filippo%xref no email%1,         Pierre%Mauran%xref no email%1,         Sylvie%Falcon-Eicher%xref no email%1,         Jean-Beno\u00eet%Thambo%xref no email%1,         Bruno%Lefort%xref no email%1,         Pamela%Moceri%xref no email%1,         Lucile%Houyel%xref no email%1,         Sylvain%Renolleau%xref no email%1,         Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                 Oscar%Nolan%NULL%1,                 Chui Yi%Lai%NULL%1,                 Nanda%Prabhu%NULL%1,                 Raghu%Krishnamurthy%NULL%1,                 Alex G.%Richter%NULL%1,                 Deepthi%Jyothish%NULL%1,                 Hari Krishnan%Kanthimathinathan%NULL%2,                 Steven B.%Welch%NULL%1,                 Scott%Hackett%NULL%1,                 Eslam%Al-Abadi%NULL%1,                 Barnaby R.%Scholefield%NULL%1,                 Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                 Julie%Starck%NULL%1,                 Michael%Levy%NULL%1,                 Clémence%Marais%NULL%1,                 Judith%Chareyre%NULL%1,                 Diala%Khraiche%NULL%1,                 Marianne%Leruez-Ville%NULL%1,                 Pierre%Quartier%NULL%1,                 Pierre Louis%Léger%NULL%1,                 Guillaume%Geslain%NULL%1,                 Nada%Semaan%NULL%1,                 Florence%Moulin%NULL%1,                 Matthieu%Bendavid%NULL%1,                 Sandrine%Jean%NULL%1,                 Géraldine%Poncelet%NULL%1,                 Sylvain%Renolleau%NULL%1,                 Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                 Esra%Akkoyun%NULL%1,                 Eudys%Briceno‐Brito%NULL%1,                 Shanna%Kowalsky%NULL%0,                 James%Reed%NULL%1,                 Roberto%Posada%NULL%1,                 Emilia Mia%Sordillo%NULL%1,                 Michael%Tosi%NULL%1,                 Rebecca%Trachtman%NULL%0,                 Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                 Claire%Evans%NULL%1,                 Hari Krishnan%Kanthimathinathan%NULL%0,                 Jon%Lillie%NULL%1,                 Joseph%Brierley%NULL%1,                 Gareth%Waters%NULL%1,                 Mae%Johnson%NULL%1,                 Benedict%Griffiths%NULL%1,                 Pascale%du Pré%NULL%1,                 Zoha%Mohammad%NULL%1,                 Akash%Deep%NULL%1,                 Stephen%Playfor%NULL%1,                 Davinder%Singh%NULL%1,                 David%Inwald%NULL%1,                 Michelle%Jardine%NULL%1,                 Oliver%Ross%NULL%1,                 Nayan%Shetty%NULL%1,                 Mark%Worrall%NULL%1,                 Ruchi%Sinha%NULL%1,                 Ashwani%Koul%NULL%1,                 Elizabeth%Whittaker%NULL%1,                 Harish%Vyas%NULL%1,                 Barnaby R%Scholefield%NULL%1,                 Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                 Marie%Pouletty%NULL%1,                 Patricia%Mariani%NULL%1,                 Constance%Beyler%NULL%0,                 Audrey%Blachier%NULL%1,                 Stephane%Bonacorsi%NULL%1,                 Kostas%Danis%NULL%1,                 Maryline%Chomton%NULL%1,                 Laure%Maurice%NULL%1,                 Fleur%Le Bourgeois%NULL%1,                 Marion%Caseris%NULL%0,                 Jean%Gaschignard%NULL%1,                 Julie%Poline%NULL%1,                 Robert%Cohen%NULL%1,                 Luigi%Titomanlio%NULL%1,                 Albert%Faye%NULL%0,                 Isabelle%Melki%NULL%0,                 Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                 Erica B.%Rose%NULL%1,                 Steven M.%Horwitz%NULL%1,                 Jennifer P.%Collins%NULL%1,                 Margaret M.%Newhams%NULL%1,                 Mary Beth F.%Son%NULL%1,                 Jane W.%Newburger%NULL%1,                 Lawrence C.%Kleinman%NULL%1,                 Sabrina M.%Heidemann%NULL%1,                 Amarilis A.%Martin%NULL%2,                 Amarilis A.%Martin%NULL%0,                 Aalok R.%Singh%NULL%1,                 Simon%Li%NULL%1,                 Keiko M.%Tarquinio%NULL%1,                 Preeti%Jaggi%NULL%1,                 Matthew E.%Oster%NULL%1,                 Sheemon P.%Zackai%NULL%1,                 Jennifer%Gillen%NULL%1,                 Adam J.%Ratner%NULL%1,                 Rowan F.%Walsh%NULL%1,                 Julie C.%Fitzgerald%NULL%1,                 Michael A.%Keenaghan%NULL%1,                 Hussam%Alharash%NULL%1,                 Sule%Doymaz%NULL%1,                 Katharine N.%Clouser%NULL%1,                 John S.%Giuliano%NULL%1,                 Anjali%Gupta%NULL%1,                 Robert M.%Parker%NULL%1,                 Aline B.%Maddux%NULL%1,                 Vinod%Havalad%NULL%1,                 Stacy%Ramsingh%NULL%1,                 Hulya%Bukulmez%NULL%1,                 Tamara T.%Bradford%NULL%1,                 Lincoln S.%Smith%NULL%1,                 Mark W.%Tenforde%NULL%1,                 Christopher L.%Carroll%NULL%1,                 Becky J.%Riggs%NULL%1,                 Shira J.%Gertz%NULL%1,                 Ariel%Daube%NULL%1,                 Amanda%Lansell%NULL%2,                 Amanda%Lansell%NULL%0,                 Alvaro%Coronado Munoz%NULL%1,                 Charlotte V.%Hobbs%NULL%2,                 Charlotte V.%Hobbs%NULL%0,                 Kimberly L.%Marohn%NULL%1,                 Natasha B.%Halasa%NULL%1,                 Manish M.%Patel%NULL%1,                 Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                  Angelo%Mazza%NULL%1,                  Annalisa%Gervasoni%NULL%1,                  Laura%Martelli%NULL%1,                  Maurizio%Ruggeri%NULL%1,                  Matteo%Ciuffreda%NULL%1,                  Ezio%Bonanomi%NULL%1,                  Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,          Philip%Zachariah%xref no email%1,          Mark%Gorelik%xref no email%1,          Alexis%Boneparth%xref no email%1,          Steven G.%Kernie%xref no email%1,          Jordan S.%Orange%xref no email%1,          Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                  Scott I.%Aydin%NULL%1,                  Kim R.%Derespina%NULL%0,                  Prerna B.%Bansal%NULL%1,                  Shanna%Kowalsky%NULL%2,                  Rebecca%Trachtman%NULL%2,                  Jennifer K.%Gillen%NULL%1,                  Michelle M.%Perez%NULL%1,                  Sara H.%Soshnick%NULL%1,                  Edward E.%Conway%NULL%1,                  Asher%Bercow%NULL%1,                  Howard S.%Seiden%NULL%1,                  Robert H.%Pass%NULL%1,                  Henry M.%Ushay%NULL%0,                  George%Ofori-Amanfo%NULL%1,                  Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                  Amanda%Cantor%NULL%1,                  Philip%Zachariah%NULL%1,                  Danielle%Ahn%NULL%1,                  Mercedes%Martinez%NULL%1,                  Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                  John C.%Smulian%NULL%1,                  John A.%Lednicky%NULL%1,                  Tony S.%Wen%NULL%1,                  Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                  Emilia H.%Koumans%NULL%1,                  Eric J.%Chow%NULL%1,                  Elizabeth M.%Rosenthal%NULL%2,                  Elizabeth M.%Rosenthal%NULL%0,                  Alison%Muse%NULL%2,                  Alison%Muse%NULL%0,                  Jemma%Rowlands%NULL%1,                  Meredith A.%Barranco%NULL%1,                  Angela M.%Maxted%NULL%1,                  Eli S.%Rosenberg%NULL%1,                  Delia%Easton%NULL%1,                  Tomoko%Udo%NULL%1,                  Jessica%Kumar%NULL%1,                  Wendy%Pulver%NULL%1,                  Lou%Smith%NULL%1,                  Brad%Hutton%NULL%1,                  Debra%Blog%NULL%1,                  Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                  Heba%Elbaaly%NULL%2,                  Heba%Elbaaly%NULL%0,                  Catriona E. L.%Reid%NULL%2,                  Catriona E. L.%Reid%NULL%0,                  Rui M. F.%Santos%NULL%2,                  Rui M. F.%Santos%NULL%0,                  Vinay%Shivamurthy%NULL%2,                  Vinay%Shivamurthy%NULL%0,                  James%Wong%NULL%1,                  K. Haran%Jogeesvaran%NULL%2,                  K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                  Clément%Poirault%NULL%1,                  Alice%Corsia%NULL%1,                  Fanny%Bajolle%NULL%2,                  Jacques%Fourgeaud%NULL%1,                  François%Angoulvant%NULL%1,                  Agathe%Debray%NULL%1,                  Romain%Basmaci%NULL%2,                  Elodie%Salvador%NULL%1,                  Sandra%Biscardi%NULL%1,                  Pierre%Frange%NULL%1,                  Martin%Chalumeau%NULL%1,                  Jean-Laurent%Casanova%NULL%2,                  Jean-Laurent%Casanova%NULL%0,                  Jérémie F%Cohen%NULL%1,                  Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                  Charlotte%Borocco%NULL%1,                  Naim%Ouldali%NULL%1,                  Marion%Caseris%NULL%2,                  Romain%Basmaci%NULL%0,                  Noémie%Lachaume%NULL%1,                  Philippe%Bensaid%NULL%1,                  Samia%Pichard%NULL%1,                  Hanane%Kouider%NULL%1,                  Guillaume%Morelle%NULL%1,                  Irina%Craiu%NULL%1,                  Corinne%Pondarre%NULL%1,                  Anna%Deho%NULL%1,                  Arielle%Maroni%NULL%1,                  Mehdi%Oualha%NULL%2,                  Zahir%Amoura%NULL%1,                  Julien%Haroche%NULL%1,                  Juliette%Chommeloux%NULL%1,                  Fanny%Bajolle%NULL%0,                  Constance%Beyler%NULL%2,                  Stéphane%Bonacorsi%NULL%1,                  Guislaine%Carcelain%NULL%1,                  Isabelle%Koné-Paut%NULL%1,                  Brigitte%Bader-Meunier%NULL%2,                  Brigitte%Bader-Meunier%NULL%0,                  Albert%Faye%NULL%3,                  Albert%Faye%NULL%0,                  Ulrich%Meinzer%NULL%2,                  Caroline%Galeotti%NULL%1,                  Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,          Mathilde%M\u00e9ot%xref no email%1,          Fanny%Bajolle%xref no email%1,          Diala%Khraiche%xref no email%1,          Antoine%Legendre%xref no email%1,          Samya%Abakka%xref no email%1,          Johanne%Auriau%xref no email%1,          Marion%Grimaud%xref no email%1,          Mehdi%Oualha%xref no email%1,          Maurice%Beghetti%xref no email%1,          Julie%Wacker%xref no email%1,          Caroline%Ovaert%xref no email%1,          Sebastien%Hascoet%xref no email%1,          Ma\u00eblle%Selegny%xref no email%1,          Sophie%Malekzadeh-Milani%xref no email%1,          Alice%Maltret%xref no email%1,          Gilles%Bosser%xref no email%1,          Nathan%Giroux%xref no email%1,          Laurent%Bonnemains%xref no email%1,          Jeanne%Bordet%xref no email%1,          Sylvie%Di Filippo%xref no email%1,          Pierre%Mauran%xref no email%1,          Sylvie%Falcon-Eicher%xref no email%1,          Jean-Beno\u00eet%Thambo%xref no email%1,          Bruno%Lefort%xref no email%1,          Pamela%Moceri%xref no email%1,          Lucile%Houyel%xref no email%1,          Sylvain%Renolleau%xref no email%1,          Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                  Oscar%Nolan%NULL%1,                  Chui Yi%Lai%NULL%1,                  Nanda%Prabhu%NULL%1,                  Raghu%Krishnamurthy%NULL%1,                  Alex G.%Richter%NULL%1,                  Deepthi%Jyothish%NULL%1,                  Hari Krishnan%Kanthimathinathan%NULL%2,                  Steven B.%Welch%NULL%1,                  Scott%Hackett%NULL%1,                  Eslam%Al-Abadi%NULL%1,                  Barnaby R.%Scholefield%NULL%1,                  Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                  Julie%Starck%NULL%1,                  Michael%Levy%NULL%1,                  Clémence%Marais%NULL%1,                  Judith%Chareyre%NULL%1,                  Diala%Khraiche%NULL%1,                  Marianne%Leruez-Ville%NULL%1,                  Pierre%Quartier%NULL%1,                  Pierre Louis%Léger%NULL%1,                  Guillaume%Geslain%NULL%1,                  Nada%Semaan%NULL%1,                  Florence%Moulin%NULL%1,                  Matthieu%Bendavid%NULL%1,                  Sandrine%Jean%NULL%1,                  Géraldine%Poncelet%NULL%1,                  Sylvain%Renolleau%NULL%1,                  Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                  Esra%Akkoyun%NULL%1,                  Eudys%Briceno‐Brito%NULL%1,                  Shanna%Kowalsky%NULL%0,                  James%Reed%NULL%1,                  Roberto%Posada%NULL%1,                  Emilia Mia%Sordillo%NULL%1,                  Michael%Tosi%NULL%1,                  Rebecca%Trachtman%NULL%0,                  Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                  Claire%Evans%NULL%1,                  Hari Krishnan%Kanthimathinathan%NULL%0,                  Jon%Lillie%NULL%1,                  Joseph%Brierley%NULL%1,                  Gareth%Waters%NULL%1,                  Mae%Johnson%NULL%1,                  Benedict%Griffiths%NULL%1,                  Pascale%du Pré%NULL%1,                  Zoha%Mohammad%NULL%1,                  Akash%Deep%NULL%1,                  Stephen%Playfor%NULL%1,                  Davinder%Singh%NULL%1,                  David%Inwald%NULL%1,                  Michelle%Jardine%NULL%1,                  Oliver%Ross%NULL%1,                  Nayan%Shetty%NULL%1,                  Mark%Worrall%NULL%1,                  Ruchi%Sinha%NULL%1,                  Ashwani%Koul%NULL%1,                  Elizabeth%Whittaker%NULL%1,                  Harish%Vyas%NULL%1,                  Barnaby R%Scholefield%NULL%1,                  Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                  Marie%Pouletty%NULL%1,                  Patricia%Mariani%NULL%1,                  Constance%Beyler%NULL%0,                  Audrey%Blachier%NULL%1,                  Stephane%Bonacorsi%NULL%1,                  Kostas%Danis%NULL%1,                  Maryline%Chomton%NULL%1,                  Laure%Maurice%NULL%1,                  Fleur%Le Bourgeois%NULL%1,                  Marion%Caseris%NULL%0,                  Jean%Gaschignard%NULL%1,                  Julie%Poline%NULL%1,                  Robert%Cohen%NULL%1,                  Luigi%Titomanlio%NULL%1,                  Albert%Faye%NULL%0,                  Isabelle%Melki%NULL%0,                  Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                  Erica B.%Rose%NULL%1,                  Steven M.%Horwitz%NULL%1,                  Jennifer P.%Collins%NULL%1,                  Margaret M.%Newhams%NULL%1,                  Mary Beth F.%Son%NULL%1,                  Jane W.%Newburger%NULL%1,                  Lawrence C.%Kleinman%NULL%1,                  Sabrina M.%Heidemann%NULL%1,                  Amarilis A.%Martin%NULL%2,                  Amarilis A.%Martin%NULL%0,                  Aalok R.%Singh%NULL%1,                  Simon%Li%NULL%1,                  Keiko M.%Tarquinio%NULL%1,                  Preeti%Jaggi%NULL%1,                  Matthew E.%Oster%NULL%1,                  Sheemon P.%Zackai%NULL%1,                  Jennifer%Gillen%NULL%1,                  Adam J.%Ratner%NULL%1,                  Rowan F.%Walsh%NULL%1,                  Julie C.%Fitzgerald%NULL%1,                  Michael A.%Keenaghan%NULL%1,                  Hussam%Alharash%NULL%1,                  Sule%Doymaz%NULL%1,                  Katharine N.%Clouser%NULL%1,                  John S.%Giuliano%NULL%1,                  Anjali%Gupta%NULL%1,                  Robert M.%Parker%NULL%1,                  Aline B.%Maddux%NULL%1,                  Vinod%Havalad%NULL%1,                  Stacy%Ramsingh%NULL%1,                  Hulya%Bukulmez%NULL%1,                  Tamara T.%Bradford%NULL%1,                  Lincoln S.%Smith%NULL%1,                  Mark W.%Tenforde%NULL%1,                  Christopher L.%Carroll%NULL%1,                  Becky J.%Riggs%NULL%1,                  Shira J.%Gertz%NULL%1,                  Ariel%Daube%NULL%1,                  Amanda%Lansell%NULL%2,                  Amanda%Lansell%NULL%0,                  Alvaro%Coronado Munoz%NULL%1,                  Charlotte V.%Hobbs%NULL%2,                  Charlotte V.%Hobbs%NULL%0,                  Kimberly L.%Marohn%NULL%1,                  Natasha B.%Halasa%NULL%1,                  Manish M.%Patel%NULL%1,                  Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1723,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1656,7 +1752,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1714,7 +1810,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1743,7 +1839,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1772,7 +1868,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1801,7 +1897,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1830,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1859,7 +1955,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1888,7 +1984,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1917,7 +2013,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1946,7 +2042,7 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1975,7 +2071,7 @@
         <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2004,7 +2100,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2033,7 +2129,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2062,7 +2158,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2091,7 +2187,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="387">
   <si>
     <t>Doi</t>
   </si>
@@ -1392,6 +1392,54 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,                  Erica B.%Rose%NULL%1,                  Steven M.%Horwitz%NULL%1,                  Jennifer P.%Collins%NULL%1,                  Margaret M.%Newhams%NULL%1,                  Mary Beth F.%Son%NULL%1,                  Jane W.%Newburger%NULL%1,                  Lawrence C.%Kleinman%NULL%1,                  Sabrina M.%Heidemann%NULL%1,                  Amarilis A.%Martin%NULL%2,                  Amarilis A.%Martin%NULL%0,                  Aalok R.%Singh%NULL%1,                  Simon%Li%NULL%1,                  Keiko M.%Tarquinio%NULL%1,                  Preeti%Jaggi%NULL%1,                  Matthew E.%Oster%NULL%1,                  Sheemon P.%Zackai%NULL%1,                  Jennifer%Gillen%NULL%1,                  Adam J.%Ratner%NULL%1,                  Rowan F.%Walsh%NULL%1,                  Julie C.%Fitzgerald%NULL%1,                  Michael A.%Keenaghan%NULL%1,                  Hussam%Alharash%NULL%1,                  Sule%Doymaz%NULL%1,                  Katharine N.%Clouser%NULL%1,                  John S.%Giuliano%NULL%1,                  Anjali%Gupta%NULL%1,                  Robert M.%Parker%NULL%1,                  Aline B.%Maddux%NULL%1,                  Vinod%Havalad%NULL%1,                  Stacy%Ramsingh%NULL%1,                  Hulya%Bukulmez%NULL%1,                  Tamara T.%Bradford%NULL%1,                  Lincoln S.%Smith%NULL%1,                  Mark W.%Tenforde%NULL%1,                  Christopher L.%Carroll%NULL%1,                  Becky J.%Riggs%NULL%1,                  Shira J.%Gertz%NULL%1,                  Ariel%Daube%NULL%1,                  Amanda%Lansell%NULL%2,                  Amanda%Lansell%NULL%0,                  Alvaro%Coronado Munoz%NULL%1,                  Charlotte V.%Hobbs%NULL%2,                  Charlotte V.%Hobbs%NULL%0,                  Kimberly L.%Marohn%NULL%1,                  Natasha B.%Halasa%NULL%1,                  Manish M.%Patel%NULL%1,                  Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                   Angelo%Mazza%NULL%1,                   Annalisa%Gervasoni%NULL%1,                   Laura%Martelli%NULL%1,                   Maurizio%Ruggeri%NULL%1,                   Matteo%Ciuffreda%NULL%1,                   Ezio%Bonanomi%NULL%1,                   Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,           Philip%Zachariah%xref no email%1,           Mark%Gorelik%xref no email%1,           Alexis%Boneparth%xref no email%1,           Steven G.%Kernie%xref no email%1,           Jordan S.%Orange%xref no email%1,           Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                   Scott I.%Aydin%NULL%1,                   Kim R.%Derespina%NULL%0,                   Prerna B.%Bansal%NULL%1,                   Shanna%Kowalsky%NULL%2,                   Rebecca%Trachtman%NULL%2,                   Jennifer K.%Gillen%NULL%1,                   Michelle M.%Perez%NULL%1,                   Sara H.%Soshnick%NULL%1,                   Edward E.%Conway%NULL%1,                   Asher%Bercow%NULL%1,                   Howard S.%Seiden%NULL%1,                   Robert H.%Pass%NULL%1,                   Henry M.%Ushay%NULL%0,                   George%Ofori-Amanfo%NULL%1,                   Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                   Amanda%Cantor%NULL%1,                   Philip%Zachariah%NULL%1,                   Danielle%Ahn%NULL%1,                   Mercedes%Martinez%NULL%1,                   Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                   John C.%Smulian%NULL%1,                   John A.%Lednicky%NULL%1,                   Tony S.%Wen%NULL%1,                   Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                   Emilia H.%Koumans%NULL%1,                   Eric J.%Chow%NULL%1,                   Elizabeth M.%Rosenthal%NULL%2,                   Elizabeth M.%Rosenthal%NULL%0,                   Alison%Muse%NULL%2,                   Alison%Muse%NULL%0,                   Jemma%Rowlands%NULL%1,                   Meredith A.%Barranco%NULL%1,                   Angela M.%Maxted%NULL%1,                   Eli S.%Rosenberg%NULL%1,                   Delia%Easton%NULL%1,                   Tomoko%Udo%NULL%1,                   Jessica%Kumar%NULL%1,                   Wendy%Pulver%NULL%1,                   Lou%Smith%NULL%1,                   Brad%Hutton%NULL%1,                   Debra%Blog%NULL%1,                   Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                   Heba%Elbaaly%NULL%2,                   Heba%Elbaaly%NULL%0,                   Catriona E. L.%Reid%NULL%2,                   Catriona E. L.%Reid%NULL%0,                   Rui M. F.%Santos%NULL%2,                   Rui M. F.%Santos%NULL%0,                   Vinay%Shivamurthy%NULL%2,                   Vinay%Shivamurthy%NULL%0,                   James%Wong%NULL%1,                   K. Haran%Jogeesvaran%NULL%2,                   K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                   Clément%Poirault%NULL%1,                   Alice%Corsia%NULL%1,                   Fanny%Bajolle%NULL%2,                   Jacques%Fourgeaud%NULL%1,                   François%Angoulvant%NULL%1,                   Agathe%Debray%NULL%1,                   Romain%Basmaci%NULL%2,                   Elodie%Salvador%NULL%1,                   Sandra%Biscardi%NULL%1,                   Pierre%Frange%NULL%1,                   Martin%Chalumeau%NULL%1,                   Jean-Laurent%Casanova%NULL%2,                   Jean-Laurent%Casanova%NULL%0,                   Jérémie F%Cohen%NULL%1,                   Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                   Charlotte%Borocco%NULL%1,                   Naim%Ouldali%NULL%1,                   Marion%Caseris%NULL%2,                   Romain%Basmaci%NULL%0,                   Noémie%Lachaume%NULL%1,                   Philippe%Bensaid%NULL%1,                   Samia%Pichard%NULL%1,                   Hanane%Kouider%NULL%1,                   Guillaume%Morelle%NULL%1,                   Irina%Craiu%NULL%1,                   Corinne%Pondarre%NULL%1,                   Anna%Deho%NULL%1,                   Arielle%Maroni%NULL%1,                   Mehdi%Oualha%NULL%2,                   Zahir%Amoura%NULL%1,                   Julien%Haroche%NULL%1,                   Juliette%Chommeloux%NULL%1,                   Fanny%Bajolle%NULL%0,                   Constance%Beyler%NULL%2,                   Stéphane%Bonacorsi%NULL%1,                   Guislaine%Carcelain%NULL%1,                   Isabelle%Koné-Paut%NULL%1,                   Brigitte%Bader-Meunier%NULL%2,                   Brigitte%Bader-Meunier%NULL%0,                   Albert%Faye%NULL%3,                   Albert%Faye%NULL%0,                   Ulrich%Meinzer%NULL%2,                   Caroline%Galeotti%NULL%1,                   Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,           Mathilde%M\u00e9ot%xref no email%1,           Fanny%Bajolle%xref no email%1,           Diala%Khraiche%xref no email%1,           Antoine%Legendre%xref no email%1,           Samya%Abakka%xref no email%1,           Johanne%Auriau%xref no email%1,           Marion%Grimaud%xref no email%1,           Mehdi%Oualha%xref no email%1,           Maurice%Beghetti%xref no email%1,           Julie%Wacker%xref no email%1,           Caroline%Ovaert%xref no email%1,           Sebastien%Hascoet%xref no email%1,           Ma\u00eblle%Selegny%xref no email%1,           Sophie%Malekzadeh-Milani%xref no email%1,           Alice%Maltret%xref no email%1,           Gilles%Bosser%xref no email%1,           Nathan%Giroux%xref no email%1,           Laurent%Bonnemains%xref no email%1,           Jeanne%Bordet%xref no email%1,           Sylvie%Di Filippo%xref no email%1,           Pierre%Mauran%xref no email%1,           Sylvie%Falcon-Eicher%xref no email%1,           Jean-Beno\u00eet%Thambo%xref no email%1,           Bruno%Lefort%xref no email%1,           Pamela%Moceri%xref no email%1,           Lucile%Houyel%xref no email%1,           Sylvain%Renolleau%xref no email%1,           Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                   Oscar%Nolan%NULL%1,                   Chui Yi%Lai%NULL%1,                   Nanda%Prabhu%NULL%1,                   Raghu%Krishnamurthy%NULL%1,                   Alex G.%Richter%NULL%1,                   Deepthi%Jyothish%NULL%1,                   Hari Krishnan%Kanthimathinathan%NULL%2,                   Steven B.%Welch%NULL%1,                   Scott%Hackett%NULL%1,                   Eslam%Al-Abadi%NULL%1,                   Barnaby R.%Scholefield%NULL%1,                   Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                   Julie%Starck%NULL%1,                   Michael%Levy%NULL%1,                   Clémence%Marais%NULL%1,                   Judith%Chareyre%NULL%1,                   Diala%Khraiche%NULL%1,                   Marianne%Leruez-Ville%NULL%1,                   Pierre%Quartier%NULL%1,                   Pierre Louis%Léger%NULL%1,                   Guillaume%Geslain%NULL%1,                   Nada%Semaan%NULL%1,                   Florence%Moulin%NULL%1,                   Matthieu%Bendavid%NULL%1,                   Sandrine%Jean%NULL%1,                   Géraldine%Poncelet%NULL%1,                   Sylvain%Renolleau%NULL%1,                   Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                   Esra%Akkoyun%NULL%1,                   Eudys%Briceno‐Brito%NULL%1,                   Shanna%Kowalsky%NULL%0,                   James%Reed%NULL%1,                   Roberto%Posada%NULL%1,                   Emilia Mia%Sordillo%NULL%1,                   Michael%Tosi%NULL%1,                   Rebecca%Trachtman%NULL%0,                   Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                   Claire%Evans%NULL%1,                   Hari Krishnan%Kanthimathinathan%NULL%0,                   Jon%Lillie%NULL%1,                   Joseph%Brierley%NULL%1,                   Gareth%Waters%NULL%1,                   Mae%Johnson%NULL%1,                   Benedict%Griffiths%NULL%1,                   Pascale%du Pré%NULL%1,                   Zoha%Mohammad%NULL%1,                   Akash%Deep%NULL%1,                   Stephen%Playfor%NULL%1,                   Davinder%Singh%NULL%1,                   David%Inwald%NULL%1,                   Michelle%Jardine%NULL%1,                   Oliver%Ross%NULL%1,                   Nayan%Shetty%NULL%1,                   Mark%Worrall%NULL%1,                   Ruchi%Sinha%NULL%1,                   Ashwani%Koul%NULL%1,                   Elizabeth%Whittaker%NULL%1,                   Harish%Vyas%NULL%1,                   Barnaby R%Scholefield%NULL%1,                   Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                   Marie%Pouletty%NULL%1,                   Patricia%Mariani%NULL%1,                   Constance%Beyler%NULL%0,                   Audrey%Blachier%NULL%1,                   Stephane%Bonacorsi%NULL%1,                   Kostas%Danis%NULL%1,                   Maryline%Chomton%NULL%1,                   Laure%Maurice%NULL%1,                   Fleur%Le Bourgeois%NULL%1,                   Marion%Caseris%NULL%0,                   Jean%Gaschignard%NULL%1,                   Julie%Poline%NULL%1,                   Robert%Cohen%NULL%1,                   Luigi%Titomanlio%NULL%1,                   Albert%Faye%NULL%0,                   Isabelle%Melki%NULL%0,                   Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                   Erica B.%Rose%NULL%1,                   Steven M.%Horwitz%NULL%1,                   Jennifer P.%Collins%NULL%1,                   Margaret M.%Newhams%NULL%1,                   Mary Beth F.%Son%NULL%1,                   Jane W.%Newburger%NULL%1,                   Lawrence C.%Kleinman%NULL%1,                   Sabrina M.%Heidemann%NULL%1,                   Amarilis A.%Martin%NULL%2,                   Amarilis A.%Martin%NULL%0,                   Aalok R.%Singh%NULL%1,                   Simon%Li%NULL%1,                   Keiko M.%Tarquinio%NULL%1,                   Preeti%Jaggi%NULL%1,                   Matthew E.%Oster%NULL%1,                   Sheemon P.%Zackai%NULL%1,                   Jennifer%Gillen%NULL%1,                   Adam J.%Ratner%NULL%1,                   Rowan F.%Walsh%NULL%1,                   Julie C.%Fitzgerald%NULL%1,                   Michael A.%Keenaghan%NULL%1,                   Hussam%Alharash%NULL%1,                   Sule%Doymaz%NULL%1,                   Katharine N.%Clouser%NULL%1,                   John S.%Giuliano%NULL%1,                   Anjali%Gupta%NULL%1,                   Robert M.%Parker%NULL%1,                   Aline B.%Maddux%NULL%1,                   Vinod%Havalad%NULL%1,                   Stacy%Ramsingh%NULL%1,                   Hulya%Bukulmez%NULL%1,                   Tamara T.%Bradford%NULL%1,                   Lincoln S.%Smith%NULL%1,                   Mark W.%Tenforde%NULL%1,                   Christopher L.%Carroll%NULL%1,                   Becky J.%Riggs%NULL%1,                   Shira J.%Gertz%NULL%1,                   Ariel%Daube%NULL%1,                   Amanda%Lansell%NULL%2,                   Amanda%Lansell%NULL%0,                   Alvaro%Coronado Munoz%NULL%1,                   Charlotte V.%Hobbs%NULL%2,                   Charlotte V.%Hobbs%NULL%0,                   Kimberly L.%Marohn%NULL%1,                   Natasha B.%Halasa%NULL%1,                   Manish M.%Patel%NULL%1,                   Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1771,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1752,7 +1800,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1810,7 +1858,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1839,7 +1887,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1868,7 +1916,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1897,7 +1945,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1926,7 +1974,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1955,7 +2003,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1984,7 +2032,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2013,7 +2061,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2042,7 +2090,7 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2071,7 +2119,7 @@
         <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2100,7 +2148,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2129,7 +2177,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2158,7 +2206,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2187,7 +2235,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="407">
   <si>
     <t>Doi</t>
   </si>
@@ -1440,6 +1440,66 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,                   Erica B.%Rose%NULL%1,                   Steven M.%Horwitz%NULL%1,                   Jennifer P.%Collins%NULL%1,                   Margaret M.%Newhams%NULL%1,                   Mary Beth F.%Son%NULL%1,                   Jane W.%Newburger%NULL%1,                   Lawrence C.%Kleinman%NULL%1,                   Sabrina M.%Heidemann%NULL%1,                   Amarilis A.%Martin%NULL%2,                   Amarilis A.%Martin%NULL%0,                   Aalok R.%Singh%NULL%1,                   Simon%Li%NULL%1,                   Keiko M.%Tarquinio%NULL%1,                   Preeti%Jaggi%NULL%1,                   Matthew E.%Oster%NULL%1,                   Sheemon P.%Zackai%NULL%1,                   Jennifer%Gillen%NULL%1,                   Adam J.%Ratner%NULL%1,                   Rowan F.%Walsh%NULL%1,                   Julie C.%Fitzgerald%NULL%1,                   Michael A.%Keenaghan%NULL%1,                   Hussam%Alharash%NULL%1,                   Sule%Doymaz%NULL%1,                   Katharine N.%Clouser%NULL%1,                   John S.%Giuliano%NULL%1,                   Anjali%Gupta%NULL%1,                   Robert M.%Parker%NULL%1,                   Aline B.%Maddux%NULL%1,                   Vinod%Havalad%NULL%1,                   Stacy%Ramsingh%NULL%1,                   Hulya%Bukulmez%NULL%1,                   Tamara T.%Bradford%NULL%1,                   Lincoln S.%Smith%NULL%1,                   Mark W.%Tenforde%NULL%1,                   Christopher L.%Carroll%NULL%1,                   Becky J.%Riggs%NULL%1,                   Shira J.%Gertz%NULL%1,                   Ariel%Daube%NULL%1,                   Amanda%Lansell%NULL%2,                   Amanda%Lansell%NULL%0,                   Alvaro%Coronado Munoz%NULL%1,                   Charlotte V.%Hobbs%NULL%2,                   Charlotte V.%Hobbs%NULL%0,                   Kimberly L.%Marohn%NULL%1,                   Natasha B.%Halasa%NULL%1,                   Manish M.%Patel%NULL%1,                   Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                    Angelo%Mazza%NULL%1,                    Annalisa%Gervasoni%NULL%1,                    Laura%Martelli%NULL%1,                    Maurizio%Ruggeri%NULL%1,                    Matteo%Ciuffreda%NULL%1,                    Ezio%Bonanomi%NULL%1,                    Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,            Philip%Zachariah%xref no email%1,            Mark%Gorelik%xref no email%1,            Alexis%Boneparth%xref no email%1,            Steven G.%Kernie%xref no email%1,            Jordan S.%Orange%xref no email%1,            Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                    Scott I.%Aydin%NULL%1,                    Kim R.%Derespina%NULL%0,                    Prerna B.%Bansal%NULL%1,                    Shanna%Kowalsky%NULL%2,                    Rebecca%Trachtman%NULL%2,                    Jennifer K.%Gillen%NULL%1,                    Michelle M.%Perez%NULL%1,                    Sara H.%Soshnick%NULL%1,                    Edward E.%Conway%NULL%1,                    Asher%Bercow%NULL%1,                    Howard S.%Seiden%NULL%1,                    Robert H.%Pass%NULL%1,                    Henry M.%Ushay%NULL%0,                    George%Ofori-Amanfo%NULL%1,                    Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                    Amanda%Cantor%NULL%1,                    Philip%Zachariah%NULL%1,                    Danielle%Ahn%NULL%1,                    Mercedes%Martinez%NULL%1,                    Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                    John C.%Smulian%NULL%1,                    John A.%Lednicky%NULL%1,                    Tony S.%Wen%NULL%1,                    Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                    Emilia H.%Koumans%NULL%1,                    Eric J.%Chow%NULL%1,                    Elizabeth M.%Rosenthal%NULL%2,                    Elizabeth M.%Rosenthal%NULL%0,                    Alison%Muse%NULL%2,                    Alison%Muse%NULL%0,                    Jemma%Rowlands%NULL%1,                    Meredith A.%Barranco%NULL%1,                    Angela M.%Maxted%NULL%1,                    Eli S.%Rosenberg%NULL%1,                    Delia%Easton%NULL%1,                    Tomoko%Udo%NULL%1,                    Jessica%Kumar%NULL%1,                    Wendy%Pulver%NULL%1,                    Lou%Smith%NULL%1,                    Brad%Hutton%NULL%1,                    Debra%Blog%NULL%1,                    Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                    Heba%Elbaaly%NULL%2,                    Heba%Elbaaly%NULL%0,                    Catriona E. L.%Reid%NULL%2,                    Catriona E. L.%Reid%NULL%0,                    Rui M. F.%Santos%NULL%2,                    Rui M. F.%Santos%NULL%0,                    Vinay%Shivamurthy%NULL%2,                    Vinay%Shivamurthy%NULL%0,                    James%Wong%NULL%1,                    K. Haran%Jogeesvaran%NULL%2,                    K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                    Clément%Poirault%NULL%1,                    Alice%Corsia%NULL%1,                    Fanny%Bajolle%NULL%2,                    Jacques%Fourgeaud%NULL%1,                    François%Angoulvant%NULL%1,                    Agathe%Debray%NULL%1,                    Romain%Basmaci%NULL%2,                    Elodie%Salvador%NULL%1,                    Sandra%Biscardi%NULL%1,                    Pierre%Frange%NULL%1,                    Martin%Chalumeau%NULL%1,                    Jean-Laurent%Casanova%NULL%2,                    Jean-Laurent%Casanova%NULL%0,                    Jérémie F%Cohen%NULL%1,                    Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                    Charlotte%Borocco%NULL%1,                    Naim%Ouldali%NULL%1,                    Marion%Caseris%NULL%2,                    Romain%Basmaci%NULL%0,                    Noémie%Lachaume%NULL%1,                    Philippe%Bensaid%NULL%1,                    Samia%Pichard%NULL%1,                    Hanane%Kouider%NULL%1,                    Guillaume%Morelle%NULL%1,                    Irina%Craiu%NULL%1,                    Corinne%Pondarre%NULL%1,                    Anna%Deho%NULL%1,                    Arielle%Maroni%NULL%1,                    Mehdi%Oualha%NULL%2,                    Zahir%Amoura%NULL%1,                    Julien%Haroche%NULL%1,                    Juliette%Chommeloux%NULL%1,                    Fanny%Bajolle%NULL%0,                    Constance%Beyler%NULL%2,                    Stéphane%Bonacorsi%NULL%1,                    Guislaine%Carcelain%NULL%1,                    Isabelle%Koné-Paut%NULL%1,                    Brigitte%Bader-Meunier%NULL%2,                    Brigitte%Bader-Meunier%NULL%0,                    Albert%Faye%NULL%3,                    Albert%Faye%NULL%0,                    Ulrich%Meinzer%NULL%2,                    Caroline%Galeotti%NULL%1,                    Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,            Mathilde%M\u00e9ot%xref no email%1,            Fanny%Bajolle%xref no email%1,            Diala%Khraiche%xref no email%1,            Antoine%Legendre%xref no email%1,            Samya%Abakka%xref no email%1,            Johanne%Auriau%xref no email%1,            Marion%Grimaud%xref no email%1,            Mehdi%Oualha%xref no email%1,            Maurice%Beghetti%xref no email%1,            Julie%Wacker%xref no email%1,            Caroline%Ovaert%xref no email%1,            Sebastien%Hascoet%xref no email%1,            Ma\u00eblle%Selegny%xref no email%1,            Sophie%Malekzadeh-Milani%xref no email%1,            Alice%Maltret%xref no email%1,            Gilles%Bosser%xref no email%1,            Nathan%Giroux%xref no email%1,            Laurent%Bonnemains%xref no email%1,            Jeanne%Bordet%xref no email%1,            Sylvie%Di Filippo%xref no email%1,            Pierre%Mauran%xref no email%1,            Sylvie%Falcon-Eicher%xref no email%1,            Jean-Beno\u00eet%Thambo%xref no email%1,            Bruno%Lefort%xref no email%1,            Pamela%Moceri%xref no email%1,            Lucile%Houyel%xref no email%1,            Sylvain%Renolleau%xref no email%1,            Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                    Oscar%Nolan%NULL%1,                    Chui Yi%Lai%NULL%1,                    Nanda%Prabhu%NULL%1,                    Raghu%Krishnamurthy%NULL%1,                    Alex G.%Richter%NULL%1,                    Deepthi%Jyothish%NULL%1,                    Hari Krishnan%Kanthimathinathan%NULL%2,                    Steven B.%Welch%NULL%1,                    Scott%Hackett%NULL%1,                    Eslam%Al-Abadi%NULL%1,                    Barnaby R.%Scholefield%NULL%1,                    Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                    Julie%Starck%NULL%1,                    Michael%Levy%NULL%1,                    Clémence%Marais%NULL%1,                    Judith%Chareyre%NULL%1,                    Diala%Khraiche%NULL%1,                    Marianne%Leruez-Ville%NULL%1,                    Pierre%Quartier%NULL%1,                    Pierre Louis%Léger%NULL%1,                    Guillaume%Geslain%NULL%1,                    Nada%Semaan%NULL%1,                    Florence%Moulin%NULL%1,                    Matthieu%Bendavid%NULL%1,                    Sandrine%Jean%NULL%1,                    Géraldine%Poncelet%NULL%1,                    Sylvain%Renolleau%NULL%1,                    Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                    Esra%Akkoyun%NULL%1,                    Eudys%Briceno‐Brito%NULL%1,                    Shanna%Kowalsky%NULL%0,                    James%Reed%NULL%1,                    Roberto%Posada%NULL%1,                    Emilia Mia%Sordillo%NULL%1,                    Michael%Tosi%NULL%1,                    Rebecca%Trachtman%NULL%0,                    Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                    Claire%Evans%NULL%1,                    Hari Krishnan%Kanthimathinathan%NULL%0,                    Jon%Lillie%NULL%1,                    Joseph%Brierley%NULL%1,                    Gareth%Waters%NULL%1,                    Mae%Johnson%NULL%1,                    Benedict%Griffiths%NULL%1,                    Pascale%du Pré%NULL%1,                    Zoha%Mohammad%NULL%1,                    Akash%Deep%NULL%1,                    Stephen%Playfor%NULL%1,                    Davinder%Singh%NULL%1,                    David%Inwald%NULL%1,                    Michelle%Jardine%NULL%1,                    Oliver%Ross%NULL%1,                    Nayan%Shetty%NULL%1,                    Mark%Worrall%NULL%1,                    Ruchi%Sinha%NULL%1,                    Ashwani%Koul%NULL%1,                    Elizabeth%Whittaker%NULL%1,                    Harish%Vyas%NULL%1,                    Barnaby R%Scholefield%NULL%1,                    Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                    Marie%Pouletty%NULL%1,                    Patricia%Mariani%NULL%1,                    Constance%Beyler%NULL%0,                    Audrey%Blachier%NULL%1,                    Stephane%Bonacorsi%NULL%1,                    Kostas%Danis%NULL%1,                    Maryline%Chomton%NULL%1,                    Laure%Maurice%NULL%1,                    Fleur%Le Bourgeois%NULL%1,                    Marion%Caseris%NULL%0,                    Jean%Gaschignard%NULL%1,                    Julie%Poline%NULL%1,                    Robert%Cohen%NULL%1,                    Luigi%Titomanlio%NULL%1,                    Albert%Faye%NULL%0,                    Isabelle%Melki%NULL%0,                    Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                    Erica B.%Rose%NULL%1,                    Steven M.%Horwitz%NULL%1,                    Jennifer P.%Collins%NULL%1,                    Margaret M.%Newhams%NULL%1,                    Mary Beth F.%Son%NULL%1,                    Jane W.%Newburger%NULL%1,                    Lawrence C.%Kleinman%NULL%1,                    Sabrina M.%Heidemann%NULL%1,                    Amarilis A.%Martin%NULL%2,                    Amarilis A.%Martin%NULL%0,                    Aalok R.%Singh%NULL%1,                    Simon%Li%NULL%1,                    Keiko M.%Tarquinio%NULL%1,                    Preeti%Jaggi%NULL%1,                    Matthew E.%Oster%NULL%1,                    Sheemon P.%Zackai%NULL%1,                    Jennifer%Gillen%NULL%1,                    Adam J.%Ratner%NULL%1,                    Rowan F.%Walsh%NULL%1,                    Julie C.%Fitzgerald%NULL%1,                    Michael A.%Keenaghan%NULL%1,                    Hussam%Alharash%NULL%1,                    Sule%Doymaz%NULL%1,                    Katharine N.%Clouser%NULL%1,                    John S.%Giuliano%NULL%1,                    Anjali%Gupta%NULL%1,                    Robert M.%Parker%NULL%1,                    Aline B.%Maddux%NULL%1,                    Vinod%Havalad%NULL%1,                    Stacy%Ramsingh%NULL%1,                    Hulya%Bukulmez%NULL%1,                    Tamara T.%Bradford%NULL%1,                    Lincoln S.%Smith%NULL%1,                    Mark W.%Tenforde%NULL%1,                    Christopher L.%Carroll%NULL%1,                    Becky J.%Riggs%NULL%1,                    Shira J.%Gertz%NULL%1,                    Ariel%Daube%NULL%1,                    Amanda%Lansell%NULL%2,                    Amanda%Lansell%NULL%0,                    Alvaro%Coronado Munoz%NULL%1,                    Charlotte V.%Hobbs%NULL%2,                    Charlotte V.%Hobbs%NULL%0,                    Kimberly L.%Marohn%NULL%1,                    Natasha B.%Halasa%NULL%1,                    Manish M.%Patel%NULL%1,                    Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1831,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1783,7 +1843,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
@@ -1800,7 +1860,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1812,7 +1872,7 @@
         <v>207</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
@@ -1841,7 +1901,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +1918,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1870,7 +1930,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
@@ -1887,7 +1947,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1899,7 +1959,7 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7">
@@ -1916,7 +1976,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1928,7 +1988,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
@@ -1945,7 +2005,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1957,7 +2017,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9">
@@ -1974,7 +2034,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1986,7 +2046,7 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10">
@@ -2003,7 +2063,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2015,7 +2075,7 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11">
@@ -2032,7 +2092,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2044,7 +2104,7 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12">
@@ -2061,7 +2121,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2073,7 +2133,7 @@
         <v>218</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
@@ -2090,7 +2150,7 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2102,7 +2162,7 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14">
@@ -2119,7 +2179,7 @@
         <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2131,7 +2191,7 @@
         <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15">
@@ -2148,7 +2208,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2160,7 +2220,7 @@
         <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16">
@@ -2177,7 +2237,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2189,7 +2249,7 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17">
@@ -2206,7 +2266,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2218,7 +2278,7 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18">
@@ -2235,7 +2295,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2247,7 +2307,7 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="423">
   <si>
     <t>Doi</t>
   </si>
@@ -1500,6 +1500,54 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,                    Erica B.%Rose%NULL%1,                    Steven M.%Horwitz%NULL%1,                    Jennifer P.%Collins%NULL%1,                    Margaret M.%Newhams%NULL%1,                    Mary Beth F.%Son%NULL%1,                    Jane W.%Newburger%NULL%1,                    Lawrence C.%Kleinman%NULL%1,                    Sabrina M.%Heidemann%NULL%1,                    Amarilis A.%Martin%NULL%2,                    Amarilis A.%Martin%NULL%0,                    Aalok R.%Singh%NULL%1,                    Simon%Li%NULL%1,                    Keiko M.%Tarquinio%NULL%1,                    Preeti%Jaggi%NULL%1,                    Matthew E.%Oster%NULL%1,                    Sheemon P.%Zackai%NULL%1,                    Jennifer%Gillen%NULL%1,                    Adam J.%Ratner%NULL%1,                    Rowan F.%Walsh%NULL%1,                    Julie C.%Fitzgerald%NULL%1,                    Michael A.%Keenaghan%NULL%1,                    Hussam%Alharash%NULL%1,                    Sule%Doymaz%NULL%1,                    Katharine N.%Clouser%NULL%1,                    John S.%Giuliano%NULL%1,                    Anjali%Gupta%NULL%1,                    Robert M.%Parker%NULL%1,                    Aline B.%Maddux%NULL%1,                    Vinod%Havalad%NULL%1,                    Stacy%Ramsingh%NULL%1,                    Hulya%Bukulmez%NULL%1,                    Tamara T.%Bradford%NULL%1,                    Lincoln S.%Smith%NULL%1,                    Mark W.%Tenforde%NULL%1,                    Christopher L.%Carroll%NULL%1,                    Becky J.%Riggs%NULL%1,                    Shira J.%Gertz%NULL%1,                    Ariel%Daube%NULL%1,                    Amanda%Lansell%NULL%2,                    Amanda%Lansell%NULL%0,                    Alvaro%Coronado Munoz%NULL%1,                    Charlotte V.%Hobbs%NULL%2,                    Charlotte V.%Hobbs%NULL%0,                    Kimberly L.%Marohn%NULL%1,                    Natasha B.%Halasa%NULL%1,                    Manish M.%Patel%NULL%1,                    Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                     Angelo%Mazza%NULL%1,                     Annalisa%Gervasoni%NULL%1,                     Laura%Martelli%NULL%1,                     Maurizio%Ruggeri%NULL%1,                     Matteo%Ciuffreda%NULL%1,                     Ezio%Bonanomi%NULL%1,                     Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%1,             Philip%Zachariah%xref no email%1,             Mark%Gorelik%xref no email%1,             Alexis%Boneparth%xref no email%1,             Steven G.%Kernie%xref no email%1,             Jordan S.%Orange%xref no email%1,             Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                     Scott I.%Aydin%NULL%1,                     Kim R.%Derespina%NULL%0,                     Prerna B.%Bansal%NULL%1,                     Shanna%Kowalsky%NULL%2,                     Rebecca%Trachtman%NULL%2,                     Jennifer K.%Gillen%NULL%1,                     Michelle M.%Perez%NULL%1,                     Sara H.%Soshnick%NULL%1,                     Edward E.%Conway%NULL%1,                     Asher%Bercow%NULL%1,                     Howard S.%Seiden%NULL%1,                     Robert H.%Pass%NULL%1,                     Henry M.%Ushay%NULL%0,                     George%Ofori-Amanfo%NULL%1,                     Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                     Amanda%Cantor%NULL%1,                     Philip%Zachariah%NULL%1,                     Danielle%Ahn%NULL%1,                     Mercedes%Martinez%NULL%1,                     Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                     John C.%Smulian%NULL%1,                     John A.%Lednicky%NULL%1,                     Tony S.%Wen%NULL%1,                     Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                     Emilia H.%Koumans%NULL%1,                     Eric J.%Chow%NULL%1,                     Elizabeth M.%Rosenthal%NULL%2,                     Elizabeth M.%Rosenthal%NULL%0,                     Alison%Muse%NULL%2,                     Alison%Muse%NULL%0,                     Jemma%Rowlands%NULL%1,                     Meredith A.%Barranco%NULL%1,                     Angela M.%Maxted%NULL%1,                     Eli S.%Rosenberg%NULL%1,                     Delia%Easton%NULL%1,                     Tomoko%Udo%NULL%1,                     Jessica%Kumar%NULL%1,                     Wendy%Pulver%NULL%1,                     Lou%Smith%NULL%1,                     Brad%Hutton%NULL%1,                     Debra%Blog%NULL%1,                     Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                     Heba%Elbaaly%NULL%2,                     Heba%Elbaaly%NULL%0,                     Catriona E. L.%Reid%NULL%2,                     Catriona E. L.%Reid%NULL%0,                     Rui M. F.%Santos%NULL%2,                     Rui M. F.%Santos%NULL%0,                     Vinay%Shivamurthy%NULL%2,                     Vinay%Shivamurthy%NULL%0,                     James%Wong%NULL%1,                     K. Haran%Jogeesvaran%NULL%2,                     K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                     Clément%Poirault%NULL%1,                     Alice%Corsia%NULL%1,                     Fanny%Bajolle%NULL%2,                     Jacques%Fourgeaud%NULL%1,                     François%Angoulvant%NULL%1,                     Agathe%Debray%NULL%1,                     Romain%Basmaci%NULL%2,                     Elodie%Salvador%NULL%1,                     Sandra%Biscardi%NULL%1,                     Pierre%Frange%NULL%1,                     Martin%Chalumeau%NULL%1,                     Jean-Laurent%Casanova%NULL%2,                     Jean-Laurent%Casanova%NULL%0,                     Jérémie F%Cohen%NULL%1,                     Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                     Charlotte%Borocco%NULL%1,                     Naim%Ouldali%NULL%1,                     Marion%Caseris%NULL%2,                     Romain%Basmaci%NULL%0,                     Noémie%Lachaume%NULL%1,                     Philippe%Bensaid%NULL%1,                     Samia%Pichard%NULL%1,                     Hanane%Kouider%NULL%1,                     Guillaume%Morelle%NULL%1,                     Irina%Craiu%NULL%1,                     Corinne%Pondarre%NULL%1,                     Anna%Deho%NULL%1,                     Arielle%Maroni%NULL%1,                     Mehdi%Oualha%NULL%2,                     Zahir%Amoura%NULL%1,                     Julien%Haroche%NULL%1,                     Juliette%Chommeloux%NULL%1,                     Fanny%Bajolle%NULL%0,                     Constance%Beyler%NULL%2,                     Stéphane%Bonacorsi%NULL%1,                     Guislaine%Carcelain%NULL%1,                     Isabelle%Koné-Paut%NULL%1,                     Brigitte%Bader-Meunier%NULL%2,                     Brigitte%Bader-Meunier%NULL%0,                     Albert%Faye%NULL%3,                     Albert%Faye%NULL%0,                     Ulrich%Meinzer%NULL%2,                     Caroline%Galeotti%NULL%1,                     Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%1,             Mathilde%M\u00e9ot%xref no email%1,             Fanny%Bajolle%xref no email%1,             Diala%Khraiche%xref no email%1,             Antoine%Legendre%xref no email%1,             Samya%Abakka%xref no email%1,             Johanne%Auriau%xref no email%1,             Marion%Grimaud%xref no email%1,             Mehdi%Oualha%xref no email%1,             Maurice%Beghetti%xref no email%1,             Julie%Wacker%xref no email%1,             Caroline%Ovaert%xref no email%1,             Sebastien%Hascoet%xref no email%1,             Ma\u00eblle%Selegny%xref no email%1,             Sophie%Malekzadeh-Milani%xref no email%1,             Alice%Maltret%xref no email%1,             Gilles%Bosser%xref no email%1,             Nathan%Giroux%xref no email%1,             Laurent%Bonnemains%xref no email%1,             Jeanne%Bordet%xref no email%1,             Sylvie%Di Filippo%xref no email%1,             Pierre%Mauran%xref no email%1,             Sylvie%Falcon-Eicher%xref no email%1,             Jean-Beno\u00eet%Thambo%xref no email%1,             Bruno%Lefort%xref no email%1,             Pamela%Moceri%xref no email%1,             Lucile%Houyel%xref no email%1,             Sylvain%Renolleau%xref no email%1,             Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                     Oscar%Nolan%NULL%1,                     Chui Yi%Lai%NULL%1,                     Nanda%Prabhu%NULL%1,                     Raghu%Krishnamurthy%NULL%1,                     Alex G.%Richter%NULL%1,                     Deepthi%Jyothish%NULL%1,                     Hari Krishnan%Kanthimathinathan%NULL%2,                     Steven B.%Welch%NULL%1,                     Scott%Hackett%NULL%1,                     Eslam%Al-Abadi%NULL%1,                     Barnaby R.%Scholefield%NULL%1,                     Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                     Julie%Starck%NULL%1,                     Michael%Levy%NULL%1,                     Clémence%Marais%NULL%1,                     Judith%Chareyre%NULL%1,                     Diala%Khraiche%NULL%1,                     Marianne%Leruez-Ville%NULL%1,                     Pierre%Quartier%NULL%1,                     Pierre Louis%Léger%NULL%1,                     Guillaume%Geslain%NULL%1,                     Nada%Semaan%NULL%1,                     Florence%Moulin%NULL%1,                     Matthieu%Bendavid%NULL%1,                     Sandrine%Jean%NULL%1,                     Géraldine%Poncelet%NULL%1,                     Sylvain%Renolleau%NULL%1,                     Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                     Esra%Akkoyun%NULL%1,                     Eudys%Briceno‐Brito%NULL%1,                     Shanna%Kowalsky%NULL%0,                     James%Reed%NULL%1,                     Roberto%Posada%NULL%1,                     Emilia Mia%Sordillo%NULL%1,                     Michael%Tosi%NULL%1,                     Rebecca%Trachtman%NULL%0,                     Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                     Claire%Evans%NULL%1,                     Hari Krishnan%Kanthimathinathan%NULL%0,                     Jon%Lillie%NULL%1,                     Joseph%Brierley%NULL%1,                     Gareth%Waters%NULL%1,                     Mae%Johnson%NULL%1,                     Benedict%Griffiths%NULL%1,                     Pascale%du Pré%NULL%1,                     Zoha%Mohammad%NULL%1,                     Akash%Deep%NULL%1,                     Stephen%Playfor%NULL%1,                     Davinder%Singh%NULL%1,                     David%Inwald%NULL%1,                     Michelle%Jardine%NULL%1,                     Oliver%Ross%NULL%1,                     Nayan%Shetty%NULL%1,                     Mark%Worrall%NULL%1,                     Ruchi%Sinha%NULL%1,                     Ashwani%Koul%NULL%1,                     Elizabeth%Whittaker%NULL%1,                     Harish%Vyas%NULL%1,                     Barnaby R%Scholefield%NULL%1,                     Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                     Marie%Pouletty%NULL%1,                     Patricia%Mariani%NULL%1,                     Constance%Beyler%NULL%0,                     Audrey%Blachier%NULL%1,                     Stephane%Bonacorsi%NULL%1,                     Kostas%Danis%NULL%1,                     Maryline%Chomton%NULL%1,                     Laure%Maurice%NULL%1,                     Fleur%Le Bourgeois%NULL%1,                     Marion%Caseris%NULL%0,                     Jean%Gaschignard%NULL%1,                     Julie%Poline%NULL%1,                     Robert%Cohen%NULL%1,                     Luigi%Titomanlio%NULL%1,                     Albert%Faye%NULL%0,                     Isabelle%Melki%NULL%0,                     Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                     Erica B.%Rose%NULL%1,                     Steven M.%Horwitz%NULL%1,                     Jennifer P.%Collins%NULL%1,                     Margaret M.%Newhams%NULL%1,                     Mary Beth F.%Son%NULL%1,                     Jane W.%Newburger%NULL%1,                     Lawrence C.%Kleinman%NULL%1,                     Sabrina M.%Heidemann%NULL%1,                     Amarilis A.%Martin%NULL%2,                     Amarilis A.%Martin%NULL%0,                     Aalok R.%Singh%NULL%1,                     Simon%Li%NULL%1,                     Keiko M.%Tarquinio%NULL%1,                     Preeti%Jaggi%NULL%1,                     Matthew E.%Oster%NULL%1,                     Sheemon P.%Zackai%NULL%1,                     Jennifer%Gillen%NULL%1,                     Adam J.%Ratner%NULL%1,                     Rowan F.%Walsh%NULL%1,                     Julie C.%Fitzgerald%NULL%1,                     Michael A.%Keenaghan%NULL%1,                     Hussam%Alharash%NULL%1,                     Sule%Doymaz%NULL%1,                     Katharine N.%Clouser%NULL%1,                     John S.%Giuliano%NULL%1,                     Anjali%Gupta%NULL%1,                     Robert M.%Parker%NULL%1,                     Aline B.%Maddux%NULL%1,                     Vinod%Havalad%NULL%1,                     Stacy%Ramsingh%NULL%1,                     Hulya%Bukulmez%NULL%1,                     Tamara T.%Bradford%NULL%1,                     Lincoln S.%Smith%NULL%1,                     Mark W.%Tenforde%NULL%1,                     Christopher L.%Carroll%NULL%1,                     Becky J.%Riggs%NULL%1,                     Shira J.%Gertz%NULL%1,                     Ariel%Daube%NULL%1,                     Amanda%Lansell%NULL%2,                     Amanda%Lansell%NULL%0,                     Alvaro%Coronado Munoz%NULL%1,                     Charlotte V.%Hobbs%NULL%2,                     Charlotte V.%Hobbs%NULL%0,                     Kimberly L.%Marohn%NULL%1,                     Natasha B.%Halasa%NULL%1,                     Manish M.%Patel%NULL%1,                     Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1879,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1860,7 +1908,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1918,7 +1966,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1947,7 +1995,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1976,7 +2024,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2005,7 +2053,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -2034,7 +2082,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2063,7 +2111,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2092,7 +2140,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2121,7 +2169,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2150,7 +2198,7 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2179,7 +2227,7 @@
         <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2208,7 +2256,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2237,7 +2285,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2266,7 +2314,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2295,7 +2343,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="499">
   <si>
     <t>Doi</t>
   </si>
@@ -1548,6 +1548,234 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,                     Erica B.%Rose%NULL%1,                     Steven M.%Horwitz%NULL%1,                     Jennifer P.%Collins%NULL%1,                     Margaret M.%Newhams%NULL%1,                     Mary Beth F.%Son%NULL%1,                     Jane W.%Newburger%NULL%1,                     Lawrence C.%Kleinman%NULL%1,                     Sabrina M.%Heidemann%NULL%1,                     Amarilis A.%Martin%NULL%2,                     Amarilis A.%Martin%NULL%0,                     Aalok R.%Singh%NULL%1,                     Simon%Li%NULL%1,                     Keiko M.%Tarquinio%NULL%1,                     Preeti%Jaggi%NULL%1,                     Matthew E.%Oster%NULL%1,                     Sheemon P.%Zackai%NULL%1,                     Jennifer%Gillen%NULL%1,                     Adam J.%Ratner%NULL%1,                     Rowan F.%Walsh%NULL%1,                     Julie C.%Fitzgerald%NULL%1,                     Michael A.%Keenaghan%NULL%1,                     Hussam%Alharash%NULL%1,                     Sule%Doymaz%NULL%1,                     Katharine N.%Clouser%NULL%1,                     John S.%Giuliano%NULL%1,                     Anjali%Gupta%NULL%1,                     Robert M.%Parker%NULL%1,                     Aline B.%Maddux%NULL%1,                     Vinod%Havalad%NULL%1,                     Stacy%Ramsingh%NULL%1,                     Hulya%Bukulmez%NULL%1,                     Tamara T.%Bradford%NULL%1,                     Lincoln S.%Smith%NULL%1,                     Mark W.%Tenforde%NULL%1,                     Christopher L.%Carroll%NULL%1,                     Becky J.%Riggs%NULL%1,                     Shira J.%Gertz%NULL%1,                     Ariel%Daube%NULL%1,                     Amanda%Lansell%NULL%2,                     Amanda%Lansell%NULL%0,                     Alvaro%Coronado Munoz%NULL%1,                     Charlotte V.%Hobbs%NULL%2,                     Charlotte V.%Hobbs%NULL%0,                     Kimberly L.%Marohn%NULL%1,                     Natasha B.%Halasa%NULL%1,                     Manish M.%Patel%NULL%1,                     Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                      Angelo%Mazza%NULL%1,                      Annalisa%Gervasoni%NULL%1,                      Laura%Martelli%NULL%1,                      Maurizio%Ruggeri%NULL%1,                      Matteo%Ciuffreda%NULL%1,                      Ezio%Bonanomi%NULL%1,                      Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eva W.%Cheung%xref no email%0, Philip%Zachariah%xref no email%1, Mark%Gorelik%xref no email%1, Alexis%Boneparth%xref no email%1, Steven G.%Kernie%xref no email%1, Jordan S.%Orange%xref no email%1, Joshua D.%Milner%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                      Scott I.%Aydin%NULL%1,                      Kim R.%Derespina%NULL%0,                      Prerna B.%Bansal%NULL%1,                      Shanna%Kowalsky%NULL%2,                      Rebecca%Trachtman%NULL%2,                      Jennifer K.%Gillen%NULL%1,                      Michelle M.%Perez%NULL%1,                      Sara H.%Soshnick%NULL%1,                      Edward E.%Conway%NULL%1,                      Asher%Bercow%NULL%1,                      Howard S.%Seiden%NULL%1,                      Robert H.%Pass%NULL%1,                      Henry M.%Ushay%NULL%0,                      George%Ofori-Amanfo%NULL%1,                      Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                      Amanda%Cantor%NULL%1,                      Philip%Zachariah%NULL%1,                      Danielle%Ahn%NULL%1,                      Mercedes%Martinez%NULL%1,                      Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                      John C.%Smulian%NULL%1,                      John A.%Lednicky%NULL%1,                      Tony S.%Wen%NULL%1,                      Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%2,                      Emilia H.%Koumans%NULL%1,                      Eric J.%Chow%NULL%1,                      Elizabeth M.%Rosenthal%NULL%2,                      Elizabeth M.%Rosenthal%NULL%0,                      Alison%Muse%NULL%2,                      Alison%Muse%NULL%0,                      Jemma%Rowlands%NULL%1,                      Meredith A.%Barranco%NULL%1,                      Angela M.%Maxted%NULL%1,                      Eli S.%Rosenberg%NULL%1,                      Delia%Easton%NULL%1,                      Tomoko%Udo%NULL%1,                      Jessica%Kumar%NULL%1,                      Wendy%Pulver%NULL%1,                      Lou%Smith%NULL%1,                      Brad%Hutton%NULL%1,                      Debra%Blog%NULL%1,                      Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                      Heba%Elbaaly%NULL%2,                      Heba%Elbaaly%NULL%0,                      Catriona E. L.%Reid%NULL%2,                      Catriona E. L.%Reid%NULL%0,                      Rui M. F.%Santos%NULL%2,                      Rui M. F.%Santos%NULL%0,                      Vinay%Shivamurthy%NULL%2,                      Vinay%Shivamurthy%NULL%0,                      James%Wong%NULL%1,                      K. Haran%Jogeesvaran%NULL%2,                      K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                      Clément%Poirault%NULL%1,                      Alice%Corsia%NULL%1,                      Fanny%Bajolle%NULL%2,                      Jacques%Fourgeaud%NULL%1,                      François%Angoulvant%NULL%1,                      Agathe%Debray%NULL%1,                      Romain%Basmaci%NULL%2,                      Elodie%Salvador%NULL%1,                      Sandra%Biscardi%NULL%1,                      Pierre%Frange%NULL%1,                      Martin%Chalumeau%NULL%1,                      Jean-Laurent%Casanova%NULL%2,                      Jean-Laurent%Casanova%NULL%0,                      Jérémie F%Cohen%NULL%1,                      Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                      Charlotte%Borocco%NULL%1,                      Naim%Ouldali%NULL%1,                      Marion%Caseris%NULL%2,                      Romain%Basmaci%NULL%0,                      Noémie%Lachaume%NULL%1,                      Philippe%Bensaid%NULL%1,                      Samia%Pichard%NULL%1,                      Hanane%Kouider%NULL%1,                      Guillaume%Morelle%NULL%1,                      Irina%Craiu%NULL%1,                      Corinne%Pondarre%NULL%1,                      Anna%Deho%NULL%1,                      Arielle%Maroni%NULL%1,                      Mehdi%Oualha%NULL%2,                      Zahir%Amoura%NULL%1,                      Julien%Haroche%NULL%1,                      Juliette%Chommeloux%NULL%1,                      Fanny%Bajolle%NULL%0,                      Constance%Beyler%NULL%2,                      Stéphane%Bonacorsi%NULL%1,                      Guislaine%Carcelain%NULL%1,                      Isabelle%Koné-Paut%NULL%1,                      Brigitte%Bader-Meunier%NULL%2,                      Brigitte%Bader-Meunier%NULL%0,                      Albert%Faye%NULL%3,                      Albert%Faye%NULL%0,                      Ulrich%Meinzer%NULL%2,                      Caroline%Galeotti%NULL%1,                      Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zahra%Belhadjer%xref no email%0, Mathilde%M\u00e9ot%xref no email%1, Fanny%Bajolle%xref no email%1, Diala%Khraiche%xref no email%1, Antoine%Legendre%xref no email%1, Samya%Abakka%xref no email%1, Johanne%Auriau%xref no email%1, Marion%Grimaud%xref no email%0, Mehdi%Oualha%xref no email%1, Maurice%Beghetti%xref no email%1, Julie%Wacker%xref no email%1, Caroline%Ovaert%xref no email%1, Sebastien%Hascoet%xref no email%1, Ma\u00eblle%Selegny%xref no email%1, Sophie%Malekzadeh-Milani%xref no email%1, Alice%Maltret%xref no email%1, Gilles%Bosser%xref no email%1, Nathan%Giroux%xref no email%1, Laurent%Bonnemains%xref no email%1, Jeanne%Bordet%xref no email%1, Sylvie%Di Filippo%xref no email%1, Pierre%Mauran%xref no email%1, Sylvie%Falcon-Eicher%xref no email%1, Jean-Beno\u00eet%Thambo%xref no email%1, Bruno%Lefort%xref no email%1, Pamela%Moceri%xref no email%1, Lucile%Houyel%xref no email%1, Sylvain%Renolleau%xref no email%1, Damien%Bonnet%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                      Oscar%Nolan%NULL%1,                      Chui Yi%Lai%NULL%1,                      Nanda%Prabhu%NULL%1,                      Raghu%Krishnamurthy%NULL%1,                      Alex G.%Richter%NULL%1,                      Deepthi%Jyothish%NULL%1,                      Hari Krishnan%Kanthimathinathan%NULL%2,                      Steven B.%Welch%NULL%1,                      Scott%Hackett%NULL%1,                      Eslam%Al-Abadi%NULL%1,                      Barnaby R.%Scholefield%NULL%1,                      Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                      Julie%Starck%NULL%1,                      Michael%Levy%NULL%1,                      Clémence%Marais%NULL%1,                      Judith%Chareyre%NULL%1,                      Diala%Khraiche%NULL%1,                      Marianne%Leruez-Ville%NULL%1,                      Pierre%Quartier%NULL%1,                      Pierre Louis%Léger%NULL%1,                      Guillaume%Geslain%NULL%1,                      Nada%Semaan%NULL%1,                      Florence%Moulin%NULL%1,                      Matthieu%Bendavid%NULL%1,                      Sandrine%Jean%NULL%1,                      Géraldine%Poncelet%NULL%1,                      Sylvain%Renolleau%NULL%1,                      Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                      Esra%Akkoyun%NULL%1,                      Eudys%Briceno‐Brito%NULL%1,                      Shanna%Kowalsky%NULL%0,                      James%Reed%NULL%1,                      Roberto%Posada%NULL%1,                      Emilia Mia%Sordillo%NULL%1,                      Michael%Tosi%NULL%1,                      Rebecca%Trachtman%NULL%0,                      Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                      Claire%Evans%NULL%1,                      Hari Krishnan%Kanthimathinathan%NULL%0,                      Jon%Lillie%NULL%1,                      Joseph%Brierley%NULL%1,                      Gareth%Waters%NULL%1,                      Mae%Johnson%NULL%1,                      Benedict%Griffiths%NULL%1,                      Pascale%du Pré%NULL%1,                      Zoha%Mohammad%NULL%1,                      Akash%Deep%NULL%1,                      Stephen%Playfor%NULL%1,                      Davinder%Singh%NULL%1,                      David%Inwald%NULL%1,                      Michelle%Jardine%NULL%1,                      Oliver%Ross%NULL%1,                      Nayan%Shetty%NULL%1,                      Mark%Worrall%NULL%1,                      Ruchi%Sinha%NULL%1,                      Ashwani%Koul%NULL%1,                      Elizabeth%Whittaker%NULL%1,                      Harish%Vyas%NULL%1,                      Barnaby R%Scholefield%NULL%1,                      Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                      Marie%Pouletty%NULL%1,                      Patricia%Mariani%NULL%1,                      Constance%Beyler%NULL%0,                      Audrey%Blachier%NULL%1,                      Stephane%Bonacorsi%NULL%1,                      Kostas%Danis%NULL%1,                      Maryline%Chomton%NULL%1,                      Laure%Maurice%NULL%1,                      Fleur%Le Bourgeois%NULL%1,                      Marion%Caseris%NULL%0,                      Jean%Gaschignard%NULL%1,                      Julie%Poline%NULL%1,                      Robert%Cohen%NULL%1,                      Luigi%Titomanlio%NULL%1,                      Albert%Faye%NULL%0,                      Isabelle%Melki%NULL%0,                      Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                      Erica B.%Rose%NULL%1,                      Steven M.%Horwitz%NULL%1,                      Jennifer P.%Collins%NULL%1,                      Margaret M.%Newhams%NULL%1,                      Mary Beth F.%Son%NULL%1,                      Jane W.%Newburger%NULL%1,                      Lawrence C.%Kleinman%NULL%1,                      Sabrina M.%Heidemann%NULL%1,                      Amarilis A.%Martin%NULL%2,                      Amarilis A.%Martin%NULL%0,                      Aalok R.%Singh%NULL%1,                      Simon%Li%NULL%1,                      Keiko M.%Tarquinio%NULL%1,                      Preeti%Jaggi%NULL%1,                      Matthew E.%Oster%NULL%1,                      Sheemon P.%Zackai%NULL%1,                      Jennifer%Gillen%NULL%1,                      Adam J.%Ratner%NULL%1,                      Rowan F.%Walsh%NULL%1,                      Julie C.%Fitzgerald%NULL%1,                      Michael A.%Keenaghan%NULL%1,                      Hussam%Alharash%NULL%1,                      Sule%Doymaz%NULL%1,                      Katharine N.%Clouser%NULL%1,                      John S.%Giuliano%NULL%1,                      Anjali%Gupta%NULL%1,                      Robert M.%Parker%NULL%1,                      Aline B.%Maddux%NULL%1,                      Vinod%Havalad%NULL%1,                      Stacy%Ramsingh%NULL%1,                      Hulya%Bukulmez%NULL%1,                      Tamara T.%Bradford%NULL%1,                      Lincoln S.%Smith%NULL%1,                      Mark W.%Tenforde%NULL%1,                      Christopher L.%Carroll%NULL%1,                      Becky J.%Riggs%NULL%1,                      Shira J.%Gertz%NULL%1,                      Ariel%Daube%NULL%1,                      Amanda%Lansell%NULL%2,                      Amanda%Lansell%NULL%0,                      Alvaro%Coronado Munoz%NULL%1,                      Charlotte V.%Hobbs%NULL%2,                      Charlotte V.%Hobbs%NULL%0,                      Kimberly L.%Marohn%NULL%1,                      Natasha B.%Halasa%NULL%1,                      Manish M.%Patel%NULL%1,                      Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                       Angelo%Mazza%NULL%1,                       Annalisa%Gervasoni%NULL%1,                       Laura%Martelli%NULL%1,                       Maurizio%Ruggeri%NULL%1,                       Matteo%Ciuffreda%NULL%1,                       Ezio%Bonanomi%NULL%1,                       Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                       Scott I.%Aydin%NULL%1,                       Kim R.%Derespina%NULL%0,                       Prerna B.%Bansal%NULL%1,                       Shanna%Kowalsky%NULL%2,                       Rebecca%Trachtman%NULL%2,                       Jennifer K.%Gillen%NULL%1,                       Michelle M.%Perez%NULL%1,                       Sara H.%Soshnick%NULL%1,                       Edward E.%Conway%NULL%1,                       Asher%Bercow%NULL%1,                       Howard S.%Seiden%NULL%1,                       Robert H.%Pass%NULL%1,                       Henry M.%Ushay%NULL%0,                       George%Ofori-Amanfo%NULL%1,                       Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                       Amanda%Cantor%NULL%1,                       Philip%Zachariah%NULL%1,                       Danielle%Ahn%NULL%1,                       Mercedes%Martinez%NULL%1,                       Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                       John C.%Smulian%NULL%1,                       John A.%Lednicky%NULL%1,                       Tony S.%Wen%NULL%1,                       Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                       Emilia H.%Koumans%NULL%1,                       Eric J.%Chow%NULL%1,                       Elizabeth M.%Rosenthal%NULL%2,                       Elizabeth M.%Rosenthal%NULL%0,                       Alison%Muse%NULL%2,                       Alison%Muse%NULL%0,                       Jemma%Rowlands%NULL%1,                       Meredith A.%Barranco%NULL%1,                       Angela M.%Maxted%NULL%1,                       Eli S.%Rosenberg%NULL%1,                       Delia%Easton%NULL%1,                       Tomoko%Udo%NULL%1,                       Jessica%Kumar%NULL%1,                       Wendy%Pulver%NULL%1,                       Lou%Smith%NULL%1,                       Brad%Hutton%NULL%1,                       Debra%Blog%NULL%1,                       Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                       Heba%Elbaaly%NULL%2,                       Heba%Elbaaly%NULL%0,                       Catriona E. L.%Reid%NULL%2,                       Catriona E. L.%Reid%NULL%0,                       Rui M. F.%Santos%NULL%2,                       Rui M. F.%Santos%NULL%0,                       Vinay%Shivamurthy%NULL%2,                       Vinay%Shivamurthy%NULL%0,                       James%Wong%NULL%1,                       K. Haran%Jogeesvaran%NULL%2,                       K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                       Clément%Poirault%NULL%1,                       Alice%Corsia%NULL%1,                       Fanny%Bajolle%NULL%2,                       Jacques%Fourgeaud%NULL%1,                       François%Angoulvant%NULL%1,                       Agathe%Debray%NULL%1,                       Romain%Basmaci%NULL%2,                       Elodie%Salvador%NULL%1,                       Sandra%Biscardi%NULL%1,                       Pierre%Frange%NULL%1,                       Martin%Chalumeau%NULL%1,                       Jean-Laurent%Casanova%NULL%2,                       Jean-Laurent%Casanova%NULL%0,                       Jérémie F%Cohen%NULL%1,                       Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                       Charlotte%Borocco%NULL%1,                       Naim%Ouldali%NULL%1,                       Marion%Caseris%NULL%2,                       Romain%Basmaci%NULL%0,                       Noémie%Lachaume%NULL%1,                       Philippe%Bensaid%NULL%1,                       Samia%Pichard%NULL%1,                       Hanane%Kouider%NULL%1,                       Guillaume%Morelle%NULL%1,                       Irina%Craiu%NULL%1,                       Corinne%Pondarre%NULL%1,                       Anna%Deho%NULL%1,                       Arielle%Maroni%NULL%1,                       Mehdi%Oualha%NULL%2,                       Zahir%Amoura%NULL%1,                       Julien%Haroche%NULL%1,                       Juliette%Chommeloux%NULL%1,                       Fanny%Bajolle%NULL%0,                       Constance%Beyler%NULL%2,                       Stéphane%Bonacorsi%NULL%1,                       Guislaine%Carcelain%NULL%1,                       Isabelle%Koné-Paut%NULL%1,                       Brigitte%Bader-Meunier%NULL%2,                       Brigitte%Bader-Meunier%NULL%0,                       Albert%Faye%NULL%3,                       Albert%Faye%NULL%0,                       Ulrich%Meinzer%NULL%2,                       Caroline%Galeotti%NULL%1,                       Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                       Oscar%Nolan%NULL%1,                       Chui Yi%Lai%NULL%1,                       Nanda%Prabhu%NULL%1,                       Raghu%Krishnamurthy%NULL%1,                       Alex G.%Richter%NULL%1,                       Deepthi%Jyothish%NULL%1,                       Hari Krishnan%Kanthimathinathan%NULL%2,                       Steven B.%Welch%NULL%1,                       Scott%Hackett%NULL%1,                       Eslam%Al-Abadi%NULL%1,                       Barnaby R.%Scholefield%NULL%1,                       Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                       Julie%Starck%NULL%1,                       Michael%Levy%NULL%1,                       Clémence%Marais%NULL%1,                       Judith%Chareyre%NULL%1,                       Diala%Khraiche%NULL%1,                       Marianne%Leruez-Ville%NULL%1,                       Pierre%Quartier%NULL%1,                       Pierre Louis%Léger%NULL%1,                       Guillaume%Geslain%NULL%1,                       Nada%Semaan%NULL%1,                       Florence%Moulin%NULL%1,                       Matthieu%Bendavid%NULL%1,                       Sandrine%Jean%NULL%1,                       Géraldine%Poncelet%NULL%1,                       Sylvain%Renolleau%NULL%1,                       Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                       Esra%Akkoyun%NULL%1,                       Eudys%Briceno‐Brito%NULL%1,                       Shanna%Kowalsky%NULL%0,                       James%Reed%NULL%1,                       Roberto%Posada%NULL%1,                       Emilia Mia%Sordillo%NULL%1,                       Michael%Tosi%NULL%1,                       Rebecca%Trachtman%NULL%0,                       Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                       Claire%Evans%NULL%1,                       Hari Krishnan%Kanthimathinathan%NULL%0,                       Jon%Lillie%NULL%1,                       Joseph%Brierley%NULL%1,                       Gareth%Waters%NULL%1,                       Mae%Johnson%NULL%1,                       Benedict%Griffiths%NULL%1,                       Pascale%du Pré%NULL%1,                       Zoha%Mohammad%NULL%1,                       Akash%Deep%NULL%1,                       Stephen%Playfor%NULL%1,                       Davinder%Singh%NULL%1,                       David%Inwald%NULL%1,                       Michelle%Jardine%NULL%1,                       Oliver%Ross%NULL%1,                       Nayan%Shetty%NULL%1,                       Mark%Worrall%NULL%1,                       Ruchi%Sinha%NULL%1,                       Ashwani%Koul%NULL%1,                       Elizabeth%Whittaker%NULL%1,                       Harish%Vyas%NULL%1,                       Barnaby R%Scholefield%NULL%1,                       Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                       Marie%Pouletty%NULL%1,                       Patricia%Mariani%NULL%1,                       Constance%Beyler%NULL%0,                       Audrey%Blachier%NULL%1,                       Stephane%Bonacorsi%NULL%1,                       Kostas%Danis%NULL%1,                       Maryline%Chomton%NULL%1,                       Laure%Maurice%NULL%1,                       Fleur%Le Bourgeois%NULL%1,                       Marion%Caseris%NULL%0,                       Jean%Gaschignard%NULL%1,                       Julie%Poline%NULL%1,                       Robert%Cohen%NULL%1,                       Luigi%Titomanlio%NULL%1,                       Albert%Faye%NULL%0,                       Isabelle%Melki%NULL%0,                       Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                       Erica B.%Rose%NULL%1,                       Steven M.%Horwitz%NULL%1,                       Jennifer P.%Collins%NULL%1,                       Margaret M.%Newhams%NULL%1,                       Mary Beth F.%Son%NULL%1,                       Jane W.%Newburger%NULL%1,                       Lawrence C.%Kleinman%NULL%1,                       Sabrina M.%Heidemann%NULL%1,                       Amarilis A.%Martin%NULL%2,                       Amarilis A.%Martin%NULL%0,                       Aalok R.%Singh%NULL%1,                       Simon%Li%NULL%1,                       Keiko M.%Tarquinio%NULL%1,                       Preeti%Jaggi%NULL%1,                       Matthew E.%Oster%NULL%1,                       Sheemon P.%Zackai%NULL%1,                       Jennifer%Gillen%NULL%1,                       Adam J.%Ratner%NULL%1,                       Rowan F.%Walsh%NULL%1,                       Julie C.%Fitzgerald%NULL%1,                       Michael A.%Keenaghan%NULL%1,                       Hussam%Alharash%NULL%1,                       Sule%Doymaz%NULL%1,                       Katharine N.%Clouser%NULL%1,                       John S.%Giuliano%NULL%1,                       Anjali%Gupta%NULL%1,                       Robert M.%Parker%NULL%1,                       Aline B.%Maddux%NULL%1,                       Vinod%Havalad%NULL%1,                       Stacy%Ramsingh%NULL%1,                       Hulya%Bukulmez%NULL%1,                       Tamara T.%Bradford%NULL%1,                       Lincoln S.%Smith%NULL%1,                       Mark W.%Tenforde%NULL%1,                       Christopher L.%Carroll%NULL%1,                       Becky J.%Riggs%NULL%1,                       Shira J.%Gertz%NULL%1,                       Ariel%Daube%NULL%1,                       Amanda%Lansell%NULL%2,                       Amanda%Lansell%NULL%0,                       Alvaro%Coronado Munoz%NULL%1,                       Charlotte V.%Hobbs%NULL%2,                       Charlotte V.%Hobbs%NULL%0,                       Kimberly L.%Marohn%NULL%1,                       Natasha B.%Halasa%NULL%1,                       Manish M.%Patel%NULL%1,                       Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                        Angelo%Mazza%NULL%1,                        Annalisa%Gervasoni%NULL%1,                        Laura%Martelli%NULL%1,                        Maurizio%Ruggeri%NULL%1,                        Matteo%Ciuffreda%NULL%1,                        Ezio%Bonanomi%NULL%1,                        Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                        Scott I.%Aydin%NULL%1,                        Kim R.%Derespina%NULL%0,                        Prerna B.%Bansal%NULL%1,                        Shanna%Kowalsky%NULL%2,                        Rebecca%Trachtman%NULL%2,                        Jennifer K.%Gillen%NULL%1,                        Michelle M.%Perez%NULL%1,                        Sara H.%Soshnick%NULL%1,                        Edward E.%Conway%NULL%1,                        Asher%Bercow%NULL%1,                        Howard S.%Seiden%NULL%1,                        Robert H.%Pass%NULL%1,                        Henry M.%Ushay%NULL%0,                        George%Ofori-Amanfo%NULL%1,                        Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                        Amanda%Cantor%NULL%1,                        Philip%Zachariah%NULL%1,                        Danielle%Ahn%NULL%1,                        Mercedes%Martinez%NULL%1,                        Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                        John C.%Smulian%NULL%1,                        John A.%Lednicky%NULL%1,                        Tony S.%Wen%NULL%1,                        Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                        Emilia H.%Koumans%NULL%1,                        Eric J.%Chow%NULL%1,                        Elizabeth M.%Rosenthal%NULL%2,                        Elizabeth M.%Rosenthal%NULL%0,                        Alison%Muse%NULL%2,                        Alison%Muse%NULL%0,                        Jemma%Rowlands%NULL%1,                        Meredith A.%Barranco%NULL%1,                        Angela M.%Maxted%NULL%1,                        Eli S.%Rosenberg%NULL%1,                        Delia%Easton%NULL%1,                        Tomoko%Udo%NULL%1,                        Jessica%Kumar%NULL%1,                        Wendy%Pulver%NULL%1,                        Lou%Smith%NULL%1,                        Brad%Hutton%NULL%1,                        Debra%Blog%NULL%1,                        Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                        Heba%Elbaaly%NULL%2,                        Heba%Elbaaly%NULL%0,                        Catriona E. L.%Reid%NULL%2,                        Catriona E. L.%Reid%NULL%0,                        Rui M. F.%Santos%NULL%2,                        Rui M. F.%Santos%NULL%0,                        Vinay%Shivamurthy%NULL%2,                        Vinay%Shivamurthy%NULL%0,                        James%Wong%NULL%1,                        K. Haran%Jogeesvaran%NULL%2,                        K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                        Clément%Poirault%NULL%1,                        Alice%Corsia%NULL%1,                        Fanny%Bajolle%NULL%2,                        Jacques%Fourgeaud%NULL%1,                        François%Angoulvant%NULL%1,                        Agathe%Debray%NULL%1,                        Romain%Basmaci%NULL%2,                        Elodie%Salvador%NULL%1,                        Sandra%Biscardi%NULL%1,                        Pierre%Frange%NULL%1,                        Martin%Chalumeau%NULL%1,                        Jean-Laurent%Casanova%NULL%2,                        Jean-Laurent%Casanova%NULL%0,                        Jérémie F%Cohen%NULL%1,                        Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                        Charlotte%Borocco%NULL%1,                        Naim%Ouldali%NULL%1,                        Marion%Caseris%NULL%2,                        Romain%Basmaci%NULL%0,                        Noémie%Lachaume%NULL%1,                        Philippe%Bensaid%NULL%1,                        Samia%Pichard%NULL%1,                        Hanane%Kouider%NULL%1,                        Guillaume%Morelle%NULL%1,                        Irina%Craiu%NULL%1,                        Corinne%Pondarre%NULL%1,                        Anna%Deho%NULL%1,                        Arielle%Maroni%NULL%1,                        Mehdi%Oualha%NULL%2,                        Zahir%Amoura%NULL%1,                        Julien%Haroche%NULL%1,                        Juliette%Chommeloux%NULL%1,                        Fanny%Bajolle%NULL%0,                        Constance%Beyler%NULL%2,                        Stéphane%Bonacorsi%NULL%1,                        Guislaine%Carcelain%NULL%1,                        Isabelle%Koné-Paut%NULL%1,                        Brigitte%Bader-Meunier%NULL%2,                        Brigitte%Bader-Meunier%NULL%0,                        Albert%Faye%NULL%3,                        Albert%Faye%NULL%0,                        Ulrich%Meinzer%NULL%2,                        Caroline%Galeotti%NULL%1,                        Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                        Oscar%Nolan%NULL%1,                        Chui Yi%Lai%NULL%1,                        Nanda%Prabhu%NULL%1,                        Raghu%Krishnamurthy%NULL%1,                        Alex G.%Richter%NULL%1,                        Deepthi%Jyothish%NULL%1,                        Hari Krishnan%Kanthimathinathan%NULL%2,                        Steven B.%Welch%NULL%1,                        Scott%Hackett%NULL%1,                        Eslam%Al-Abadi%NULL%1,                        Barnaby R.%Scholefield%NULL%1,                        Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                        Julie%Starck%NULL%1,                        Michael%Levy%NULL%1,                        Clémence%Marais%NULL%1,                        Judith%Chareyre%NULL%1,                        Diala%Khraiche%NULL%1,                        Marianne%Leruez-Ville%NULL%1,                        Pierre%Quartier%NULL%1,                        Pierre Louis%Léger%NULL%1,                        Guillaume%Geslain%NULL%1,                        Nada%Semaan%NULL%1,                        Florence%Moulin%NULL%1,                        Matthieu%Bendavid%NULL%1,                        Sandrine%Jean%NULL%1,                        Géraldine%Poncelet%NULL%1,                        Sylvain%Renolleau%NULL%1,                        Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                        Esra%Akkoyun%NULL%1,                        Eudys%Briceno‐Brito%NULL%1,                        Shanna%Kowalsky%NULL%0,                        James%Reed%NULL%1,                        Roberto%Posada%NULL%1,                        Emilia Mia%Sordillo%NULL%1,                        Michael%Tosi%NULL%1,                        Rebecca%Trachtman%NULL%0,                        Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                        Claire%Evans%NULL%1,                        Hari Krishnan%Kanthimathinathan%NULL%0,                        Jon%Lillie%NULL%1,                        Joseph%Brierley%NULL%1,                        Gareth%Waters%NULL%1,                        Mae%Johnson%NULL%1,                        Benedict%Griffiths%NULL%1,                        Pascale%du Pré%NULL%1,                        Zoha%Mohammad%NULL%1,                        Akash%Deep%NULL%1,                        Stephen%Playfor%NULL%1,                        Davinder%Singh%NULL%1,                        David%Inwald%NULL%1,                        Michelle%Jardine%NULL%1,                        Oliver%Ross%NULL%1,                        Nayan%Shetty%NULL%1,                        Mark%Worrall%NULL%1,                        Ruchi%Sinha%NULL%1,                        Ashwani%Koul%NULL%1,                        Elizabeth%Whittaker%NULL%1,                        Harish%Vyas%NULL%1,                        Barnaby R%Scholefield%NULL%1,                        Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                        Marie%Pouletty%NULL%1,                        Patricia%Mariani%NULL%1,                        Constance%Beyler%NULL%0,                        Audrey%Blachier%NULL%1,                        Stephane%Bonacorsi%NULL%1,                        Kostas%Danis%NULL%1,                        Maryline%Chomton%NULL%1,                        Laure%Maurice%NULL%1,                        Fleur%Le Bourgeois%NULL%1,                        Marion%Caseris%NULL%0,                        Jean%Gaschignard%NULL%1,                        Julie%Poline%NULL%1,                        Robert%Cohen%NULL%1,                        Luigi%Titomanlio%NULL%1,                        Albert%Faye%NULL%0,                        Isabelle%Melki%NULL%0,                        Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                        Erica B.%Rose%NULL%1,                        Steven M.%Horwitz%NULL%1,                        Jennifer P.%Collins%NULL%1,                        Margaret M.%Newhams%NULL%1,                        Mary Beth F.%Son%NULL%1,                        Jane W.%Newburger%NULL%1,                        Lawrence C.%Kleinman%NULL%1,                        Sabrina M.%Heidemann%NULL%1,                        Amarilis A.%Martin%NULL%2,                        Amarilis A.%Martin%NULL%0,                        Aalok R.%Singh%NULL%1,                        Simon%Li%NULL%1,                        Keiko M.%Tarquinio%NULL%1,                        Preeti%Jaggi%NULL%1,                        Matthew E.%Oster%NULL%1,                        Sheemon P.%Zackai%NULL%1,                        Jennifer%Gillen%NULL%1,                        Adam J.%Ratner%NULL%1,                        Rowan F.%Walsh%NULL%1,                        Julie C.%Fitzgerald%NULL%1,                        Michael A.%Keenaghan%NULL%1,                        Hussam%Alharash%NULL%1,                        Sule%Doymaz%NULL%1,                        Katharine N.%Clouser%NULL%1,                        John S.%Giuliano%NULL%1,                        Anjali%Gupta%NULL%1,                        Robert M.%Parker%NULL%1,                        Aline B.%Maddux%NULL%1,                        Vinod%Havalad%NULL%1,                        Stacy%Ramsingh%NULL%1,                        Hulya%Bukulmez%NULL%1,                        Tamara T.%Bradford%NULL%1,                        Lincoln S.%Smith%NULL%1,                        Mark W.%Tenforde%NULL%1,                        Christopher L.%Carroll%NULL%1,                        Becky J.%Riggs%NULL%1,                        Shira J.%Gertz%NULL%1,                        Ariel%Daube%NULL%1,                        Amanda%Lansell%NULL%2,                        Amanda%Lansell%NULL%0,                        Alvaro%Coronado Munoz%NULL%1,                        Charlotte V.%Hobbs%NULL%2,                        Charlotte V.%Hobbs%NULL%0,                        Kimberly L.%Marohn%NULL%1,                        Natasha B.%Halasa%NULL%1,                        Manish M.%Patel%NULL%1,                        Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                         Angelo%Mazza%NULL%1,                         Annalisa%Gervasoni%NULL%1,                         Laura%Martelli%NULL%1,                         Maurizio%Ruggeri%NULL%1,                         Matteo%Ciuffreda%NULL%1,                         Ezio%Bonanomi%NULL%1,                         Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                         Scott I.%Aydin%NULL%1,                         Kim R.%Derespina%NULL%0,                         Prerna B.%Bansal%NULL%1,                         Shanna%Kowalsky%NULL%2,                         Rebecca%Trachtman%NULL%2,                         Jennifer K.%Gillen%NULL%1,                         Michelle M.%Perez%NULL%1,                         Sara H.%Soshnick%NULL%1,                         Edward E.%Conway%NULL%1,                         Asher%Bercow%NULL%1,                         Howard S.%Seiden%NULL%1,                         Robert H.%Pass%NULL%1,                         Henry M.%Ushay%NULL%0,                         George%Ofori-Amanfo%NULL%1,                         Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                         Amanda%Cantor%NULL%1,                         Philip%Zachariah%NULL%1,                         Danielle%Ahn%NULL%1,                         Mercedes%Martinez%NULL%1,                         Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                         John C.%Smulian%NULL%1,                         John A.%Lednicky%NULL%1,                         Tony S.%Wen%NULL%1,                         Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                         Emilia H.%Koumans%NULL%1,                         Eric J.%Chow%NULL%1,                         Elizabeth M.%Rosenthal%NULL%2,                         Elizabeth M.%Rosenthal%NULL%0,                         Alison%Muse%NULL%2,                         Alison%Muse%NULL%0,                         Jemma%Rowlands%NULL%1,                         Meredith A.%Barranco%NULL%1,                         Angela M.%Maxted%NULL%1,                         Eli S.%Rosenberg%NULL%1,                         Delia%Easton%NULL%1,                         Tomoko%Udo%NULL%1,                         Jessica%Kumar%NULL%1,                         Wendy%Pulver%NULL%1,                         Lou%Smith%NULL%1,                         Brad%Hutton%NULL%1,                         Debra%Blog%NULL%1,                         Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                         Heba%Elbaaly%NULL%2,                         Heba%Elbaaly%NULL%0,                         Catriona E. L.%Reid%NULL%2,                         Catriona E. L.%Reid%NULL%0,                         Rui M. F.%Santos%NULL%2,                         Rui M. F.%Santos%NULL%0,                         Vinay%Shivamurthy%NULL%2,                         Vinay%Shivamurthy%NULL%0,                         James%Wong%NULL%1,                         K. Haran%Jogeesvaran%NULL%2,                         K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                         Clément%Poirault%NULL%1,                         Alice%Corsia%NULL%1,                         Fanny%Bajolle%NULL%2,                         Jacques%Fourgeaud%NULL%1,                         François%Angoulvant%NULL%1,                         Agathe%Debray%NULL%1,                         Romain%Basmaci%NULL%2,                         Elodie%Salvador%NULL%1,                         Sandra%Biscardi%NULL%1,                         Pierre%Frange%NULL%1,                         Martin%Chalumeau%NULL%1,                         Jean-Laurent%Casanova%NULL%2,                         Jean-Laurent%Casanova%NULL%0,                         Jérémie F%Cohen%NULL%1,                         Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                         Charlotte%Borocco%NULL%1,                         Naim%Ouldali%NULL%1,                         Marion%Caseris%NULL%2,                         Romain%Basmaci%NULL%0,                         Noémie%Lachaume%NULL%1,                         Philippe%Bensaid%NULL%1,                         Samia%Pichard%NULL%1,                         Hanane%Kouider%NULL%1,                         Guillaume%Morelle%NULL%1,                         Irina%Craiu%NULL%1,                         Corinne%Pondarre%NULL%1,                         Anna%Deho%NULL%1,                         Arielle%Maroni%NULL%1,                         Mehdi%Oualha%NULL%2,                         Zahir%Amoura%NULL%1,                         Julien%Haroche%NULL%1,                         Juliette%Chommeloux%NULL%1,                         Fanny%Bajolle%NULL%0,                         Constance%Beyler%NULL%2,                         Stéphane%Bonacorsi%NULL%1,                         Guislaine%Carcelain%NULL%1,                         Isabelle%Koné-Paut%NULL%1,                         Brigitte%Bader-Meunier%NULL%2,                         Brigitte%Bader-Meunier%NULL%0,                         Albert%Faye%NULL%3,                         Albert%Faye%NULL%0,                         Ulrich%Meinzer%NULL%2,                         Caroline%Galeotti%NULL%1,                         Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                         Oscar%Nolan%NULL%1,                         Chui Yi%Lai%NULL%1,                         Nanda%Prabhu%NULL%1,                         Raghu%Krishnamurthy%NULL%1,                         Alex G.%Richter%NULL%1,                         Deepthi%Jyothish%NULL%1,                         Hari Krishnan%Kanthimathinathan%NULL%2,                         Steven B.%Welch%NULL%1,                         Scott%Hackett%NULL%1,                         Eslam%Al-Abadi%NULL%1,                         Barnaby R.%Scholefield%NULL%1,                         Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                         Julie%Starck%NULL%1,                         Michael%Levy%NULL%1,                         Clémence%Marais%NULL%1,                         Judith%Chareyre%NULL%1,                         Diala%Khraiche%NULL%1,                         Marianne%Leruez-Ville%NULL%1,                         Pierre%Quartier%NULL%1,                         Pierre Louis%Léger%NULL%1,                         Guillaume%Geslain%NULL%1,                         Nada%Semaan%NULL%1,                         Florence%Moulin%NULL%1,                         Matthieu%Bendavid%NULL%1,                         Sandrine%Jean%NULL%1,                         Géraldine%Poncelet%NULL%1,                         Sylvain%Renolleau%NULL%1,                         Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                         Esra%Akkoyun%NULL%1,                         Eudys%Briceno‐Brito%NULL%1,                         Shanna%Kowalsky%NULL%0,                         James%Reed%NULL%1,                         Roberto%Posada%NULL%1,                         Emilia Mia%Sordillo%NULL%1,                         Michael%Tosi%NULL%1,                         Rebecca%Trachtman%NULL%0,                         Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                         Claire%Evans%NULL%1,                         Hari Krishnan%Kanthimathinathan%NULL%0,                         Jon%Lillie%NULL%1,                         Joseph%Brierley%NULL%1,                         Gareth%Waters%NULL%1,                         Mae%Johnson%NULL%1,                         Benedict%Griffiths%NULL%1,                         Pascale%du Pré%NULL%1,                         Zoha%Mohammad%NULL%1,                         Akash%Deep%NULL%1,                         Stephen%Playfor%NULL%1,                         Davinder%Singh%NULL%1,                         David%Inwald%NULL%1,                         Michelle%Jardine%NULL%1,                         Oliver%Ross%NULL%1,                         Nayan%Shetty%NULL%1,                         Mark%Worrall%NULL%1,                         Ruchi%Sinha%NULL%1,                         Ashwani%Koul%NULL%1,                         Elizabeth%Whittaker%NULL%1,                         Harish%Vyas%NULL%1,                         Barnaby R%Scholefield%NULL%1,                         Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                         Marie%Pouletty%NULL%1,                         Patricia%Mariani%NULL%1,                         Constance%Beyler%NULL%0,                         Audrey%Blachier%NULL%1,                         Stephane%Bonacorsi%NULL%1,                         Kostas%Danis%NULL%1,                         Maryline%Chomton%NULL%1,                         Laure%Maurice%NULL%1,                         Fleur%Le Bourgeois%NULL%1,                         Marion%Caseris%NULL%0,                         Jean%Gaschignard%NULL%1,                         Julie%Poline%NULL%1,                         Robert%Cohen%NULL%1,                         Luigi%Titomanlio%NULL%1,                         Albert%Faye%NULL%0,                         Isabelle%Melki%NULL%0,                         Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                         Erica B.%Rose%NULL%1,                         Steven M.%Horwitz%NULL%1,                         Jennifer P.%Collins%NULL%1,                         Margaret M.%Newhams%NULL%1,                         Mary Beth F.%Son%NULL%1,                         Jane W.%Newburger%NULL%1,                         Lawrence C.%Kleinman%NULL%1,                         Sabrina M.%Heidemann%NULL%1,                         Amarilis A.%Martin%NULL%2,                         Amarilis A.%Martin%NULL%0,                         Aalok R.%Singh%NULL%1,                         Simon%Li%NULL%1,                         Keiko M.%Tarquinio%NULL%1,                         Preeti%Jaggi%NULL%1,                         Matthew E.%Oster%NULL%1,                         Sheemon P.%Zackai%NULL%1,                         Jennifer%Gillen%NULL%1,                         Adam J.%Ratner%NULL%1,                         Rowan F.%Walsh%NULL%1,                         Julie C.%Fitzgerald%NULL%1,                         Michael A.%Keenaghan%NULL%1,                         Hussam%Alharash%NULL%1,                         Sule%Doymaz%NULL%1,                         Katharine N.%Clouser%NULL%1,                         John S.%Giuliano%NULL%1,                         Anjali%Gupta%NULL%1,                         Robert M.%Parker%NULL%1,                         Aline B.%Maddux%NULL%1,                         Vinod%Havalad%NULL%1,                         Stacy%Ramsingh%NULL%1,                         Hulya%Bukulmez%NULL%1,                         Tamara T.%Bradford%NULL%1,                         Lincoln S.%Smith%NULL%1,                         Mark W.%Tenforde%NULL%1,                         Christopher L.%Carroll%NULL%1,                         Becky J.%Riggs%NULL%1,                         Shira J.%Gertz%NULL%1,                         Ariel%Daube%NULL%1,                         Amanda%Lansell%NULL%2,                         Amanda%Lansell%NULL%0,                         Alvaro%Coronado Munoz%NULL%1,                         Charlotte V.%Hobbs%NULL%2,                         Charlotte V.%Hobbs%NULL%0,                         Kimberly L.%Marohn%NULL%1,                         Natasha B.%Halasa%NULL%1,                         Manish M.%Patel%NULL%1,                         Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                          Angelo%Mazza%NULL%1,                          Annalisa%Gervasoni%NULL%1,                          Laura%Martelli%NULL%1,                          Maurizio%Ruggeri%NULL%1,                          Matteo%Ciuffreda%NULL%1,                          Ezio%Bonanomi%NULL%1,                          Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                          Scott I.%Aydin%NULL%1,                          Kim R.%Derespina%NULL%0,                          Prerna B.%Bansal%NULL%1,                          Shanna%Kowalsky%NULL%2,                          Rebecca%Trachtman%NULL%2,                          Jennifer K.%Gillen%NULL%1,                          Michelle M.%Perez%NULL%1,                          Sara H.%Soshnick%NULL%1,                          Edward E.%Conway%NULL%1,                          Asher%Bercow%NULL%1,                          Howard S.%Seiden%NULL%1,                          Robert H.%Pass%NULL%1,                          Henry M.%Ushay%NULL%0,                          George%Ofori-Amanfo%NULL%1,                          Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                          Amanda%Cantor%NULL%1,                          Philip%Zachariah%NULL%1,                          Danielle%Ahn%NULL%1,                          Mercedes%Martinez%NULL%1,                          Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                          John C.%Smulian%NULL%1,                          John A.%Lednicky%NULL%1,                          Tony S.%Wen%NULL%1,                          Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                          Emilia H.%Koumans%NULL%1,                          Eric J.%Chow%NULL%1,                          Elizabeth M.%Rosenthal%NULL%2,                          Elizabeth M.%Rosenthal%NULL%0,                          Alison%Muse%NULL%2,                          Alison%Muse%NULL%0,                          Jemma%Rowlands%NULL%1,                          Meredith A.%Barranco%NULL%1,                          Angela M.%Maxted%NULL%1,                          Eli S.%Rosenberg%NULL%1,                          Delia%Easton%NULL%1,                          Tomoko%Udo%NULL%1,                          Jessica%Kumar%NULL%1,                          Wendy%Pulver%NULL%1,                          Lou%Smith%NULL%1,                          Brad%Hutton%NULL%1,                          Debra%Blog%NULL%1,                          Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                          Heba%Elbaaly%NULL%2,                          Heba%Elbaaly%NULL%0,                          Catriona E. L.%Reid%NULL%2,                          Catriona E. L.%Reid%NULL%0,                          Rui M. F.%Santos%NULL%2,                          Rui M. F.%Santos%NULL%0,                          Vinay%Shivamurthy%NULL%2,                          Vinay%Shivamurthy%NULL%0,                          James%Wong%NULL%1,                          K. Haran%Jogeesvaran%NULL%2,                          K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                          Clément%Poirault%NULL%1,                          Alice%Corsia%NULL%1,                          Fanny%Bajolle%NULL%2,                          Jacques%Fourgeaud%NULL%1,                          François%Angoulvant%NULL%1,                          Agathe%Debray%NULL%1,                          Romain%Basmaci%NULL%2,                          Elodie%Salvador%NULL%1,                          Sandra%Biscardi%NULL%1,                          Pierre%Frange%NULL%1,                          Martin%Chalumeau%NULL%1,                          Jean-Laurent%Casanova%NULL%2,                          Jean-Laurent%Casanova%NULL%0,                          Jérémie F%Cohen%NULL%1,                          Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                          Charlotte%Borocco%NULL%1,                          Naim%Ouldali%NULL%1,                          Marion%Caseris%NULL%2,                          Romain%Basmaci%NULL%0,                          Noémie%Lachaume%NULL%1,                          Philippe%Bensaid%NULL%1,                          Samia%Pichard%NULL%1,                          Hanane%Kouider%NULL%1,                          Guillaume%Morelle%NULL%1,                          Irina%Craiu%NULL%1,                          Corinne%Pondarre%NULL%1,                          Anna%Deho%NULL%1,                          Arielle%Maroni%NULL%1,                          Mehdi%Oualha%NULL%2,                          Zahir%Amoura%NULL%1,                          Julien%Haroche%NULL%1,                          Juliette%Chommeloux%NULL%1,                          Fanny%Bajolle%NULL%0,                          Constance%Beyler%NULL%2,                          Stéphane%Bonacorsi%NULL%1,                          Guislaine%Carcelain%NULL%1,                          Isabelle%Koné-Paut%NULL%1,                          Brigitte%Bader-Meunier%NULL%2,                          Brigitte%Bader-Meunier%NULL%0,                          Albert%Faye%NULL%3,                          Albert%Faye%NULL%0,                          Ulrich%Meinzer%NULL%2,                          Caroline%Galeotti%NULL%1,                          Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                          Oscar%Nolan%NULL%1,                          Chui Yi%Lai%NULL%1,                          Nanda%Prabhu%NULL%1,                          Raghu%Krishnamurthy%NULL%1,                          Alex G.%Richter%NULL%1,                          Deepthi%Jyothish%NULL%1,                          Hari Krishnan%Kanthimathinathan%NULL%2,                          Steven B.%Welch%NULL%1,                          Scott%Hackett%NULL%1,                          Eslam%Al-Abadi%NULL%1,                          Barnaby R.%Scholefield%NULL%1,                          Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                          Julie%Starck%NULL%1,                          Michael%Levy%NULL%1,                          Clémence%Marais%NULL%1,                          Judith%Chareyre%NULL%1,                          Diala%Khraiche%NULL%1,                          Marianne%Leruez-Ville%NULL%1,                          Pierre%Quartier%NULL%1,                          Pierre Louis%Léger%NULL%1,                          Guillaume%Geslain%NULL%1,                          Nada%Semaan%NULL%1,                          Florence%Moulin%NULL%1,                          Matthieu%Bendavid%NULL%1,                          Sandrine%Jean%NULL%1,                          Géraldine%Poncelet%NULL%1,                          Sylvain%Renolleau%NULL%1,                          Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                          Esra%Akkoyun%NULL%1,                          Eudys%Briceno‐Brito%NULL%1,                          Shanna%Kowalsky%NULL%0,                          James%Reed%NULL%1,                          Roberto%Posada%NULL%1,                          Emilia Mia%Sordillo%NULL%1,                          Michael%Tosi%NULL%1,                          Rebecca%Trachtman%NULL%0,                          Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                          Claire%Evans%NULL%1,                          Hari Krishnan%Kanthimathinathan%NULL%0,                          Jon%Lillie%NULL%1,                          Joseph%Brierley%NULL%1,                          Gareth%Waters%NULL%1,                          Mae%Johnson%NULL%1,                          Benedict%Griffiths%NULL%1,                          Pascale%du Pré%NULL%1,                          Zoha%Mohammad%NULL%1,                          Akash%Deep%NULL%1,                          Stephen%Playfor%NULL%1,                          Davinder%Singh%NULL%1,                          David%Inwald%NULL%1,                          Michelle%Jardine%NULL%1,                          Oliver%Ross%NULL%1,                          Nayan%Shetty%NULL%1,                          Mark%Worrall%NULL%1,                          Ruchi%Sinha%NULL%1,                          Ashwani%Koul%NULL%1,                          Elizabeth%Whittaker%NULL%1,                          Harish%Vyas%NULL%1,                          Barnaby R%Scholefield%NULL%1,                          Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                          Marie%Pouletty%NULL%1,                          Patricia%Mariani%NULL%1,                          Constance%Beyler%NULL%0,                          Audrey%Blachier%NULL%1,                          Stephane%Bonacorsi%NULL%1,                          Kostas%Danis%NULL%1,                          Maryline%Chomton%NULL%1,                          Laure%Maurice%NULL%1,                          Fleur%Le Bourgeois%NULL%1,                          Marion%Caseris%NULL%0,                          Jean%Gaschignard%NULL%1,                          Julie%Poline%NULL%1,                          Robert%Cohen%NULL%1,                          Luigi%Titomanlio%NULL%1,                          Albert%Faye%NULL%0,                          Isabelle%Melki%NULL%0,                          Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                          Erica B.%Rose%NULL%1,                          Steven M.%Horwitz%NULL%1,                          Jennifer P.%Collins%NULL%1,                          Margaret M.%Newhams%NULL%1,                          Mary Beth F.%Son%NULL%1,                          Jane W.%Newburger%NULL%1,                          Lawrence C.%Kleinman%NULL%1,                          Sabrina M.%Heidemann%NULL%1,                          Amarilis A.%Martin%NULL%2,                          Amarilis A.%Martin%NULL%0,                          Aalok R.%Singh%NULL%1,                          Simon%Li%NULL%1,                          Keiko M.%Tarquinio%NULL%1,                          Preeti%Jaggi%NULL%1,                          Matthew E.%Oster%NULL%1,                          Sheemon P.%Zackai%NULL%1,                          Jennifer%Gillen%NULL%1,                          Adam J.%Ratner%NULL%1,                          Rowan F.%Walsh%NULL%1,                          Julie C.%Fitzgerald%NULL%1,                          Michael A.%Keenaghan%NULL%1,                          Hussam%Alharash%NULL%1,                          Sule%Doymaz%NULL%1,                          Katharine N.%Clouser%NULL%1,                          John S.%Giuliano%NULL%1,                          Anjali%Gupta%NULL%1,                          Robert M.%Parker%NULL%1,                          Aline B.%Maddux%NULL%1,                          Vinod%Havalad%NULL%1,                          Stacy%Ramsingh%NULL%1,                          Hulya%Bukulmez%NULL%1,                          Tamara T.%Bradford%NULL%1,                          Lincoln S.%Smith%NULL%1,                          Mark W.%Tenforde%NULL%1,                          Christopher L.%Carroll%NULL%1,                          Becky J.%Riggs%NULL%1,                          Shira J.%Gertz%NULL%1,                          Ariel%Daube%NULL%1,                          Amanda%Lansell%NULL%2,                          Amanda%Lansell%NULL%0,                          Alvaro%Coronado Munoz%NULL%1,                          Charlotte V.%Hobbs%NULL%2,                          Charlotte V.%Hobbs%NULL%0,                          Kimberly L.%Marohn%NULL%1,                          Natasha B.%Halasa%NULL%1,                          Manish M.%Patel%NULL%1,                          Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1864,6 +2092,9 @@
       <c r="I1" t="s">
         <v>143</v>
       </c>
+      <c r="J1" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1879,7 +2110,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1892,6 +2123,9 @@
       </c>
       <c r="I2" t="s">
         <v>388</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -1908,7 +2142,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1920,7 +2154,10 @@
         <v>207</v>
       </c>
       <c r="I3" t="s">
-        <v>390</v>
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="4">
@@ -1951,6 +2188,9 @@
       <c r="I4" t="s">
         <v>390</v>
       </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -1966,7 +2206,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1979,6 +2219,9 @@
       </c>
       <c r="I5" t="s">
         <v>388</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1995,7 +2238,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>487</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2008,6 +2251,9 @@
       </c>
       <c r="I6" t="s">
         <v>388</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -2024,7 +2270,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
+        <v>488</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2037,6 +2283,9 @@
       </c>
       <c r="I7" t="s">
         <v>388</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -2053,7 +2302,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>489</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -2066,6 +2315,9 @@
       </c>
       <c r="I8" t="s">
         <v>395</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -2082,7 +2334,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>413</v>
+        <v>490</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2095,6 +2347,9 @@
       </c>
       <c r="I9" t="s">
         <v>395</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -2111,7 +2366,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2124,6 +2379,9 @@
       </c>
       <c r="I10" t="s">
         <v>395</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -2140,7 +2398,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2153,6 +2411,9 @@
       </c>
       <c r="I11" t="s">
         <v>395</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2169,7 +2430,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2178,10 +2439,13 @@
         <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>218</v>
+        <v>435</v>
       </c>
       <c r="I12" t="s">
-        <v>390</v>
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="13">
@@ -2198,7 +2462,7 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>493</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2211,6 +2475,9 @@
       </c>
       <c r="I13" t="s">
         <v>401</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2227,7 +2494,7 @@
         <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2240,6 +2507,9 @@
       </c>
       <c r="I14" t="s">
         <v>401</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -2256,7 +2526,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>495</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2269,6 +2539,9 @@
       </c>
       <c r="I15" t="s">
         <v>395</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -2285,7 +2558,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2298,6 +2571,9 @@
       </c>
       <c r="I16" t="s">
         <v>388</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2314,7 +2590,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2327,6 +2603,9 @@
       </c>
       <c r="I17" t="s">
         <v>388</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -2343,7 +2622,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2356,6 +2635,9 @@
       </c>
       <c r="I18" t="s">
         <v>395</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/112.xlsx
+++ b/Covid_19_Dataset_and_References/References/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="527">
   <si>
     <t>Doi</t>
   </si>
@@ -1776,6 +1776,90 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,                          Erica B.%Rose%NULL%1,                          Steven M.%Horwitz%NULL%1,                          Jennifer P.%Collins%NULL%1,                          Margaret M.%Newhams%NULL%1,                          Mary Beth F.%Son%NULL%1,                          Jane W.%Newburger%NULL%1,                          Lawrence C.%Kleinman%NULL%1,                          Sabrina M.%Heidemann%NULL%1,                          Amarilis A.%Martin%NULL%2,                          Amarilis A.%Martin%NULL%0,                          Aalok R.%Singh%NULL%1,                          Simon%Li%NULL%1,                          Keiko M.%Tarquinio%NULL%1,                          Preeti%Jaggi%NULL%1,                          Matthew E.%Oster%NULL%1,                          Sheemon P.%Zackai%NULL%1,                          Jennifer%Gillen%NULL%1,                          Adam J.%Ratner%NULL%1,                          Rowan F.%Walsh%NULL%1,                          Julie C.%Fitzgerald%NULL%1,                          Michael A.%Keenaghan%NULL%1,                          Hussam%Alharash%NULL%1,                          Sule%Doymaz%NULL%1,                          Katharine N.%Clouser%NULL%1,                          John S.%Giuliano%NULL%1,                          Anjali%Gupta%NULL%1,                          Robert M.%Parker%NULL%1,                          Aline B.%Maddux%NULL%1,                          Vinod%Havalad%NULL%1,                          Stacy%Ramsingh%NULL%1,                          Hulya%Bukulmez%NULL%1,                          Tamara T.%Bradford%NULL%1,                          Lincoln S.%Smith%NULL%1,                          Mark W.%Tenforde%NULL%1,                          Christopher L.%Carroll%NULL%1,                          Becky J.%Riggs%NULL%1,                          Shira J.%Gertz%NULL%1,                          Ariel%Daube%NULL%1,                          Amanda%Lansell%NULL%2,                          Amanda%Lansell%NULL%0,                          Alvaro%Coronado Munoz%NULL%1,                          Charlotte V.%Hobbs%NULL%2,                          Charlotte V.%Hobbs%NULL%0,                          Kimberly L.%Marohn%NULL%1,                          Natasha B.%Halasa%NULL%1,                          Manish M.%Patel%NULL%1,                          Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                           Angelo%Mazza%NULL%1,                           Annalisa%Gervasoni%NULL%1,                           Laura%Martelli%NULL%1,                           Maurizio%Ruggeri%NULL%1,                           Matteo%Ciuffreda%NULL%1,                           Ezio%Bonanomi%NULL%1,                           Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                           Scott I.%Aydin%NULL%1,                           Kim R.%Derespina%NULL%0,                           Prerna B.%Bansal%NULL%1,                           Shanna%Kowalsky%NULL%2,                           Rebecca%Trachtman%NULL%2,                           Jennifer K.%Gillen%NULL%1,                           Michelle M.%Perez%NULL%1,                           Sara H.%Soshnick%NULL%1,                           Edward E.%Conway%NULL%1,                           Asher%Bercow%NULL%1,                           Howard S.%Seiden%NULL%1,                           Robert H.%Pass%NULL%1,                           Henry M.%Ushay%NULL%0,                           George%Ofori-Amanfo%NULL%1,                           Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                           Amanda%Cantor%NULL%1,                           Philip%Zachariah%NULL%1,                           Danielle%Ahn%NULL%1,                           Mercedes%Martinez%NULL%1,                           Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                           John C.%Smulian%NULL%1,                           John A.%Lednicky%NULL%1,                           Tony S.%Wen%NULL%1,                           Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                           Emilia H.%Koumans%NULL%1,                           Eric J.%Chow%NULL%1,                           Elizabeth M.%Rosenthal%NULL%2,                           Elizabeth M.%Rosenthal%NULL%0,                           Alison%Muse%NULL%2,                           Alison%Muse%NULL%0,                           Jemma%Rowlands%NULL%1,                           Meredith A.%Barranco%NULL%1,                           Angela M.%Maxted%NULL%1,                           Eli S.%Rosenberg%NULL%1,                           Delia%Easton%NULL%1,                           Tomoko%Udo%NULL%1,                           Jessica%Kumar%NULL%1,                           Wendy%Pulver%NULL%1,                           Lou%Smith%NULL%1,                           Brad%Hutton%NULL%1,                           Debra%Blog%NULL%1,                           Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                           Heba%Elbaaly%NULL%2,                           Heba%Elbaaly%NULL%0,                           Catriona E. L.%Reid%NULL%2,                           Catriona E. L.%Reid%NULL%0,                           Rui M. F.%Santos%NULL%2,                           Rui M. F.%Santos%NULL%0,                           Vinay%Shivamurthy%NULL%2,                           Vinay%Shivamurthy%NULL%0,                           James%Wong%NULL%1,                           K. Haran%Jogeesvaran%NULL%2,                           K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                           Clément%Poirault%NULL%1,                           Alice%Corsia%NULL%1,                           Fanny%Bajolle%NULL%2,                           Jacques%Fourgeaud%NULL%1,                           François%Angoulvant%NULL%1,                           Agathe%Debray%NULL%1,                           Romain%Basmaci%NULL%2,                           Elodie%Salvador%NULL%1,                           Sandra%Biscardi%NULL%1,                           Pierre%Frange%NULL%1,                           Martin%Chalumeau%NULL%1,                           Jean-Laurent%Casanova%NULL%2,                           Jean-Laurent%Casanova%NULL%0,                           Jérémie F%Cohen%NULL%1,                           Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                           Charlotte%Borocco%NULL%1,                           Naim%Ouldali%NULL%1,                           Marion%Caseris%NULL%2,                           Romain%Basmaci%NULL%0,                           Noémie%Lachaume%NULL%1,                           Philippe%Bensaid%NULL%1,                           Samia%Pichard%NULL%1,                           Hanane%Kouider%NULL%1,                           Guillaume%Morelle%NULL%1,                           Irina%Craiu%NULL%1,                           Corinne%Pondarre%NULL%1,                           Anna%Deho%NULL%1,                           Arielle%Maroni%NULL%1,                           Mehdi%Oualha%NULL%2,                           Zahir%Amoura%NULL%1,                           Julien%Haroche%NULL%1,                           Juliette%Chommeloux%NULL%1,                           Fanny%Bajolle%NULL%0,                           Constance%Beyler%NULL%2,                           Stéphane%Bonacorsi%NULL%1,                           Guislaine%Carcelain%NULL%1,                           Isabelle%Koné-Paut%NULL%1,                           Brigitte%Bader-Meunier%NULL%2,                           Brigitte%Bader-Meunier%NULL%0,                           Albert%Faye%NULL%3,                           Albert%Faye%NULL%0,                           Ulrich%Meinzer%NULL%2,                           Caroline%Galeotti%NULL%1,                           Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                           Oscar%Nolan%NULL%1,                           Chui Yi%Lai%NULL%1,                           Nanda%Prabhu%NULL%1,                           Raghu%Krishnamurthy%NULL%1,                           Alex G.%Richter%NULL%1,                           Deepthi%Jyothish%NULL%1,                           Hari Krishnan%Kanthimathinathan%NULL%2,                           Steven B.%Welch%NULL%1,                           Scott%Hackett%NULL%1,                           Eslam%Al-Abadi%NULL%1,                           Barnaby R.%Scholefield%NULL%1,                           Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                           Julie%Starck%NULL%1,                           Michael%Levy%NULL%1,                           Clémence%Marais%NULL%1,                           Judith%Chareyre%NULL%1,                           Diala%Khraiche%NULL%1,                           Marianne%Leruez-Ville%NULL%1,                           Pierre%Quartier%NULL%1,                           Pierre Louis%Léger%NULL%1,                           Guillaume%Geslain%NULL%1,                           Nada%Semaan%NULL%1,                           Florence%Moulin%NULL%1,                           Matthieu%Bendavid%NULL%1,                           Sandrine%Jean%NULL%1,                           Géraldine%Poncelet%NULL%1,                           Sylvain%Renolleau%NULL%1,                           Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                           Esra%Akkoyun%NULL%1,                           Eudys%Briceno‐Brito%NULL%1,                           Shanna%Kowalsky%NULL%0,                           James%Reed%NULL%1,                           Roberto%Posada%NULL%1,                           Emilia Mia%Sordillo%NULL%1,                           Michael%Tosi%NULL%1,                           Rebecca%Trachtman%NULL%0,                           Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                           Claire%Evans%NULL%1,                           Hari Krishnan%Kanthimathinathan%NULL%0,                           Jon%Lillie%NULL%1,                           Joseph%Brierley%NULL%1,                           Gareth%Waters%NULL%1,                           Mae%Johnson%NULL%1,                           Benedict%Griffiths%NULL%1,                           Pascale%du Pré%NULL%1,                           Zoha%Mohammad%NULL%1,                           Akash%Deep%NULL%1,                           Stephen%Playfor%NULL%1,                           Davinder%Singh%NULL%1,                           David%Inwald%NULL%1,                           Michelle%Jardine%NULL%1,                           Oliver%Ross%NULL%1,                           Nayan%Shetty%NULL%1,                           Mark%Worrall%NULL%1,                           Ruchi%Sinha%NULL%1,                           Ashwani%Koul%NULL%1,                           Elizabeth%Whittaker%NULL%1,                           Harish%Vyas%NULL%1,                           Barnaby R%Scholefield%NULL%1,                           Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                           Marie%Pouletty%NULL%1,                           Patricia%Mariani%NULL%1,                           Constance%Beyler%NULL%0,                           Audrey%Blachier%NULL%1,                           Stephane%Bonacorsi%NULL%1,                           Kostas%Danis%NULL%1,                           Maryline%Chomton%NULL%1,                           Laure%Maurice%NULL%1,                           Fleur%Le Bourgeois%NULL%1,                           Marion%Caseris%NULL%0,                           Jean%Gaschignard%NULL%1,                           Julie%Poline%NULL%1,                           Robert%Cohen%NULL%1,                           Luigi%Titomanlio%NULL%1,                           Albert%Faye%NULL%0,                           Isabelle%Melki%NULL%0,                           Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                           Erica B.%Rose%NULL%1,                           Steven M.%Horwitz%NULL%1,                           Jennifer P.%Collins%NULL%1,                           Margaret M.%Newhams%NULL%1,                           Mary Beth F.%Son%NULL%1,                           Jane W.%Newburger%NULL%1,                           Lawrence C.%Kleinman%NULL%1,                           Sabrina M.%Heidemann%NULL%1,                           Amarilis A.%Martin%NULL%2,                           Amarilis A.%Martin%NULL%0,                           Aalok R.%Singh%NULL%1,                           Simon%Li%NULL%1,                           Keiko M.%Tarquinio%NULL%1,                           Preeti%Jaggi%NULL%1,                           Matthew E.%Oster%NULL%1,                           Sheemon P.%Zackai%NULL%1,                           Jennifer%Gillen%NULL%1,                           Adam J.%Ratner%NULL%1,                           Rowan F.%Walsh%NULL%1,                           Julie C.%Fitzgerald%NULL%1,                           Michael A.%Keenaghan%NULL%1,                           Hussam%Alharash%NULL%1,                           Sule%Doymaz%NULL%1,                           Katharine N.%Clouser%NULL%1,                           John S.%Giuliano%NULL%1,                           Anjali%Gupta%NULL%1,                           Robert M.%Parker%NULL%1,                           Aline B.%Maddux%NULL%1,                           Vinod%Havalad%NULL%1,                           Stacy%Ramsingh%NULL%1,                           Hulya%Bukulmez%NULL%1,                           Tamara T.%Bradford%NULL%1,                           Lincoln S.%Smith%NULL%1,                           Mark W.%Tenforde%NULL%1,                           Christopher L.%Carroll%NULL%1,                           Becky J.%Riggs%NULL%1,                           Shira J.%Gertz%NULL%1,                           Ariel%Daube%NULL%1,                           Amanda%Lansell%NULL%2,                           Amanda%Lansell%NULL%0,                           Alvaro%Coronado Munoz%NULL%1,                           Charlotte V.%Hobbs%NULL%2,                           Charlotte V.%Hobbs%NULL%0,                           Kimberly L.%Marohn%NULL%1,                           Natasha B.%Halasa%NULL%1,                           Manish M.%Patel%NULL%1,                           Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                            Angelo%Mazza%NULL%1,                            Annalisa%Gervasoni%NULL%1,                            Laura%Martelli%NULL%1,                            Maurizio%Ruggeri%NULL%1,                            Matteo%Ciuffreda%NULL%1,                            Ezio%Bonanomi%NULL%1,                            Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                            Scott I.%Aydin%NULL%1,                            Kim R.%Derespina%NULL%0,                            Prerna B.%Bansal%NULL%1,                            Shanna%Kowalsky%NULL%2,                            Rebecca%Trachtman%NULL%2,                            Jennifer K.%Gillen%NULL%1,                            Michelle M.%Perez%NULL%1,                            Sara H.%Soshnick%NULL%1,                            Edward E.%Conway%NULL%1,                            Asher%Bercow%NULL%1,                            Howard S.%Seiden%NULL%1,                            Robert H.%Pass%NULL%1,                            Henry M.%Ushay%NULL%0,                            George%Ofori-Amanfo%NULL%1,                            Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                            Amanda%Cantor%NULL%1,                            Philip%Zachariah%NULL%1,                            Danielle%Ahn%NULL%1,                            Mercedes%Martinez%NULL%1,                            Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                            John C.%Smulian%NULL%1,                            John A.%Lednicky%NULL%1,                            Tony S.%Wen%NULL%1,                            Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                            Emilia H.%Koumans%NULL%1,                            Eric J.%Chow%NULL%1,                            Elizabeth M.%Rosenthal%NULL%2,                            Elizabeth M.%Rosenthal%NULL%0,                            Alison%Muse%NULL%2,                            Alison%Muse%NULL%0,                            Jemma%Rowlands%NULL%1,                            Meredith A.%Barranco%NULL%1,                            Angela M.%Maxted%NULL%1,                            Eli S.%Rosenberg%NULL%1,                            Delia%Easton%NULL%1,                            Tomoko%Udo%NULL%1,                            Jessica%Kumar%NULL%1,                            Wendy%Pulver%NULL%1,                            Lou%Smith%NULL%1,                            Brad%Hutton%NULL%1,                            Debra%Blog%NULL%1,                            Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                            Heba%Elbaaly%NULL%2,                            Heba%Elbaaly%NULL%0,                            Catriona E. L.%Reid%NULL%2,                            Catriona E. L.%Reid%NULL%0,                            Rui M. F.%Santos%NULL%2,                            Rui M. F.%Santos%NULL%0,                            Vinay%Shivamurthy%NULL%2,                            Vinay%Shivamurthy%NULL%0,                            James%Wong%NULL%1,                            K. Haran%Jogeesvaran%NULL%2,                            K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                            Clément%Poirault%NULL%1,                            Alice%Corsia%NULL%1,                            Fanny%Bajolle%NULL%2,                            Jacques%Fourgeaud%NULL%1,                            François%Angoulvant%NULL%1,                            Agathe%Debray%NULL%1,                            Romain%Basmaci%NULL%2,                            Elodie%Salvador%NULL%1,                            Sandra%Biscardi%NULL%1,                            Pierre%Frange%NULL%1,                            Martin%Chalumeau%NULL%1,                            Jean-Laurent%Casanova%NULL%2,                            Jean-Laurent%Casanova%NULL%0,                            Jérémie F%Cohen%NULL%1,                            Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                            Charlotte%Borocco%NULL%1,                            Naim%Ouldali%NULL%1,                            Marion%Caseris%NULL%2,                            Romain%Basmaci%NULL%0,                            Noémie%Lachaume%NULL%1,                            Philippe%Bensaid%NULL%1,                            Samia%Pichard%NULL%1,                            Hanane%Kouider%NULL%1,                            Guillaume%Morelle%NULL%1,                            Irina%Craiu%NULL%1,                            Corinne%Pondarre%NULL%1,                            Anna%Deho%NULL%1,                            Arielle%Maroni%NULL%1,                            Mehdi%Oualha%NULL%2,                            Zahir%Amoura%NULL%1,                            Julien%Haroche%NULL%1,                            Juliette%Chommeloux%NULL%1,                            Fanny%Bajolle%NULL%0,                            Constance%Beyler%NULL%2,                            Stéphane%Bonacorsi%NULL%1,                            Guislaine%Carcelain%NULL%1,                            Isabelle%Koné-Paut%NULL%1,                            Brigitte%Bader-Meunier%NULL%2,                            Brigitte%Bader-Meunier%NULL%0,                            Albert%Faye%NULL%3,                            Albert%Faye%NULL%0,                            Ulrich%Meinzer%NULL%2,                            Caroline%Galeotti%NULL%1,                            Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                            Oscar%Nolan%NULL%1,                            Chui Yi%Lai%NULL%1,                            Nanda%Prabhu%NULL%1,                            Raghu%Krishnamurthy%NULL%1,                            Alex G.%Richter%NULL%1,                            Deepthi%Jyothish%NULL%1,                            Hari Krishnan%Kanthimathinathan%NULL%2,                            Steven B.%Welch%NULL%1,                            Scott%Hackett%NULL%1,                            Eslam%Al-Abadi%NULL%1,                            Barnaby R.%Scholefield%NULL%1,                            Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                            Julie%Starck%NULL%1,                            Michael%Levy%NULL%1,                            Clémence%Marais%NULL%1,                            Judith%Chareyre%NULL%1,                            Diala%Khraiche%NULL%1,                            Marianne%Leruez-Ville%NULL%1,                            Pierre%Quartier%NULL%1,                            Pierre Louis%Léger%NULL%1,                            Guillaume%Geslain%NULL%1,                            Nada%Semaan%NULL%1,                            Florence%Moulin%NULL%1,                            Matthieu%Bendavid%NULL%1,                            Sandrine%Jean%NULL%1,                            Géraldine%Poncelet%NULL%1,                            Sylvain%Renolleau%NULL%1,                            Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                            Esra%Akkoyun%NULL%1,                            Eudys%Briceno‐Brito%NULL%1,                            Shanna%Kowalsky%NULL%0,                            James%Reed%NULL%1,                            Roberto%Posada%NULL%1,                            Emilia Mia%Sordillo%NULL%1,                            Michael%Tosi%NULL%1,                            Rebecca%Trachtman%NULL%0,                            Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                            Claire%Evans%NULL%1,                            Hari Krishnan%Kanthimathinathan%NULL%0,                            Jon%Lillie%NULL%1,                            Joseph%Brierley%NULL%1,                            Gareth%Waters%NULL%1,                            Mae%Johnson%NULL%1,                            Benedict%Griffiths%NULL%1,                            Pascale%du Pré%NULL%1,                            Zoha%Mohammad%NULL%1,                            Akash%Deep%NULL%1,                            Stephen%Playfor%NULL%1,                            Davinder%Singh%NULL%1,                            David%Inwald%NULL%1,                            Michelle%Jardine%NULL%1,                            Oliver%Ross%NULL%1,                            Nayan%Shetty%NULL%1,                            Mark%Worrall%NULL%1,                            Ruchi%Sinha%NULL%1,                            Ashwani%Koul%NULL%1,                            Elizabeth%Whittaker%NULL%1,                            Harish%Vyas%NULL%1,                            Barnaby R%Scholefield%NULL%1,                            Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                            Marie%Pouletty%NULL%1,                            Patricia%Mariani%NULL%1,                            Constance%Beyler%NULL%0,                            Audrey%Blachier%NULL%1,                            Stephane%Bonacorsi%NULL%1,                            Kostas%Danis%NULL%1,                            Maryline%Chomton%NULL%1,                            Laure%Maurice%NULL%1,                            Fleur%Le Bourgeois%NULL%1,                            Marion%Caseris%NULL%0,                            Jean%Gaschignard%NULL%1,                            Julie%Poline%NULL%1,                            Robert%Cohen%NULL%1,                            Luigi%Titomanlio%NULL%1,                            Albert%Faye%NULL%0,                            Isabelle%Melki%NULL%0,                            Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                            Erica B.%Rose%NULL%1,                            Steven M.%Horwitz%NULL%1,                            Jennifer P.%Collins%NULL%1,                            Margaret M.%Newhams%NULL%1,                            Mary Beth F.%Son%NULL%1,                            Jane W.%Newburger%NULL%1,                            Lawrence C.%Kleinman%NULL%1,                            Sabrina M.%Heidemann%NULL%1,                            Amarilis A.%Martin%NULL%2,                            Amarilis A.%Martin%NULL%0,                            Aalok R.%Singh%NULL%1,                            Simon%Li%NULL%1,                            Keiko M.%Tarquinio%NULL%1,                            Preeti%Jaggi%NULL%1,                            Matthew E.%Oster%NULL%1,                            Sheemon P.%Zackai%NULL%1,                            Jennifer%Gillen%NULL%1,                            Adam J.%Ratner%NULL%1,                            Rowan F.%Walsh%NULL%1,                            Julie C.%Fitzgerald%NULL%1,                            Michael A.%Keenaghan%NULL%1,                            Hussam%Alharash%NULL%1,                            Sule%Doymaz%NULL%1,                            Katharine N.%Clouser%NULL%1,                            John S.%Giuliano%NULL%1,                            Anjali%Gupta%NULL%1,                            Robert M.%Parker%NULL%1,                            Aline B.%Maddux%NULL%1,                            Vinod%Havalad%NULL%1,                            Stacy%Ramsingh%NULL%1,                            Hulya%Bukulmez%NULL%1,                            Tamara T.%Bradford%NULL%1,                            Lincoln S.%Smith%NULL%1,                            Mark W.%Tenforde%NULL%1,                            Christopher L.%Carroll%NULL%1,                            Becky J.%Riggs%NULL%1,                            Shira J.%Gertz%NULL%1,                            Ariel%Daube%NULL%1,                            Amanda%Lansell%NULL%2,                            Amanda%Lansell%NULL%0,                            Alvaro%Coronado Munoz%NULL%1,                            Charlotte V.%Hobbs%NULL%2,                            Charlotte V.%Hobbs%NULL%0,                            Kimberly L.%Marohn%NULL%1,                            Natasha B.%Halasa%NULL%1,                            Manish M.%Patel%NULL%1,                            Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2194,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -2142,7 +2226,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2206,7 +2290,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -2238,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2270,7 +2354,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2302,7 +2386,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -2334,7 +2418,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2366,7 +2450,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2398,7 +2482,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2430,7 +2514,7 @@
         <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2462,7 +2546,7 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2494,7 +2578,7 @@
         <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2526,7 +2610,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2558,7 +2642,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2590,7 +2674,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2622,7 +2706,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
